--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -716,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57000</v>
+        <v>57500</v>
       </c>
       <c r="E8" s="3">
-        <v>140100</v>
+        <v>141300</v>
       </c>
       <c r="F8" s="3">
-        <v>47700</v>
+        <v>48100</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E9" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="F9" s="3">
         <v>7100</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="E10" s="3">
-        <v>125100</v>
+        <v>126200</v>
       </c>
       <c r="F10" s="3">
-        <v>40600</v>
+        <v>40900</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -816,13 +816,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>121500</v>
+        <v>122500</v>
       </c>
       <c r="E12" s="3">
-        <v>157100</v>
+        <v>158400</v>
       </c>
       <c r="F12" s="3">
-        <v>64200</v>
+        <v>64700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -942,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>157700</v>
+        <v>159100</v>
       </c>
       <c r="E17" s="3">
-        <v>199200</v>
+        <v>201000</v>
       </c>
       <c r="F17" s="3">
-        <v>80400</v>
+        <v>81100</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -971,13 +971,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100700</v>
+        <v>-101600</v>
       </c>
       <c r="E18" s="3">
-        <v>-59100</v>
+        <v>-59600</v>
       </c>
       <c r="F18" s="3">
-        <v>-32800</v>
+        <v>-33000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1013,13 +1013,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3">
         <v>8700</v>
       </c>
       <c r="F20" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1042,13 +1042,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-81700</v>
+        <v>-82400</v>
       </c>
       <c r="E21" s="3">
-        <v>-26300</v>
+        <v>-26500</v>
       </c>
       <c r="F21" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1077,7 +1077,7 @@
         <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1100,13 +1100,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-99700</v>
+        <v>-100600</v>
       </c>
       <c r="E23" s="3">
-        <v>-52300</v>
+        <v>-52800</v>
       </c>
       <c r="F23" s="3">
-        <v>-25600</v>
+        <v>-25800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1187,13 +1187,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-99700</v>
+        <v>-100600</v>
       </c>
       <c r="E26" s="3">
-        <v>-53000</v>
+        <v>-53500</v>
       </c>
       <c r="F26" s="3">
-        <v>-25600</v>
+        <v>-25800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1216,13 +1216,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-99600</v>
+        <v>-100500</v>
       </c>
       <c r="E27" s="3">
-        <v>-52700</v>
+        <v>-53200</v>
       </c>
       <c r="F27" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1361,13 +1361,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E32" s="3">
         <v>-8700</v>
       </c>
       <c r="F32" s="3">
-        <v>-8100</v>
+        <v>-8200</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1390,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-99600</v>
+        <v>-100500</v>
       </c>
       <c r="E33" s="3">
-        <v>-52700</v>
+        <v>-53200</v>
       </c>
       <c r="F33" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1448,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-99600</v>
+        <v>-100500</v>
       </c>
       <c r="E35" s="3">
-        <v>-52700</v>
+        <v>-53200</v>
       </c>
       <c r="F35" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>312800</v>
+        <v>315500</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>3</v>
@@ -1566,7 +1566,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>209300</v>
+        <v>211200</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1653,7 +1653,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>553700</v>
+        <v>558600</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>3</v>
@@ -1740,7 +1740,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>135100</v>
+        <v>136300</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -1769,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>104300</v>
+        <v>105200</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>3</v>
@@ -1914,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>793200</v>
+        <v>800100</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>3</v>
@@ -1998,7 +1998,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22400</v>
+        <v>22600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>108400</v>
+        <v>109400</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>149300</v>
+        <v>150600</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67300</v>
+        <v>67900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>154300</v>
+        <v>155700</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>371000</v>
+        <v>374200</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>3</v>
@@ -2388,7 +2388,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>188600</v>
+        <v>190200</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2504,7 +2504,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>422200</v>
+        <v>425900</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>3</v>
@@ -2596,13 +2596,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-99600</v>
+        <v>-100500</v>
       </c>
       <c r="E81" s="3">
-        <v>-52700</v>
+        <v>-53200</v>
       </c>
       <c r="F81" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2638,13 +2638,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="E83" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="F83" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2812,13 +2812,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-94100</v>
+        <v>-94900</v>
       </c>
       <c r="E89" s="3">
-        <v>-63900</v>
+        <v>-64400</v>
       </c>
       <c r="F89" s="3">
-        <v>-76500</v>
+        <v>-77200</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2854,13 +2854,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="E91" s="3">
-        <v>-33600</v>
+        <v>-33900</v>
       </c>
       <c r="F91" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2941,13 +2941,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50300</v>
+        <v>-50700</v>
       </c>
       <c r="E94" s="3">
-        <v>-73700</v>
+        <v>-74400</v>
       </c>
       <c r="F94" s="3">
-        <v>-43400</v>
+        <v>-43800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3102,10 +3102,10 @@
         <v>5400</v>
       </c>
       <c r="E100" s="3">
-        <v>401000</v>
+        <v>404500</v>
       </c>
       <c r="F100" s="3">
-        <v>250100</v>
+        <v>252200</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3134,7 +3134,7 @@
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3157,13 +3157,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-139000</v>
+        <v>-140200</v>
       </c>
       <c r="E102" s="3">
-        <v>262800</v>
+        <v>265100</v>
       </c>
       <c r="F102" s="3">
-        <v>133100</v>
+        <v>134200</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,41 +666,43 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,25 +712,31 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57500</v>
+        <v>49400</v>
       </c>
       <c r="E8" s="3">
-        <v>141300</v>
+        <v>32800</v>
       </c>
       <c r="F8" s="3">
-        <v>48100</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>61400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>51300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -739,25 +747,31 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9600</v>
+        <v>6700</v>
       </c>
       <c r="E9" s="3">
-        <v>15200</v>
+        <v>6900</v>
       </c>
       <c r="F9" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>16200</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -768,25 +782,31 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>47900</v>
+        <v>42700</v>
       </c>
       <c r="E10" s="3">
-        <v>126200</v>
+        <v>25900</v>
       </c>
       <c r="F10" s="3">
-        <v>40900</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>51100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>134700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,25 +836,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>122500</v>
+        <v>112600</v>
       </c>
       <c r="E12" s="3">
-        <v>158400</v>
+        <v>77000</v>
       </c>
       <c r="F12" s="3">
-        <v>64700</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>130900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>169200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>69100</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,25 +988,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>159100</v>
+        <v>145100</v>
       </c>
       <c r="E17" s="3">
-        <v>201000</v>
+        <v>102800</v>
       </c>
       <c r="F17" s="3">
-        <v>81100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>169900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>214600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>86600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -965,25 +1019,31 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-101600</v>
+        <v>-95700</v>
       </c>
       <c r="E18" s="3">
-        <v>-59600</v>
+        <v>-70100</v>
       </c>
       <c r="F18" s="3">
-        <v>-33000</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-108500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-35300</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,26 +1073,28 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2000</v>
+        <v>-10800</v>
       </c>
       <c r="E20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,25 +1104,31 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-82400</v>
+        <v>-96100</v>
       </c>
       <c r="E21" s="3">
-        <v>-26500</v>
+        <v>-52500</v>
       </c>
       <c r="F21" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-88000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-16200</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1065,25 +1139,31 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
+      <c r="G22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1094,25 +1174,31 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100600</v>
+        <v>-107100</v>
       </c>
       <c r="E23" s="3">
-        <v>-52800</v>
+        <v>-63100</v>
       </c>
       <c r="F23" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-107400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-27600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1123,25 +1209,31 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,25 +1279,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100600</v>
+        <v>-104400</v>
       </c>
       <c r="E26" s="3">
-        <v>-53500</v>
+        <v>-63200</v>
       </c>
       <c r="F26" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-107500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-27600</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1210,25 +1314,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100500</v>
+        <v>-104400</v>
       </c>
       <c r="E27" s="3">
-        <v>-53200</v>
+        <v>-63200</v>
       </c>
       <c r="F27" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-107300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-27500</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,26 +1489,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2000</v>
+        <v>10800</v>
       </c>
       <c r="E32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,25 +1524,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100500</v>
+        <v>-104400</v>
       </c>
       <c r="E33" s="3">
-        <v>-53200</v>
+        <v>-63200</v>
       </c>
       <c r="F33" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-107300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-27500</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,25 +1594,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100500</v>
+        <v>-104400</v>
       </c>
       <c r="E35" s="3">
-        <v>-53200</v>
+        <v>-63200</v>
       </c>
       <c r="F35" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-107300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-27500</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,19 +1703,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>315500</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>677800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>534200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>337000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1560,19 +1734,25 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>211200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>2300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>225500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1589,19 +1769,25 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10300</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>11000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1618,19 +1804,25 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8100</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>10200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>8600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1647,19 +1839,25 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13500</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>32200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>14400</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1676,19 +1874,25 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>558600</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>734700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>583000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>596600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1705,19 +1909,25 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1734,19 +1944,25 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>136300</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>198400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>172000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>145600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1763,19 +1979,25 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>105200</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>216800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>112400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +2084,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,19 +2154,25 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800100</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>1151500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>866100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>854500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,19 +2223,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18700</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>42200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>20000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1992,19 +2254,25 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>22600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>43000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>24100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2021,19 +2289,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109400</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>161500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>125800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>116800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2050,19 +2324,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>150600</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>246700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>160900</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2079,19 +2359,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>67900</v>
+        <v>83100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>78800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>72600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2108,19 +2394,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>155700</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>109600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>89200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>166300</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,19 +2534,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>374200</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>439500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>336000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>399700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,19 +2724,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>190200</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>436800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>261800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>203200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,19 +2864,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>425900</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>712000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>530100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>454800</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,25 +2974,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100500</v>
+        <v>-104400</v>
       </c>
       <c r="E81" s="3">
-        <v>-53200</v>
+        <v>-63200</v>
       </c>
       <c r="F81" s="3">
-        <v>-25700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-107300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-27500</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,25 +3028,27 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>17300</v>
+        <v>10400</v>
       </c>
       <c r="E83" s="3">
-        <v>24300</v>
+        <v>10200</v>
       </c>
       <c r="F83" s="3">
-        <v>9700</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>26000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,25 +3234,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-94900</v>
+        <v>-18400</v>
       </c>
       <c r="E89" s="3">
-        <v>-64400</v>
+        <v>-64700</v>
       </c>
       <c r="F89" s="3">
-        <v>-77200</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-101400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-82400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,25 +3288,27 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11700</v>
+        <v>-17900</v>
       </c>
       <c r="E91" s="3">
-        <v>-33900</v>
+        <v>-7400</v>
       </c>
       <c r="F91" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-12500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-14600</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,25 +3389,31 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50700</v>
+        <v>-11500</v>
       </c>
       <c r="E94" s="3">
-        <v>-74400</v>
+        <v>-17700</v>
       </c>
       <c r="F94" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-54100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-46700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,25 +3579,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5400</v>
+        <v>172900</v>
       </c>
       <c r="E100" s="3">
-        <v>404500</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
-        <v>252200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>432000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>269400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3122,25 +3614,31 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>3200</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3151,25 +3649,31 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-140200</v>
+        <v>143600</v>
       </c>
       <c r="E102" s="3">
-        <v>265100</v>
+        <v>-79900</v>
       </c>
       <c r="F102" s="3">
-        <v>134200</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-149800</v>
+      </c>
+      <c r="G102" s="3">
+        <v>283200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>143400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,28 +719,31 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>49400</v>
+        <v>80700</v>
       </c>
       <c r="E8" s="3">
-        <v>32800</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="3">
-        <v>61400</v>
+        <v>33100</v>
       </c>
       <c r="G8" s="3">
-        <v>150900</v>
+        <v>62100</v>
       </c>
       <c r="H8" s="3">
-        <v>51300</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>152600</v>
+      </c>
+      <c r="I8" s="3">
+        <v>51900</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -753,28 +757,31 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>6700</v>
+        <v>8200</v>
       </c>
       <c r="E9" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F9" s="3">
-        <v>10300</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="3">
-        <v>16200</v>
+        <v>10400</v>
       </c>
       <c r="H9" s="3">
-        <v>7600</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -788,28 +795,31 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42700</v>
+        <v>72600</v>
       </c>
       <c r="E10" s="3">
-        <v>25900</v>
+        <v>43200</v>
       </c>
       <c r="F10" s="3">
-        <v>51100</v>
+        <v>26100</v>
       </c>
       <c r="G10" s="3">
-        <v>134700</v>
+        <v>51700</v>
       </c>
       <c r="H10" s="3">
-        <v>43700</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>136300</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,28 +851,29 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>112600</v>
+        <v>272400</v>
       </c>
       <c r="E12" s="3">
-        <v>77000</v>
+        <v>113900</v>
       </c>
       <c r="F12" s="3">
-        <v>130900</v>
+        <v>77900</v>
       </c>
       <c r="G12" s="3">
-        <v>169200</v>
+        <v>132400</v>
       </c>
       <c r="H12" s="3">
-        <v>69100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>171100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>69900</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,28 +1016,29 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>145100</v>
+        <v>303600</v>
       </c>
       <c r="E17" s="3">
-        <v>102800</v>
+        <v>146800</v>
       </c>
       <c r="F17" s="3">
-        <v>169900</v>
+        <v>104000</v>
       </c>
       <c r="G17" s="3">
-        <v>214600</v>
+        <v>171800</v>
       </c>
       <c r="H17" s="3">
-        <v>86600</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>217000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>87600</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1025,28 +1052,31 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-95700</v>
+        <v>-222900</v>
       </c>
       <c r="E18" s="3">
-        <v>-70100</v>
+        <v>-96800</v>
       </c>
       <c r="F18" s="3">
-        <v>-108500</v>
+        <v>-70900</v>
       </c>
       <c r="G18" s="3">
-        <v>-63700</v>
+        <v>-109700</v>
       </c>
       <c r="H18" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-64400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-35700</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,28 +1108,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-10800</v>
+        <v>-24700</v>
       </c>
       <c r="E20" s="3">
-        <v>7400</v>
+        <v>-10900</v>
       </c>
       <c r="F20" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
-        <v>9300</v>
-      </c>
       <c r="H20" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+        <v>9400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8800</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1110,28 +1144,31 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-96100</v>
+        <v>-237100</v>
       </c>
       <c r="E21" s="3">
-        <v>-52500</v>
+        <v>-97100</v>
       </c>
       <c r="F21" s="3">
-        <v>-88000</v>
+        <v>-53100</v>
       </c>
       <c r="G21" s="3">
-        <v>-28300</v>
+        <v>-89000</v>
       </c>
       <c r="H21" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-28700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-16300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,29 +1182,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
-        <v>2000</v>
-      </c>
       <c r="H22" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,28 +1220,31 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-107100</v>
+        <v>-248300</v>
       </c>
       <c r="E23" s="3">
-        <v>-63100</v>
+        <v>-108300</v>
       </c>
       <c r="F23" s="3">
-        <v>-107400</v>
+        <v>-63900</v>
       </c>
       <c r="G23" s="3">
-        <v>-56400</v>
+        <v>-108600</v>
       </c>
       <c r="H23" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-57000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-27900</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1215,28 +1258,31 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,28 +1334,31 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-104400</v>
+        <v>-251200</v>
       </c>
       <c r="E26" s="3">
-        <v>-63200</v>
+        <v>-105600</v>
       </c>
       <c r="F26" s="3">
-        <v>-107500</v>
+        <v>-63900</v>
       </c>
       <c r="G26" s="3">
-        <v>-57100</v>
+        <v>-108700</v>
       </c>
       <c r="H26" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-57700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-27900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1320,28 +1372,31 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-104400</v>
+        <v>-251200</v>
       </c>
       <c r="E27" s="3">
-        <v>-63200</v>
+        <v>-105600</v>
       </c>
       <c r="F27" s="3">
-        <v>-107300</v>
+        <v>-63900</v>
       </c>
       <c r="G27" s="3">
-        <v>-56800</v>
+        <v>-108500</v>
       </c>
       <c r="H27" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-57400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-27800</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,28 +1562,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>10800</v>
+        <v>24700</v>
       </c>
       <c r="E32" s="3">
-        <v>-7400</v>
+        <v>10900</v>
       </c>
       <c r="F32" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-9300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+        <v>-9400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8800</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1530,28 +1600,31 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-104400</v>
+        <v>-251200</v>
       </c>
       <c r="E33" s="3">
-        <v>-63200</v>
+        <v>-105600</v>
       </c>
       <c r="F33" s="3">
-        <v>-107300</v>
+        <v>-63900</v>
       </c>
       <c r="G33" s="3">
-        <v>-56800</v>
+        <v>-108500</v>
       </c>
       <c r="H33" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-57400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-27800</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,28 +1676,31 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-104400</v>
+        <v>-251200</v>
       </c>
       <c r="E35" s="3">
-        <v>-63200</v>
+        <v>-105600</v>
       </c>
       <c r="F35" s="3">
-        <v>-107300</v>
+        <v>-63900</v>
       </c>
       <c r="G35" s="3">
-        <v>-56800</v>
+        <v>-108500</v>
       </c>
       <c r="H35" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-57400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-27800</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1635,34 +1714,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,22 +1791,23 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>677800</v>
+        <v>1184800</v>
       </c>
       <c r="E41" s="3">
-        <v>534200</v>
+        <v>685400</v>
       </c>
       <c r="F41" s="3">
-        <v>337000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>540200</v>
+      </c>
+      <c r="G41" s="3">
+        <v>340800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1740,22 +1827,25 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E42" s="3">
         <v>2300</v>
       </c>
-      <c r="E42" s="3">
-        <v>2000</v>
-      </c>
       <c r="F42" s="3">
-        <v>225500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>228100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1775,22 +1865,25 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12200</v>
+        <v>9400</v>
       </c>
       <c r="E43" s="3">
-        <v>14800</v>
+        <v>12300</v>
       </c>
       <c r="F43" s="3">
-        <v>11000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>14900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>11100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1810,22 +1903,25 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>10200</v>
+        <v>14800</v>
       </c>
       <c r="E44" s="3">
-        <v>11400</v>
+        <v>10300</v>
       </c>
       <c r="F44" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>8700</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1845,22 +1941,25 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>32200</v>
+        <v>75700</v>
       </c>
       <c r="E45" s="3">
-        <v>20600</v>
+        <v>32600</v>
       </c>
       <c r="F45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1880,22 +1979,25 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>734700</v>
+        <v>1306100</v>
       </c>
       <c r="E46" s="3">
-        <v>583000</v>
+        <v>743000</v>
       </c>
       <c r="F46" s="3">
-        <v>596600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>589600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>603300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,11 +2031,11 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1950,22 +2055,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>198400</v>
+        <v>219500</v>
       </c>
       <c r="E48" s="3">
-        <v>172000</v>
+        <v>200600</v>
       </c>
       <c r="F48" s="3">
-        <v>145600</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>174000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>147200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1985,22 +2093,25 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>216800</v>
+        <v>201800</v>
       </c>
       <c r="E49" s="3">
-        <v>111100</v>
+        <v>219200</v>
       </c>
       <c r="F49" s="3">
         <v>112400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>113600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,17 +2207,20 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2116,8 +2236,8 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,22 +2283,25 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1151500</v>
+        <v>1733600</v>
       </c>
       <c r="E54" s="3">
-        <v>866100</v>
+        <v>1164400</v>
       </c>
       <c r="F54" s="3">
-        <v>854500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>875900</v>
+      </c>
+      <c r="G54" s="3">
+        <v>864100</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,22 +2355,23 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>42200</v>
+        <v>50100</v>
       </c>
       <c r="E57" s="3">
-        <v>23000</v>
+        <v>42700</v>
       </c>
       <c r="F57" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>23200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>20200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2260,22 +2391,25 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>43000</v>
+        <v>161700</v>
       </c>
       <c r="E58" s="3">
-        <v>19300</v>
+        <v>43500</v>
       </c>
       <c r="F58" s="3">
-        <v>24100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>24400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2295,22 +2429,25 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>161500</v>
+        <v>109300</v>
       </c>
       <c r="E59" s="3">
-        <v>125800</v>
+        <v>163300</v>
       </c>
       <c r="F59" s="3">
-        <v>116800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>127200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>118100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2330,22 +2467,25 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>246700</v>
+        <v>321200</v>
       </c>
       <c r="E60" s="3">
-        <v>168000</v>
+        <v>249500</v>
       </c>
       <c r="F60" s="3">
-        <v>160900</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>169900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>162700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2365,22 +2505,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>83100</v>
+        <v>210100</v>
       </c>
       <c r="E61" s="3">
-        <v>78800</v>
+        <v>84100</v>
       </c>
       <c r="F61" s="3">
-        <v>72600</v>
+        <v>79700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>73400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2400,22 +2543,25 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>109600</v>
+        <v>92700</v>
       </c>
       <c r="E62" s="3">
-        <v>89200</v>
+        <v>110800</v>
       </c>
       <c r="F62" s="3">
-        <v>166300</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>90200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>168100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,22 +2695,25 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439500</v>
+        <v>623900</v>
       </c>
       <c r="E66" s="3">
-        <v>336000</v>
+        <v>444400</v>
       </c>
       <c r="F66" s="3">
-        <v>399700</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>339800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>404200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,22 +2901,25 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>436800</v>
+        <v>821700</v>
       </c>
       <c r="E72" s="3">
-        <v>261800</v>
+        <v>441700</v>
       </c>
       <c r="F72" s="3">
-        <v>203200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>264800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>205400</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,22 +3053,25 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>712000</v>
+        <v>1109700</v>
       </c>
       <c r="E76" s="3">
-        <v>530100</v>
+        <v>720000</v>
       </c>
       <c r="F76" s="3">
-        <v>454800</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>536100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>459900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3129,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,28 +3172,31 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-104400</v>
+        <v>-251200</v>
       </c>
       <c r="E81" s="3">
-        <v>-63200</v>
+        <v>-105600</v>
       </c>
       <c r="F81" s="3">
-        <v>-107300</v>
+        <v>-63900</v>
       </c>
       <c r="G81" s="3">
-        <v>-56800</v>
+        <v>-108500</v>
       </c>
       <c r="H81" s="3">
-        <v>-27500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-57400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-27800</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,28 +3228,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="E83" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="F83" s="3">
-        <v>18400</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
-        <v>26000</v>
+        <v>18700</v>
       </c>
       <c r="H83" s="3">
-        <v>10400</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>26300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>10500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,28 +3454,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-18400</v>
+        <v>-230300</v>
       </c>
       <c r="E89" s="3">
-        <v>-64700</v>
+        <v>-18600</v>
       </c>
       <c r="F89" s="3">
-        <v>-101400</v>
+        <v>-65400</v>
       </c>
       <c r="G89" s="3">
-        <v>-68800</v>
+        <v>-102500</v>
       </c>
       <c r="H89" s="3">
-        <v>-82400</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-69600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-83300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,28 +3510,29 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17900</v>
+        <v>-23000</v>
       </c>
       <c r="E91" s="3">
-        <v>-7400</v>
+        <v>-18100</v>
       </c>
       <c r="F91" s="3">
-        <v>-12500</v>
+        <v>-7500</v>
       </c>
       <c r="G91" s="3">
-        <v>-36200</v>
+        <v>-12700</v>
       </c>
       <c r="H91" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-36600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-14800</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,28 +3622,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11500</v>
+        <v>-24300</v>
       </c>
       <c r="E94" s="3">
-        <v>-17700</v>
+        <v>-11700</v>
       </c>
       <c r="F94" s="3">
-        <v>-54100</v>
+        <v>-17900</v>
       </c>
       <c r="G94" s="3">
-        <v>-79400</v>
+        <v>-54700</v>
       </c>
       <c r="H94" s="3">
-        <v>-46700</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-80300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-47300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3828,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>172900</v>
+        <v>753900</v>
       </c>
       <c r="E100" s="3">
+        <v>174900</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
       </c>
-      <c r="F100" s="3">
-        <v>5800</v>
-      </c>
       <c r="G100" s="3">
-        <v>432000</v>
+        <v>5900</v>
       </c>
       <c r="H100" s="3">
-        <v>269400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>436800</v>
+      </c>
+      <c r="I100" s="3">
+        <v>272400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,29 +3866,32 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3200</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,28 +3904,31 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>143600</v>
+        <v>499400</v>
       </c>
       <c r="E102" s="3">
-        <v>-79900</v>
+        <v>145200</v>
       </c>
       <c r="F102" s="3">
-        <v>-149800</v>
+        <v>-80800</v>
       </c>
       <c r="G102" s="3">
-        <v>283200</v>
+        <v>-151400</v>
       </c>
       <c r="H102" s="3">
-        <v>143400</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>286400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>145000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -668,10 +668,11 @@
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -699,16 +700,16 @@
         <v>43921</v>
       </c>
       <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -728,25 +729,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80700</v>
+        <v>79400</v>
       </c>
       <c r="E8" s="3">
-        <v>50000</v>
+        <v>49200</v>
       </c>
       <c r="F8" s="3">
-        <v>33100</v>
+        <v>32600</v>
       </c>
       <c r="G8" s="3">
-        <v>62100</v>
+        <v>127800</v>
       </c>
       <c r="H8" s="3">
-        <v>152600</v>
+        <v>61100</v>
       </c>
       <c r="I8" s="3">
-        <v>51900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>150100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>51100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -766,25 +767,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="E9" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="F9" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="G9" s="3">
-        <v>10400</v>
+        <v>20400</v>
       </c>
       <c r="H9" s="3">
-        <v>16400</v>
+        <v>10200</v>
       </c>
       <c r="I9" s="3">
-        <v>7700</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+        <v>16100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7600</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -804,25 +805,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>72600</v>
+        <v>71400</v>
       </c>
       <c r="E10" s="3">
-        <v>43200</v>
+        <v>42500</v>
       </c>
       <c r="F10" s="3">
-        <v>26100</v>
+        <v>25700</v>
       </c>
       <c r="G10" s="3">
-        <v>51700</v>
+        <v>107300</v>
       </c>
       <c r="H10" s="3">
-        <v>136300</v>
+        <v>50800</v>
       </c>
       <c r="I10" s="3">
-        <v>44200</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+        <v>134000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>43500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -858,25 +859,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>272400</v>
+        <v>267900</v>
       </c>
       <c r="E12" s="3">
-        <v>113900</v>
+        <v>112000</v>
       </c>
       <c r="F12" s="3">
-        <v>77900</v>
+        <v>76600</v>
       </c>
       <c r="G12" s="3">
-        <v>132400</v>
+        <v>266400</v>
       </c>
       <c r="H12" s="3">
-        <v>171100</v>
+        <v>130200</v>
       </c>
       <c r="I12" s="3">
-        <v>69900</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>168300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>68800</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -1023,25 +1024,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>303600</v>
+        <v>298600</v>
       </c>
       <c r="E17" s="3">
-        <v>146800</v>
+        <v>144300</v>
       </c>
       <c r="F17" s="3">
-        <v>104000</v>
+        <v>102300</v>
       </c>
       <c r="G17" s="3">
-        <v>171800</v>
+        <v>341300</v>
       </c>
       <c r="H17" s="3">
-        <v>217000</v>
+        <v>169000</v>
       </c>
       <c r="I17" s="3">
-        <v>87600</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>213400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>86100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1061,25 +1062,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-222900</v>
+        <v>-219200</v>
       </c>
       <c r="E18" s="3">
-        <v>-96800</v>
+        <v>-95200</v>
       </c>
       <c r="F18" s="3">
-        <v>-70900</v>
+        <v>-69700</v>
       </c>
       <c r="G18" s="3">
-        <v>-109700</v>
+        <v>-213500</v>
       </c>
       <c r="H18" s="3">
-        <v>-64400</v>
+        <v>-107900</v>
       </c>
       <c r="I18" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-63300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-35100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1115,25 +1116,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24700</v>
+        <v>-24300</v>
       </c>
       <c r="E20" s="3">
-        <v>-10900</v>
+        <v>-10700</v>
       </c>
       <c r="F20" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="G20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
-        <v>9400</v>
-      </c>
       <c r="I20" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8700</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1153,25 +1154,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-237100</v>
+        <v>-233200</v>
       </c>
       <c r="E21" s="3">
-        <v>-97100</v>
+        <v>-95500</v>
       </c>
       <c r="F21" s="3">
-        <v>-53100</v>
+        <v>-52200</v>
       </c>
       <c r="G21" s="3">
-        <v>-89000</v>
+        <v>-169200</v>
       </c>
       <c r="H21" s="3">
-        <v>-28700</v>
+        <v>-87500</v>
       </c>
       <c r="I21" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>-28200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-16100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1191,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
-        <v>2100</v>
-      </c>
       <c r="I22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1229,25 +1230,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-248300</v>
+        <v>-244200</v>
       </c>
       <c r="E23" s="3">
-        <v>-108300</v>
+        <v>-106500</v>
       </c>
       <c r="F23" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G23" s="3">
-        <v>-108600</v>
+        <v>-211100</v>
       </c>
       <c r="H23" s="3">
-        <v>-57000</v>
+        <v>-106800</v>
       </c>
       <c r="I23" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-56100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-27400</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1267,7 +1268,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E24" s="3">
         <v>-2600</v>
@@ -1276,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1343,25 +1344,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-251200</v>
+        <v>-247100</v>
       </c>
       <c r="E26" s="3">
-        <v>-105600</v>
+        <v>-103900</v>
       </c>
       <c r="F26" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G26" s="3">
-        <v>-108700</v>
+        <v>-210800</v>
       </c>
       <c r="H26" s="3">
-        <v>-57700</v>
+        <v>-106900</v>
       </c>
       <c r="I26" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-56800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-27400</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1381,25 +1382,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-251200</v>
+        <v>-247100</v>
       </c>
       <c r="E27" s="3">
-        <v>-105600</v>
+        <v>-103900</v>
       </c>
       <c r="F27" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G27" s="3">
-        <v>-108500</v>
+        <v>-210600</v>
       </c>
       <c r="H27" s="3">
-        <v>-57400</v>
+        <v>-106700</v>
       </c>
       <c r="I27" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-56500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-27300</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1571,25 +1572,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24700</v>
+        <v>24300</v>
       </c>
       <c r="E32" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="F32" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I32" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-9300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8700</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1609,25 +1610,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-251200</v>
+        <v>-247100</v>
       </c>
       <c r="E33" s="3">
-        <v>-105600</v>
+        <v>-103900</v>
       </c>
       <c r="F33" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G33" s="3">
-        <v>-108500</v>
+        <v>-210600</v>
       </c>
       <c r="H33" s="3">
-        <v>-57400</v>
+        <v>-106700</v>
       </c>
       <c r="I33" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-56500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-27300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1685,25 +1686,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-251200</v>
+        <v>-247100</v>
       </c>
       <c r="E35" s="3">
-        <v>-105600</v>
+        <v>-103900</v>
       </c>
       <c r="F35" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G35" s="3">
-        <v>-108500</v>
+        <v>-210600</v>
       </c>
       <c r="H35" s="3">
-        <v>-57400</v>
+        <v>-106700</v>
       </c>
       <c r="I35" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-56500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-27300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1737,16 +1738,16 @@
         <v>43921</v>
       </c>
       <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1798,19 +1799,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1184800</v>
+        <v>1165200</v>
       </c>
       <c r="E41" s="3">
-        <v>685400</v>
+        <v>674100</v>
       </c>
       <c r="F41" s="3">
-        <v>540200</v>
+        <v>531300</v>
       </c>
       <c r="G41" s="3">
-        <v>340800</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>610700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>335100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1836,19 +1837,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21300</v>
+        <v>21000</v>
       </c>
       <c r="E42" s="3">
         <v>2300</v>
       </c>
       <c r="F42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G42" s="3">
-        <v>228100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>2000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>224300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1874,19 +1875,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="E43" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="G43" s="3">
         <v>14900</v>
       </c>
-      <c r="G43" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>11000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1912,19 +1913,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="E44" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F44" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="G44" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>8600</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1950,19 +1951,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75700</v>
+        <v>74400</v>
       </c>
       <c r="E45" s="3">
-        <v>32600</v>
+        <v>32000</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>17600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1988,19 +1989,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1306100</v>
+        <v>1284400</v>
       </c>
       <c r="E46" s="3">
-        <v>743000</v>
+        <v>730700</v>
       </c>
       <c r="F46" s="3">
-        <v>589600</v>
+        <v>579800</v>
       </c>
       <c r="G46" s="3">
-        <v>603300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>659000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>593300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2037,8 +2038,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2064,19 +2065,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>219500</v>
+        <v>215900</v>
       </c>
       <c r="E48" s="3">
-        <v>200600</v>
+        <v>197300</v>
       </c>
       <c r="F48" s="3">
-        <v>174000</v>
+        <v>171100</v>
       </c>
       <c r="G48" s="3">
-        <v>147200</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>174200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>144800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2102,19 +2103,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>201800</v>
+        <v>198500</v>
       </c>
       <c r="E49" s="3">
-        <v>219200</v>
+        <v>215600</v>
       </c>
       <c r="F49" s="3">
-        <v>112400</v>
+        <v>110500</v>
       </c>
       <c r="G49" s="3">
-        <v>113600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>105200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>111700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2216,10 +2217,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2292,19 +2293,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1733600</v>
+        <v>1704900</v>
       </c>
       <c r="E54" s="3">
-        <v>1164400</v>
+        <v>1145200</v>
       </c>
       <c r="F54" s="3">
-        <v>875900</v>
+        <v>861400</v>
       </c>
       <c r="G54" s="3">
-        <v>864100</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>938400</v>
+      </c>
+      <c r="H54" s="3">
+        <v>849800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2362,19 +2363,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50100</v>
+        <v>49300</v>
       </c>
       <c r="E57" s="3">
-        <v>42700</v>
+        <v>42000</v>
       </c>
       <c r="F57" s="3">
-        <v>23200</v>
+        <v>22800</v>
       </c>
       <c r="G57" s="3">
-        <v>20200</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>24100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>19900</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2400,19 +2401,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>161700</v>
+        <v>159000</v>
       </c>
       <c r="E58" s="3">
-        <v>43500</v>
+        <v>42800</v>
       </c>
       <c r="F58" s="3">
-        <v>19500</v>
+        <v>19100</v>
       </c>
       <c r="G58" s="3">
-        <v>24400</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>4100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>24000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2438,19 +2439,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109300</v>
+        <v>107500</v>
       </c>
       <c r="E59" s="3">
-        <v>163300</v>
+        <v>160600</v>
       </c>
       <c r="F59" s="3">
-        <v>127200</v>
+        <v>125100</v>
       </c>
       <c r="G59" s="3">
-        <v>118100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>134300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>116200</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2476,19 +2477,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>321200</v>
+        <v>315800</v>
       </c>
       <c r="E60" s="3">
-        <v>249500</v>
+        <v>245400</v>
       </c>
       <c r="F60" s="3">
-        <v>169900</v>
+        <v>167100</v>
       </c>
       <c r="G60" s="3">
-        <v>162700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>162500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>160000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2514,19 +2515,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>210100</v>
+        <v>206600</v>
       </c>
       <c r="E61" s="3">
-        <v>84100</v>
+        <v>82700</v>
       </c>
       <c r="F61" s="3">
-        <v>79700</v>
+        <v>78400</v>
       </c>
       <c r="G61" s="3">
-        <v>73400</v>
+        <v>81100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>72200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2552,19 +2553,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>92700</v>
+        <v>91100</v>
       </c>
       <c r="E62" s="3">
-        <v>110800</v>
+        <v>109000</v>
       </c>
       <c r="F62" s="3">
-        <v>90200</v>
+        <v>88700</v>
       </c>
       <c r="G62" s="3">
-        <v>168100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>114200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>165300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2704,19 +2705,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>623900</v>
+        <v>613600</v>
       </c>
       <c r="E66" s="3">
-        <v>444400</v>
+        <v>437000</v>
       </c>
       <c r="F66" s="3">
-        <v>339800</v>
+        <v>334200</v>
       </c>
       <c r="G66" s="3">
-        <v>404200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>357800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>397500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2910,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>821700</v>
+        <v>808100</v>
       </c>
       <c r="E72" s="3">
-        <v>441700</v>
+        <v>434400</v>
       </c>
       <c r="F72" s="3">
-        <v>264800</v>
+        <v>260400</v>
       </c>
       <c r="G72" s="3">
-        <v>205400</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>313800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>202000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3062,19 +3063,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1109700</v>
+        <v>1091300</v>
       </c>
       <c r="E76" s="3">
-        <v>720000</v>
+        <v>708100</v>
       </c>
       <c r="F76" s="3">
-        <v>536100</v>
+        <v>527200</v>
       </c>
       <c r="G76" s="3">
-        <v>459900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>580500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>452300</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3153,16 @@
         <v>43921</v>
       </c>
       <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -3181,25 +3182,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-251200</v>
+        <v>-247100</v>
       </c>
       <c r="E81" s="3">
-        <v>-105600</v>
+        <v>-103900</v>
       </c>
       <c r="F81" s="3">
-        <v>-63900</v>
+        <v>-62800</v>
       </c>
       <c r="G81" s="3">
-        <v>-108500</v>
+        <v>-210600</v>
       </c>
       <c r="H81" s="3">
-        <v>-57400</v>
+        <v>-106700</v>
       </c>
       <c r="I81" s="3">
-        <v>-27800</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-56500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-27300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3235,25 +3236,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="E83" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="F83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>39900</v>
+      </c>
+      <c r="H83" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>25900</v>
+      </c>
+      <c r="J83" s="3">
         <v>10300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>18700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>26300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3463,25 +3464,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-230300</v>
+        <v>-226500</v>
       </c>
       <c r="E89" s="3">
-        <v>-18600</v>
+        <v>-18300</v>
       </c>
       <c r="F89" s="3">
-        <v>-65400</v>
+        <v>-64300</v>
       </c>
       <c r="G89" s="3">
-        <v>-102500</v>
+        <v>-233600</v>
       </c>
       <c r="H89" s="3">
-        <v>-69600</v>
+        <v>-100800</v>
       </c>
       <c r="I89" s="3">
-        <v>-83300</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>-68400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-82000</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3517,25 +3518,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23000</v>
+        <v>-22700</v>
       </c>
       <c r="E91" s="3">
-        <v>-18100</v>
+        <v>-17800</v>
       </c>
       <c r="F91" s="3">
-        <v>-7500</v>
+        <v>-7400</v>
       </c>
       <c r="G91" s="3">
-        <v>-12700</v>
+        <v>-45400</v>
       </c>
       <c r="H91" s="3">
-        <v>-36600</v>
+        <v>-12500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-35200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-14500</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3631,25 +3632,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24300</v>
+        <v>-23900</v>
       </c>
       <c r="E94" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="F94" s="3">
-        <v>-17900</v>
+        <v>-17600</v>
       </c>
       <c r="G94" s="3">
-        <v>-54700</v>
+        <v>-90700</v>
       </c>
       <c r="H94" s="3">
-        <v>-80300</v>
+        <v>-53800</v>
       </c>
       <c r="I94" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>-78200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-46500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3837,25 +3838,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>753900</v>
+        <v>741400</v>
       </c>
       <c r="E100" s="3">
-        <v>174900</v>
+        <v>172000</v>
       </c>
       <c r="F100" s="3">
         <v>2400</v>
       </c>
       <c r="G100" s="3">
-        <v>5900</v>
+        <v>450900</v>
       </c>
       <c r="H100" s="3">
-        <v>436800</v>
+        <v>5800</v>
       </c>
       <c r="I100" s="3">
-        <v>272400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>429600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>267900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3884,16 +3885,16 @@
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>3100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3913,25 +3914,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>499400</v>
+        <v>491100</v>
       </c>
       <c r="E102" s="3">
-        <v>145200</v>
+        <v>142800</v>
       </c>
       <c r="F102" s="3">
-        <v>-80800</v>
+        <v>-79500</v>
       </c>
       <c r="G102" s="3">
-        <v>-151400</v>
+        <v>126600</v>
       </c>
       <c r="H102" s="3">
-        <v>286400</v>
+        <v>-148900</v>
       </c>
       <c r="I102" s="3">
-        <v>145000</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>281600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>142600</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,205 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79400</v>
+        <v>2509300</v>
       </c>
       <c r="E8" s="3">
-        <v>49200</v>
+        <v>423100</v>
       </c>
       <c r="F8" s="3">
-        <v>32600</v>
+        <v>82700</v>
       </c>
       <c r="G8" s="3">
-        <v>127800</v>
+        <v>51200</v>
       </c>
       <c r="H8" s="3">
-        <v>61100</v>
+        <v>33900</v>
       </c>
       <c r="I8" s="3">
+        <v>133000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K8" s="3">
         <v>150100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>51100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>8000</v>
+        <v>285500</v>
       </c>
       <c r="E9" s="3">
-        <v>6700</v>
+        <v>50200</v>
       </c>
       <c r="F9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
-        <v>20400</v>
-      </c>
       <c r="H9" s="3">
-        <v>10200</v>
+        <v>7200</v>
       </c>
       <c r="I9" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>71400</v>
+        <v>2223700</v>
       </c>
       <c r="E10" s="3">
-        <v>42500</v>
+        <v>372900</v>
       </c>
       <c r="F10" s="3">
-        <v>25700</v>
+        <v>74300</v>
       </c>
       <c r="G10" s="3">
-        <v>107300</v>
+        <v>44300</v>
       </c>
       <c r="H10" s="3">
-        <v>50800</v>
+        <v>26800</v>
       </c>
       <c r="I10" s="3">
+        <v>111800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K10" s="3">
         <v>134000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>43500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +878,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>267900</v>
+        <v>264800</v>
       </c>
       <c r="E12" s="3">
-        <v>112000</v>
+        <v>314800</v>
       </c>
       <c r="F12" s="3">
-        <v>76600</v>
+        <v>278900</v>
       </c>
       <c r="G12" s="3">
-        <v>266400</v>
+        <v>116600</v>
       </c>
       <c r="H12" s="3">
-        <v>130200</v>
+        <v>79800</v>
       </c>
       <c r="I12" s="3">
+        <v>277400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>135500</v>
+      </c>
+      <c r="K12" s="3">
         <v>168300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>68800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +962,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +1006,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1050,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1069,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>298600</v>
+        <v>473100</v>
       </c>
       <c r="E17" s="3">
-        <v>144300</v>
+        <v>124000</v>
       </c>
       <c r="F17" s="3">
-        <v>102300</v>
+        <v>311000</v>
       </c>
       <c r="G17" s="3">
-        <v>341300</v>
+        <v>150300</v>
       </c>
       <c r="H17" s="3">
-        <v>169000</v>
+        <v>106500</v>
       </c>
       <c r="I17" s="3">
+        <v>355400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>176000</v>
+      </c>
+      <c r="K17" s="3">
         <v>213400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>86100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-219200</v>
+        <v>2036200</v>
       </c>
       <c r="E18" s="3">
-        <v>-95200</v>
+        <v>299100</v>
       </c>
       <c r="F18" s="3">
-        <v>-69700</v>
+        <v>-228300</v>
       </c>
       <c r="G18" s="3">
-        <v>-213500</v>
+        <v>-99100</v>
       </c>
       <c r="H18" s="3">
-        <v>-107900</v>
+        <v>-72600</v>
       </c>
       <c r="I18" s="3">
+        <v>-222300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-63300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-35100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,113 +1175,127 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-24300</v>
+        <v>-23500</v>
       </c>
       <c r="E20" s="3">
-        <v>-10700</v>
+        <v>-46500</v>
       </c>
       <c r="F20" s="3">
-        <v>7400</v>
+        <v>-25300</v>
       </c>
       <c r="G20" s="3">
-        <v>4500</v>
+        <v>-11200</v>
       </c>
       <c r="H20" s="3">
-        <v>2100</v>
+        <v>7700</v>
       </c>
       <c r="I20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>9300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-233200</v>
+        <v>2028600</v>
       </c>
       <c r="E21" s="3">
-        <v>-95500</v>
+        <v>267900</v>
       </c>
       <c r="F21" s="3">
-        <v>-52200</v>
+        <v>-242800</v>
       </c>
       <c r="G21" s="3">
-        <v>-169200</v>
+        <v>-99500</v>
       </c>
       <c r="H21" s="3">
-        <v>-87500</v>
+        <v>-54400</v>
       </c>
       <c r="I21" s="3">
+        <v>-176200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-16100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>700</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
       <c r="I22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1224,75 +1303,87 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-244200</v>
+        <v>2011800</v>
       </c>
       <c r="E23" s="3">
-        <v>-106500</v>
+        <v>251900</v>
       </c>
       <c r="F23" s="3">
-        <v>-62800</v>
+        <v>-254200</v>
       </c>
       <c r="G23" s="3">
-        <v>-211100</v>
+        <v>-110900</v>
       </c>
       <c r="H23" s="3">
-        <v>-106800</v>
+        <v>-65400</v>
       </c>
       <c r="I23" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-56100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-27400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2900</v>
+        <v>629900</v>
       </c>
       <c r="E24" s="3">
-        <v>-2600</v>
+        <v>-197600</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="G24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1300,8 +1391,14 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1435,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-247100</v>
+        <v>1381900</v>
       </c>
       <c r="E26" s="3">
-        <v>-103900</v>
+        <v>449500</v>
       </c>
       <c r="F26" s="3">
-        <v>-62800</v>
+        <v>-257300</v>
       </c>
       <c r="G26" s="3">
-        <v>-210800</v>
+        <v>-108200</v>
       </c>
       <c r="H26" s="3">
-        <v>-106900</v>
+        <v>-65400</v>
       </c>
       <c r="I26" s="3">
+        <v>-219500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-56800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-27400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-247100</v>
+        <v>1381900</v>
       </c>
       <c r="E27" s="3">
-        <v>-103900</v>
+        <v>449500</v>
       </c>
       <c r="F27" s="3">
-        <v>-62800</v>
+        <v>-257300</v>
       </c>
       <c r="G27" s="3">
-        <v>-210600</v>
+        <v>-108200</v>
       </c>
       <c r="H27" s="3">
-        <v>-106700</v>
+        <v>-65400</v>
       </c>
       <c r="I27" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-56500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-27300</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1611,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1699,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="E32" s="3">
-        <v>10700</v>
+        <v>46500</v>
       </c>
       <c r="F32" s="3">
-        <v>-7400</v>
+        <v>25300</v>
       </c>
       <c r="G32" s="3">
-        <v>-4500</v>
+        <v>11200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2100</v>
+        <v>-7700</v>
       </c>
       <c r="I32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-247100</v>
+        <v>1381900</v>
       </c>
       <c r="E33" s="3">
-        <v>-103900</v>
+        <v>449500</v>
       </c>
       <c r="F33" s="3">
-        <v>-62800</v>
+        <v>-257300</v>
       </c>
       <c r="G33" s="3">
-        <v>-210600</v>
+        <v>-108200</v>
       </c>
       <c r="H33" s="3">
-        <v>-106700</v>
+        <v>-65400</v>
       </c>
       <c r="I33" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-56500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-27300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1831,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-247100</v>
+        <v>1381900</v>
       </c>
       <c r="E35" s="3">
-        <v>-103900</v>
+        <v>449500</v>
       </c>
       <c r="F35" s="3">
-        <v>-62800</v>
+        <v>-257300</v>
       </c>
       <c r="G35" s="3">
-        <v>-210600</v>
+        <v>-108200</v>
       </c>
       <c r="H35" s="3">
-        <v>-106700</v>
+        <v>-65400</v>
       </c>
       <c r="I35" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-56500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-27300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,31 +1964,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1165200</v>
+        <v>1092100</v>
       </c>
       <c r="E41" s="3">
-        <v>674100</v>
+        <v>1482500</v>
       </c>
       <c r="F41" s="3">
-        <v>531300</v>
+        <v>1213300</v>
       </c>
       <c r="G41" s="3">
-        <v>610700</v>
+        <v>701900</v>
       </c>
       <c r="H41" s="3">
-        <v>335100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>553200</v>
+      </c>
+      <c r="I41" s="3">
+        <v>636000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>349000</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1831,31 +2004,37 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>21000</v>
+        <v>600</v>
       </c>
       <c r="E42" s="3">
-        <v>2300</v>
+        <v>168100</v>
       </c>
       <c r="F42" s="3">
-        <v>2000</v>
+        <v>21900</v>
       </c>
       <c r="G42" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="H42" s="3">
-        <v>224300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+        <v>2100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>233500</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1869,31 +2048,37 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9300</v>
+        <v>2935100</v>
       </c>
       <c r="E43" s="3">
-        <v>12100</v>
+        <v>203800</v>
       </c>
       <c r="F43" s="3">
-        <v>14700</v>
+        <v>9700</v>
       </c>
       <c r="G43" s="3">
-        <v>14900</v>
+        <v>12600</v>
       </c>
       <c r="H43" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1907,31 +2092,37 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>14500</v>
+        <v>180000</v>
       </c>
       <c r="E44" s="3">
-        <v>10100</v>
+        <v>78500</v>
       </c>
       <c r="F44" s="3">
-        <v>11300</v>
+        <v>15200</v>
       </c>
       <c r="G44" s="3">
-        <v>13800</v>
+        <v>10600</v>
       </c>
       <c r="H44" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>8900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1945,31 +2136,37 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74400</v>
+        <v>123800</v>
       </c>
       <c r="E45" s="3">
-        <v>32000</v>
+        <v>109000</v>
       </c>
       <c r="F45" s="3">
-        <v>20500</v>
+        <v>77500</v>
       </c>
       <c r="G45" s="3">
-        <v>17600</v>
+        <v>33400</v>
       </c>
       <c r="H45" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>21300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>14900</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1983,31 +2180,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1284400</v>
+        <v>4331600</v>
       </c>
       <c r="E46" s="3">
-        <v>730700</v>
+        <v>2041900</v>
       </c>
       <c r="F46" s="3">
-        <v>579800</v>
+        <v>1337500</v>
       </c>
       <c r="G46" s="3">
-        <v>659000</v>
+        <v>760900</v>
       </c>
       <c r="H46" s="3">
-        <v>593300</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>603700</v>
+      </c>
+      <c r="I46" s="3">
+        <v>686200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>617800</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2224,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,17 +2244,17 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -2059,31 +2268,37 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>215900</v>
+        <v>442000</v>
       </c>
       <c r="E48" s="3">
-        <v>197300</v>
+        <v>399300</v>
       </c>
       <c r="F48" s="3">
-        <v>171100</v>
+        <v>224800</v>
       </c>
       <c r="G48" s="3">
-        <v>174200</v>
+        <v>205500</v>
       </c>
       <c r="H48" s="3">
-        <v>144800</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+        <v>178100</v>
+      </c>
+      <c r="I48" s="3">
+        <v>181400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>150700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2097,31 +2312,37 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>198500</v>
+        <v>202400</v>
       </c>
       <c r="E49" s="3">
-        <v>215600</v>
+        <v>200300</v>
       </c>
       <c r="F49" s="3">
-        <v>110500</v>
+        <v>206700</v>
       </c>
       <c r="G49" s="3">
-        <v>105200</v>
+        <v>224500</v>
       </c>
       <c r="H49" s="3">
-        <v>111700</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+        <v>115100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>109600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>116400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2356,14 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,22 +2444,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6100</v>
+        <v>174800</v>
       </c>
       <c r="E52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>198800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1600</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2240,17 +2479,23 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,31 +2532,37 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1704900</v>
+        <v>5150700</v>
       </c>
       <c r="E54" s="3">
-        <v>1145200</v>
+        <v>2840300</v>
       </c>
       <c r="F54" s="3">
-        <v>861400</v>
+        <v>1775300</v>
       </c>
       <c r="G54" s="3">
-        <v>938400</v>
+        <v>1192500</v>
       </c>
       <c r="H54" s="3">
-        <v>849800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>896900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>977100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>884900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2325,8 +2576,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,31 +2616,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>49300</v>
+        <v>130100</v>
       </c>
       <c r="E57" s="3">
-        <v>42000</v>
+        <v>125300</v>
       </c>
       <c r="F57" s="3">
-        <v>22800</v>
+        <v>51300</v>
       </c>
       <c r="G57" s="3">
-        <v>24100</v>
+        <v>43700</v>
       </c>
       <c r="H57" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+        <v>23800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>25100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>20700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2395,31 +2656,37 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>159000</v>
+        <v>425300</v>
       </c>
       <c r="E58" s="3">
-        <v>42800</v>
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>19100</v>
+        <v>165600</v>
       </c>
       <c r="G58" s="3">
-        <v>4100</v>
+        <v>44500</v>
       </c>
       <c r="H58" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>19900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>25000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2433,31 +2700,37 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>107500</v>
+        <v>1050700</v>
       </c>
       <c r="E59" s="3">
-        <v>160600</v>
+        <v>609600</v>
       </c>
       <c r="F59" s="3">
-        <v>125100</v>
+        <v>112000</v>
       </c>
       <c r="G59" s="3">
-        <v>134300</v>
+        <v>167200</v>
       </c>
       <c r="H59" s="3">
-        <v>116200</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>130300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>139800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>120900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2471,31 +2744,37 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>315800</v>
+        <v>1606100</v>
       </c>
       <c r="E60" s="3">
-        <v>245400</v>
+        <v>742400</v>
       </c>
       <c r="F60" s="3">
-        <v>167100</v>
+        <v>328900</v>
       </c>
       <c r="G60" s="3">
-        <v>162500</v>
+        <v>255500</v>
       </c>
       <c r="H60" s="3">
-        <v>160000</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>174000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>169200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>166600</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2509,31 +2788,37 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>206600</v>
+        <v>291100</v>
       </c>
       <c r="E61" s="3">
-        <v>82700</v>
+        <v>283000</v>
       </c>
       <c r="F61" s="3">
-        <v>78400</v>
+        <v>215100</v>
       </c>
       <c r="G61" s="3">
-        <v>81100</v>
+        <v>86100</v>
       </c>
       <c r="H61" s="3">
-        <v>72200</v>
+        <v>81600</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>84400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>75100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2547,31 +2832,37 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>91100</v>
+        <v>167100</v>
       </c>
       <c r="E62" s="3">
-        <v>109000</v>
+        <v>134400</v>
       </c>
       <c r="F62" s="3">
-        <v>88700</v>
+        <v>94900</v>
       </c>
       <c r="G62" s="3">
-        <v>114200</v>
+        <v>113500</v>
       </c>
       <c r="H62" s="3">
-        <v>165300</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+        <v>92400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>119000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>172200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2876,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,31 +3008,37 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>613600</v>
+        <v>2064200</v>
       </c>
       <c r="E66" s="3">
-        <v>437000</v>
+        <v>1159800</v>
       </c>
       <c r="F66" s="3">
-        <v>334200</v>
+        <v>638900</v>
       </c>
       <c r="G66" s="3">
-        <v>357800</v>
+        <v>455100</v>
       </c>
       <c r="H66" s="3">
-        <v>397500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>348000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>372600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>413900</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2737,8 +3052,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3202,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,31 +3246,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>808100</v>
+        <v>2790600</v>
       </c>
       <c r="E72" s="3">
-        <v>434400</v>
+        <v>1384600</v>
       </c>
       <c r="F72" s="3">
-        <v>260400</v>
+        <v>841400</v>
       </c>
       <c r="G72" s="3">
-        <v>313800</v>
+        <v>452300</v>
       </c>
       <c r="H72" s="3">
-        <v>202000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>271200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>326700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>210400</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3290,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,31 +3422,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1091300</v>
+        <v>3086500</v>
       </c>
       <c r="E76" s="3">
-        <v>708100</v>
+        <v>1680500</v>
       </c>
       <c r="F76" s="3">
-        <v>527200</v>
+        <v>1136400</v>
       </c>
       <c r="G76" s="3">
-        <v>580500</v>
+        <v>737400</v>
       </c>
       <c r="H76" s="3">
-        <v>452300</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>549000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>604500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>471000</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3466,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3510,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-247100</v>
+        <v>1381900</v>
       </c>
       <c r="E81" s="3">
-        <v>-103900</v>
+        <v>449500</v>
       </c>
       <c r="F81" s="3">
-        <v>-62800</v>
+        <v>-257300</v>
       </c>
       <c r="G81" s="3">
-        <v>-210600</v>
+        <v>-108200</v>
       </c>
       <c r="H81" s="3">
-        <v>-106700</v>
+        <v>-65400</v>
       </c>
       <c r="I81" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-111100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-56500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-27300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3625,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="G83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>41500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>25900</v>
+      </c>
+      <c r="L83" s="3">
         <v>10300</v>
       </c>
-      <c r="E83" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>39900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>18300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>25900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>10300</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3885,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-226500</v>
+        <v>-381300</v>
       </c>
       <c r="E89" s="3">
-        <v>-18300</v>
+        <v>305300</v>
       </c>
       <c r="F89" s="3">
-        <v>-64300</v>
+        <v>-235800</v>
       </c>
       <c r="G89" s="3">
-        <v>-233600</v>
+        <v>-19000</v>
       </c>
       <c r="H89" s="3">
-        <v>-100800</v>
+        <v>-67000</v>
       </c>
       <c r="I89" s="3">
+        <v>-243200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-68400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-82000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3951,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22700</v>
+        <v>-26600</v>
       </c>
       <c r="E91" s="3">
-        <v>-17800</v>
+        <v>-31100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
+        <v>-23600</v>
       </c>
       <c r="G91" s="3">
-        <v>-45400</v>
+        <v>-18500</v>
       </c>
       <c r="H91" s="3">
-        <v>-12500</v>
+        <v>-7700</v>
       </c>
       <c r="I91" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-14500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +4079,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-23900</v>
+        <v>-34700</v>
       </c>
       <c r="E94" s="3">
-        <v>-11500</v>
+        <v>-122300</v>
       </c>
       <c r="F94" s="3">
-        <v>-17600</v>
+        <v>-24900</v>
       </c>
       <c r="G94" s="3">
-        <v>-90700</v>
+        <v>-11900</v>
       </c>
       <c r="H94" s="3">
-        <v>-53800</v>
+        <v>-18300</v>
       </c>
       <c r="I94" s="3">
+        <v>-94500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-78200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-46500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4317,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>741400</v>
+        <v>-5500</v>
       </c>
       <c r="E100" s="3">
-        <v>172000</v>
+        <v>142500</v>
       </c>
       <c r="F100" s="3">
-        <v>2400</v>
+        <v>772000</v>
       </c>
       <c r="G100" s="3">
-        <v>450900</v>
+        <v>179100</v>
       </c>
       <c r="H100" s="3">
-        <v>5800</v>
+        <v>2500</v>
       </c>
       <c r="I100" s="3">
+        <v>469500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K100" s="3">
         <v>429600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>267900</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>31100</v>
       </c>
       <c r="E101" s="3">
-        <v>600</v>
+        <v>-56300</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>491100</v>
+        <v>-390400</v>
       </c>
       <c r="E102" s="3">
-        <v>142800</v>
+        <v>269200</v>
       </c>
       <c r="F102" s="3">
-        <v>-79500</v>
+        <v>511400</v>
       </c>
       <c r="G102" s="3">
-        <v>126600</v>
+        <v>148700</v>
       </c>
       <c r="H102" s="3">
-        <v>-148900</v>
+        <v>-82800</v>
       </c>
       <c r="I102" s="3">
+        <v>131900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-155100</v>
+      </c>
+      <c r="K102" s="3">
         <v>281600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>142600</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,63 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,41 +731,44 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2509300</v>
+        <v>6197200</v>
       </c>
       <c r="E8" s="3">
-        <v>423100</v>
+        <v>2391300</v>
       </c>
       <c r="F8" s="3">
-        <v>82700</v>
+        <v>403200</v>
       </c>
       <c r="G8" s="3">
-        <v>51200</v>
+        <v>78800</v>
       </c>
       <c r="H8" s="3">
-        <v>33900</v>
+        <v>48800</v>
       </c>
       <c r="I8" s="3">
-        <v>133000</v>
+        <v>32300</v>
       </c>
       <c r="J8" s="3">
+        <v>126800</v>
+      </c>
+      <c r="K8" s="3">
         <v>63600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>150100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>51100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,41 +778,44 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>285500</v>
+        <v>1031800</v>
       </c>
       <c r="E9" s="3">
-        <v>50200</v>
+        <v>272100</v>
       </c>
       <c r="F9" s="3">
-        <v>8400</v>
+        <v>47900</v>
       </c>
       <c r="G9" s="3">
-        <v>6900</v>
+        <v>8000</v>
       </c>
       <c r="H9" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="I9" s="3">
-        <v>21300</v>
+        <v>6800</v>
       </c>
       <c r="J9" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K9" s="3">
         <v>10700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,41 +825,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2223700</v>
+        <v>5165400</v>
       </c>
       <c r="E10" s="3">
-        <v>372900</v>
+        <v>2119200</v>
       </c>
       <c r="F10" s="3">
-        <v>74300</v>
+        <v>355400</v>
       </c>
       <c r="G10" s="3">
-        <v>44300</v>
+        <v>70800</v>
       </c>
       <c r="H10" s="3">
-        <v>26800</v>
+        <v>42200</v>
       </c>
       <c r="I10" s="3">
-        <v>111800</v>
+        <v>25500</v>
       </c>
       <c r="J10" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K10" s="3">
         <v>52900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>134000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,41 +893,42 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>264800</v>
+        <v>234800</v>
       </c>
       <c r="E12" s="3">
-        <v>314800</v>
+        <v>252400</v>
       </c>
       <c r="F12" s="3">
-        <v>278900</v>
+        <v>300000</v>
       </c>
       <c r="G12" s="3">
-        <v>116600</v>
+        <v>265800</v>
       </c>
       <c r="H12" s="3">
-        <v>79800</v>
+        <v>111100</v>
       </c>
       <c r="I12" s="3">
-        <v>277400</v>
+        <v>76000</v>
       </c>
       <c r="J12" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K12" s="3">
         <v>135500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>168300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>68800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,41 +1097,42 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>473100</v>
+        <v>1295900</v>
       </c>
       <c r="E17" s="3">
-        <v>124000</v>
+        <v>450900</v>
       </c>
       <c r="F17" s="3">
-        <v>311000</v>
+        <v>118200</v>
       </c>
       <c r="G17" s="3">
-        <v>150300</v>
+        <v>296300</v>
       </c>
       <c r="H17" s="3">
-        <v>106500</v>
+        <v>143200</v>
       </c>
       <c r="I17" s="3">
-        <v>355400</v>
+        <v>101500</v>
       </c>
       <c r="J17" s="3">
+        <v>338700</v>
+      </c>
+      <c r="K17" s="3">
         <v>176000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>213400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,41 +1142,44 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2036200</v>
+        <v>4901300</v>
       </c>
       <c r="E18" s="3">
-        <v>299100</v>
+        <v>1940500</v>
       </c>
       <c r="F18" s="3">
-        <v>-228300</v>
+        <v>285000</v>
       </c>
       <c r="G18" s="3">
-        <v>-99100</v>
+        <v>-217500</v>
       </c>
       <c r="H18" s="3">
-        <v>-72600</v>
+        <v>-94400</v>
       </c>
       <c r="I18" s="3">
-        <v>-222300</v>
+        <v>-69200</v>
       </c>
       <c r="J18" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-112400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,41 +1210,42 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23500</v>
+        <v>-204400</v>
       </c>
       <c r="E20" s="3">
-        <v>-46500</v>
+        <v>-22400</v>
       </c>
       <c r="F20" s="3">
-        <v>-25300</v>
+        <v>-44300</v>
       </c>
       <c r="G20" s="3">
-        <v>-11200</v>
+        <v>-24100</v>
       </c>
       <c r="H20" s="3">
-        <v>7700</v>
+        <v>-10700</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>7300</v>
       </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,41 +1255,44 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2028600</v>
+        <v>4716000</v>
       </c>
       <c r="E21" s="3">
-        <v>267900</v>
+        <v>1933200</v>
       </c>
       <c r="F21" s="3">
-        <v>-242800</v>
+        <v>255300</v>
       </c>
       <c r="G21" s="3">
-        <v>-99500</v>
+        <v>-231400</v>
       </c>
       <c r="H21" s="3">
-        <v>-54400</v>
+        <v>-94800</v>
       </c>
       <c r="I21" s="3">
-        <v>-176200</v>
+        <v>-51800</v>
       </c>
       <c r="J21" s="3">
+        <v>-167900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-91100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,16 +1302,19 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
@@ -1286,20 +1326,20 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
-        <v>2100</v>
+        <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,41 +1349,44 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2011800</v>
+        <v>4696300</v>
       </c>
       <c r="E23" s="3">
-        <v>251900</v>
+        <v>1917200</v>
       </c>
       <c r="F23" s="3">
-        <v>-254200</v>
+        <v>240000</v>
       </c>
       <c r="G23" s="3">
-        <v>-110900</v>
+        <v>-242300</v>
       </c>
       <c r="H23" s="3">
-        <v>-65400</v>
+        <v>-105700</v>
       </c>
       <c r="I23" s="3">
-        <v>-219800</v>
+        <v>-62300</v>
       </c>
       <c r="J23" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-111300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-56100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,40 +1396,43 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>629900</v>
+        <v>1442500</v>
       </c>
       <c r="E24" s="3">
-        <v>-197600</v>
+        <v>600300</v>
       </c>
       <c r="F24" s="3">
-        <v>3100</v>
+        <v>-188300</v>
       </c>
       <c r="G24" s="3">
-        <v>-2700</v>
+        <v>2900</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,41 +1490,44 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1381900</v>
+        <v>3253800</v>
       </c>
       <c r="E26" s="3">
-        <v>449500</v>
+        <v>1317000</v>
       </c>
       <c r="F26" s="3">
-        <v>-257300</v>
+        <v>428300</v>
       </c>
       <c r="G26" s="3">
-        <v>-108200</v>
+        <v>-245200</v>
       </c>
       <c r="H26" s="3">
-        <v>-65400</v>
+        <v>-103100</v>
       </c>
       <c r="I26" s="3">
-        <v>-219500</v>
+        <v>-62300</v>
       </c>
       <c r="J26" s="3">
+        <v>-209200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-111300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-56800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,41 +1537,44 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1381900</v>
+        <v>3253800</v>
       </c>
       <c r="E27" s="3">
-        <v>449500</v>
+        <v>1317000</v>
       </c>
       <c r="F27" s="3">
-        <v>-257300</v>
+        <v>428300</v>
       </c>
       <c r="G27" s="3">
-        <v>-108200</v>
+        <v>-245200</v>
       </c>
       <c r="H27" s="3">
-        <v>-65400</v>
+        <v>-103100</v>
       </c>
       <c r="I27" s="3">
-        <v>-219300</v>
+        <v>-62300</v>
       </c>
       <c r="J27" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-111100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-56500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27300</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,41 +1772,44 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23500</v>
+        <v>204400</v>
       </c>
       <c r="E32" s="3">
-        <v>46500</v>
+        <v>22400</v>
       </c>
       <c r="F32" s="3">
-        <v>25300</v>
+        <v>44300</v>
       </c>
       <c r="G32" s="3">
-        <v>11200</v>
+        <v>24100</v>
       </c>
       <c r="H32" s="3">
-        <v>-7700</v>
+        <v>10700</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-7300</v>
       </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1749,41 +1819,44 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1381900</v>
+        <v>3253800</v>
       </c>
       <c r="E33" s="3">
-        <v>449500</v>
+        <v>1317000</v>
       </c>
       <c r="F33" s="3">
-        <v>-257300</v>
+        <v>428300</v>
       </c>
       <c r="G33" s="3">
-        <v>-108200</v>
+        <v>-245200</v>
       </c>
       <c r="H33" s="3">
-        <v>-65400</v>
+        <v>-103100</v>
       </c>
       <c r="I33" s="3">
-        <v>-219300</v>
+        <v>-62300</v>
       </c>
       <c r="J33" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-111100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-56500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,41 +1913,44 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1381900</v>
+        <v>3253800</v>
       </c>
       <c r="E35" s="3">
-        <v>449500</v>
+        <v>1317000</v>
       </c>
       <c r="F35" s="3">
-        <v>-257300</v>
+        <v>428300</v>
       </c>
       <c r="G35" s="3">
-        <v>-108200</v>
+        <v>-245200</v>
       </c>
       <c r="H35" s="3">
-        <v>-65400</v>
+        <v>-103100</v>
       </c>
       <c r="I35" s="3">
-        <v>-219300</v>
+        <v>-62300</v>
       </c>
       <c r="J35" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-111100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-56500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,46 +1960,49 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,35 +2052,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1092100</v>
+        <v>1067100</v>
       </c>
       <c r="E41" s="3">
-        <v>1482500</v>
+        <v>1040700</v>
       </c>
       <c r="F41" s="3">
-        <v>1213300</v>
+        <v>1412800</v>
       </c>
       <c r="G41" s="3">
-        <v>701900</v>
+        <v>1156300</v>
       </c>
       <c r="H41" s="3">
-        <v>553200</v>
+        <v>668900</v>
       </c>
       <c r="I41" s="3">
-        <v>636000</v>
+        <v>527200</v>
       </c>
       <c r="J41" s="3">
+        <v>606100</v>
+      </c>
+      <c r="K41" s="3">
         <v>349000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,35 +2097,38 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
         <v>600</v>
       </c>
-      <c r="E42" s="3">
-        <v>168100</v>
-      </c>
       <c r="F42" s="3">
-        <v>21900</v>
+        <v>160200</v>
       </c>
       <c r="G42" s="3">
-        <v>2400</v>
+        <v>20800</v>
       </c>
       <c r="H42" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="I42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K42" s="3">
         <v>233500</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2054,35 +2144,38 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2935100</v>
+        <v>8233300</v>
       </c>
       <c r="E43" s="3">
-        <v>203800</v>
+        <v>2797100</v>
       </c>
       <c r="F43" s="3">
-        <v>9700</v>
+        <v>194200</v>
       </c>
       <c r="G43" s="3">
-        <v>12600</v>
+        <v>9200</v>
       </c>
       <c r="H43" s="3">
-        <v>15300</v>
+        <v>12000</v>
       </c>
       <c r="I43" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="J43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K43" s="3">
         <v>11400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2191,38 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>180000</v>
+        <v>356500</v>
       </c>
       <c r="E44" s="3">
-        <v>78500</v>
+        <v>171500</v>
       </c>
       <c r="F44" s="3">
-        <v>15200</v>
+        <v>74900</v>
       </c>
       <c r="G44" s="3">
-        <v>10600</v>
+        <v>14400</v>
       </c>
       <c r="H44" s="3">
-        <v>11800</v>
+        <v>10100</v>
       </c>
       <c r="I44" s="3">
-        <v>14400</v>
+        <v>11200</v>
       </c>
       <c r="J44" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,35 +2238,38 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>123800</v>
+        <v>194500</v>
       </c>
       <c r="E45" s="3">
-        <v>109000</v>
+        <v>118000</v>
       </c>
       <c r="F45" s="3">
-        <v>77500</v>
+        <v>103900</v>
       </c>
       <c r="G45" s="3">
-        <v>33400</v>
+        <v>73900</v>
       </c>
       <c r="H45" s="3">
-        <v>21300</v>
+        <v>31800</v>
       </c>
       <c r="I45" s="3">
-        <v>18300</v>
+        <v>20300</v>
       </c>
       <c r="J45" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K45" s="3">
         <v>14900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,35 +2285,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4331600</v>
+        <v>9852400</v>
       </c>
       <c r="E46" s="3">
-        <v>2041900</v>
+        <v>4128000</v>
       </c>
       <c r="F46" s="3">
-        <v>1337500</v>
+        <v>1946000</v>
       </c>
       <c r="G46" s="3">
-        <v>760900</v>
+        <v>1274600</v>
       </c>
       <c r="H46" s="3">
-        <v>603700</v>
+        <v>725100</v>
       </c>
       <c r="I46" s="3">
-        <v>686200</v>
+        <v>575400</v>
       </c>
       <c r="J46" s="3">
+        <v>653900</v>
+      </c>
+      <c r="K46" s="3">
         <v>617800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2250,14 +2355,14 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
@@ -2274,35 +2379,38 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>442000</v>
+        <v>444900</v>
       </c>
       <c r="E48" s="3">
-        <v>399300</v>
+        <v>421200</v>
       </c>
       <c r="F48" s="3">
-        <v>224800</v>
+        <v>380500</v>
       </c>
       <c r="G48" s="3">
-        <v>205500</v>
+        <v>214200</v>
       </c>
       <c r="H48" s="3">
-        <v>178100</v>
+        <v>195800</v>
       </c>
       <c r="I48" s="3">
-        <v>181400</v>
+        <v>169800</v>
       </c>
       <c r="J48" s="3">
+        <v>172800</v>
+      </c>
+      <c r="K48" s="3">
         <v>150700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,35 +2426,38 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>202400</v>
+        <v>191600</v>
       </c>
       <c r="E49" s="3">
-        <v>200300</v>
+        <v>192900</v>
       </c>
       <c r="F49" s="3">
-        <v>206700</v>
+        <v>190900</v>
       </c>
       <c r="G49" s="3">
-        <v>224500</v>
+        <v>197000</v>
       </c>
       <c r="H49" s="3">
-        <v>115100</v>
+        <v>214000</v>
       </c>
       <c r="I49" s="3">
-        <v>109600</v>
+        <v>109700</v>
       </c>
       <c r="J49" s="3">
+        <v>104400</v>
+      </c>
+      <c r="K49" s="3">
         <v>116400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,25 +2567,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>174800</v>
+        <v>191600</v>
       </c>
       <c r="E52" s="3">
-        <v>198800</v>
+        <v>166600</v>
       </c>
       <c r="F52" s="3">
-        <v>6300</v>
+        <v>189400</v>
       </c>
       <c r="G52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2485,8 +2605,8 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,35 +2661,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5150700</v>
+        <v>10680400</v>
       </c>
       <c r="E54" s="3">
-        <v>2840300</v>
+        <v>4908600</v>
       </c>
       <c r="F54" s="3">
-        <v>1775300</v>
+        <v>2706800</v>
       </c>
       <c r="G54" s="3">
-        <v>1192500</v>
+        <v>1691900</v>
       </c>
       <c r="H54" s="3">
-        <v>896900</v>
+        <v>1136400</v>
       </c>
       <c r="I54" s="3">
-        <v>977100</v>
+        <v>854800</v>
       </c>
       <c r="J54" s="3">
+        <v>931200</v>
+      </c>
+      <c r="K54" s="3">
         <v>884900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,35 +2748,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>130100</v>
+        <v>306700</v>
       </c>
       <c r="E57" s="3">
-        <v>125300</v>
+        <v>124000</v>
       </c>
       <c r="F57" s="3">
-        <v>51300</v>
+        <v>119400</v>
       </c>
       <c r="G57" s="3">
-        <v>43700</v>
+        <v>48900</v>
       </c>
       <c r="H57" s="3">
-        <v>23800</v>
+        <v>41700</v>
       </c>
       <c r="I57" s="3">
-        <v>25100</v>
+        <v>22700</v>
       </c>
       <c r="J57" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K57" s="3">
         <v>20700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,35 +2793,38 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>425300</v>
+        <v>832100</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>405300</v>
       </c>
       <c r="F58" s="3">
-        <v>165600</v>
+        <v>7200</v>
       </c>
       <c r="G58" s="3">
-        <v>44500</v>
+        <v>157800</v>
       </c>
       <c r="H58" s="3">
-        <v>19900</v>
+        <v>42400</v>
       </c>
       <c r="I58" s="3">
-        <v>4300</v>
+        <v>19000</v>
       </c>
       <c r="J58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K58" s="3">
         <v>25000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,35 +2840,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1050700</v>
+        <v>2554100</v>
       </c>
       <c r="E59" s="3">
-        <v>609600</v>
+        <v>1001300</v>
       </c>
       <c r="F59" s="3">
-        <v>112000</v>
+        <v>580900</v>
       </c>
       <c r="G59" s="3">
-        <v>167200</v>
+        <v>106700</v>
       </c>
       <c r="H59" s="3">
-        <v>130300</v>
+        <v>159400</v>
       </c>
       <c r="I59" s="3">
-        <v>139800</v>
+        <v>124200</v>
       </c>
       <c r="J59" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K59" s="3">
         <v>120900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,35 +2887,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1606100</v>
+        <v>3692900</v>
       </c>
       <c r="E60" s="3">
-        <v>742400</v>
+        <v>1530600</v>
       </c>
       <c r="F60" s="3">
-        <v>328900</v>
+        <v>707500</v>
       </c>
       <c r="G60" s="3">
-        <v>255500</v>
+        <v>313400</v>
       </c>
       <c r="H60" s="3">
-        <v>174000</v>
+        <v>243500</v>
       </c>
       <c r="I60" s="3">
-        <v>169200</v>
+        <v>165800</v>
       </c>
       <c r="J60" s="3">
+        <v>161300</v>
+      </c>
+      <c r="K60" s="3">
         <v>166600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,35 +2934,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>291100</v>
+        <v>567700</v>
       </c>
       <c r="E61" s="3">
-        <v>283000</v>
+        <v>277400</v>
       </c>
       <c r="F61" s="3">
-        <v>215100</v>
+        <v>269700</v>
       </c>
       <c r="G61" s="3">
-        <v>86100</v>
+        <v>205000</v>
       </c>
       <c r="H61" s="3">
-        <v>81600</v>
+        <v>82100</v>
       </c>
       <c r="I61" s="3">
-        <v>84400</v>
+        <v>77800</v>
       </c>
       <c r="J61" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K61" s="3">
         <v>75100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2838,35 +2981,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>167100</v>
+        <v>19100</v>
       </c>
       <c r="E62" s="3">
-        <v>134400</v>
+        <v>159200</v>
       </c>
       <c r="F62" s="3">
-        <v>94900</v>
+        <v>128100</v>
       </c>
       <c r="G62" s="3">
-        <v>113500</v>
+        <v>90400</v>
       </c>
       <c r="H62" s="3">
-        <v>92400</v>
+        <v>108200</v>
       </c>
       <c r="I62" s="3">
-        <v>119000</v>
+        <v>88000</v>
       </c>
       <c r="J62" s="3">
+        <v>113400</v>
+      </c>
+      <c r="K62" s="3">
         <v>172200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,35 +3169,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2064200</v>
+        <v>4279700</v>
       </c>
       <c r="E66" s="3">
-        <v>1159800</v>
+        <v>1967200</v>
       </c>
       <c r="F66" s="3">
-        <v>638900</v>
+        <v>1105300</v>
       </c>
       <c r="G66" s="3">
-        <v>455100</v>
+        <v>608900</v>
       </c>
       <c r="H66" s="3">
-        <v>348000</v>
+        <v>433700</v>
       </c>
       <c r="I66" s="3">
-        <v>372600</v>
+        <v>331600</v>
       </c>
       <c r="J66" s="3">
+        <v>355100</v>
+      </c>
+      <c r="K66" s="3">
         <v>413900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,35 +3423,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2790600</v>
+        <v>6117600</v>
       </c>
       <c r="E72" s="3">
-        <v>1384600</v>
+        <v>2659500</v>
       </c>
       <c r="F72" s="3">
-        <v>841400</v>
+        <v>1319600</v>
       </c>
       <c r="G72" s="3">
-        <v>452300</v>
+        <v>801900</v>
       </c>
       <c r="H72" s="3">
-        <v>271200</v>
+        <v>431100</v>
       </c>
       <c r="I72" s="3">
-        <v>326700</v>
+        <v>258400</v>
       </c>
       <c r="J72" s="3">
+        <v>311400</v>
+      </c>
+      <c r="K72" s="3">
         <v>210400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,35 +3611,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3086500</v>
+        <v>6400700</v>
       </c>
       <c r="E76" s="3">
-        <v>1680500</v>
+        <v>2941400</v>
       </c>
       <c r="F76" s="3">
-        <v>1136400</v>
+        <v>1601500</v>
       </c>
       <c r="G76" s="3">
-        <v>737400</v>
+        <v>1083000</v>
       </c>
       <c r="H76" s="3">
-        <v>549000</v>
+        <v>702700</v>
       </c>
       <c r="I76" s="3">
-        <v>604500</v>
+        <v>523200</v>
       </c>
       <c r="J76" s="3">
+        <v>576100</v>
+      </c>
+      <c r="K76" s="3">
         <v>471000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,46 +3705,49 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,41 +3757,44 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1381900</v>
+        <v>3253800</v>
       </c>
       <c r="E81" s="3">
-        <v>449500</v>
+        <v>1317000</v>
       </c>
       <c r="F81" s="3">
-        <v>-257300</v>
+        <v>428300</v>
       </c>
       <c r="G81" s="3">
-        <v>-108200</v>
+        <v>-245200</v>
       </c>
       <c r="H81" s="3">
-        <v>-65400</v>
+        <v>-103100</v>
       </c>
       <c r="I81" s="3">
-        <v>-219300</v>
+        <v>-62300</v>
       </c>
       <c r="J81" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-111100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-56500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,41 +3825,42 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15900</v>
+        <v>19100</v>
       </c>
       <c r="E83" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="F83" s="3">
-        <v>10800</v>
+        <v>14600</v>
       </c>
       <c r="G83" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="H83" s="3">
-        <v>10500</v>
+        <v>10300</v>
       </c>
       <c r="I83" s="3">
-        <v>41500</v>
+        <v>10000</v>
       </c>
       <c r="J83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K83" s="3">
         <v>19100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,41 +4105,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-381300</v>
+        <v>-117100</v>
       </c>
       <c r="E89" s="3">
-        <v>305300</v>
+        <v>-363400</v>
       </c>
       <c r="F89" s="3">
-        <v>-235800</v>
+        <v>291000</v>
       </c>
       <c r="G89" s="3">
-        <v>-19000</v>
+        <v>-224800</v>
       </c>
       <c r="H89" s="3">
-        <v>-67000</v>
+        <v>-18100</v>
       </c>
       <c r="I89" s="3">
-        <v>-243200</v>
+        <v>-63800</v>
       </c>
       <c r="J89" s="3">
+        <v>-231800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-105000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-68400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-82000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,41 +4173,42 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26600</v>
+        <v>-30200</v>
       </c>
       <c r="E91" s="3">
-        <v>-31100</v>
+        <v>-25300</v>
       </c>
       <c r="F91" s="3">
-        <v>-23600</v>
+        <v>-29600</v>
       </c>
       <c r="G91" s="3">
-        <v>-18500</v>
+        <v>-22500</v>
       </c>
       <c r="H91" s="3">
-        <v>-7700</v>
+        <v>-17600</v>
       </c>
       <c r="I91" s="3">
-        <v>-47300</v>
+        <v>-7300</v>
       </c>
       <c r="J91" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,41 +4312,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34700</v>
+        <v>-34800</v>
       </c>
       <c r="E94" s="3">
-        <v>-122300</v>
+        <v>-33000</v>
       </c>
       <c r="F94" s="3">
-        <v>-24900</v>
+        <v>-116500</v>
       </c>
       <c r="G94" s="3">
-        <v>-11900</v>
+        <v>-23700</v>
       </c>
       <c r="H94" s="3">
-        <v>-18300</v>
+        <v>-11400</v>
       </c>
       <c r="I94" s="3">
-        <v>-94500</v>
+        <v>-17400</v>
       </c>
       <c r="J94" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-56100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,41 +4566,44 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5500</v>
+        <v>178500</v>
       </c>
       <c r="E100" s="3">
-        <v>142500</v>
+        <v>-5300</v>
       </c>
       <c r="F100" s="3">
-        <v>772000</v>
+        <v>135800</v>
       </c>
       <c r="G100" s="3">
-        <v>179100</v>
+        <v>735700</v>
       </c>
       <c r="H100" s="3">
-        <v>2500</v>
+        <v>170700</v>
       </c>
       <c r="I100" s="3">
-        <v>469500</v>
+        <v>2300</v>
       </c>
       <c r="J100" s="3">
+        <v>447500</v>
+      </c>
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>429600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>267900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,41 +4613,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>31100</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
-        <v>-56300</v>
+        <v>29700</v>
       </c>
       <c r="F101" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4411,41 +4660,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-390400</v>
+        <v>26400</v>
       </c>
       <c r="E102" s="3">
-        <v>269200</v>
+        <v>-372100</v>
       </c>
       <c r="F102" s="3">
-        <v>511400</v>
+        <v>256500</v>
       </c>
       <c r="G102" s="3">
-        <v>148700</v>
+        <v>487300</v>
       </c>
       <c r="H102" s="3">
-        <v>-82800</v>
+        <v>141700</v>
       </c>
       <c r="I102" s="3">
-        <v>131900</v>
+        <v>-78900</v>
       </c>
       <c r="J102" s="3">
+        <v>125700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-155100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>281600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>142600</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,67 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -734,44 +735,47 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6197200</v>
+        <v>6873200</v>
       </c>
       <c r="E8" s="3">
-        <v>2391300</v>
+        <v>5993800</v>
       </c>
       <c r="F8" s="3">
-        <v>403200</v>
+        <v>2312800</v>
       </c>
       <c r="G8" s="3">
-        <v>78800</v>
+        <v>390000</v>
       </c>
       <c r="H8" s="3">
-        <v>48800</v>
+        <v>76200</v>
       </c>
       <c r="I8" s="3">
-        <v>32300</v>
+        <v>47200</v>
       </c>
       <c r="J8" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K8" s="3">
         <v>126800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>63600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>150100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>51100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -781,44 +785,47 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1031800</v>
+        <v>1367800</v>
       </c>
       <c r="E9" s="3">
-        <v>272100</v>
+        <v>997900</v>
       </c>
       <c r="F9" s="3">
-        <v>47900</v>
+        <v>263200</v>
       </c>
       <c r="G9" s="3">
-        <v>8000</v>
+        <v>46300</v>
       </c>
       <c r="H9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>20300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7600</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,44 +835,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5165400</v>
+        <v>5505400</v>
       </c>
       <c r="E10" s="3">
-        <v>2119200</v>
+        <v>4995900</v>
       </c>
       <c r="F10" s="3">
-        <v>355400</v>
+        <v>2049700</v>
       </c>
       <c r="G10" s="3">
-        <v>70800</v>
+        <v>343700</v>
       </c>
       <c r="H10" s="3">
-        <v>42200</v>
+        <v>68500</v>
       </c>
       <c r="I10" s="3">
-        <v>25500</v>
+        <v>40800</v>
       </c>
       <c r="J10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K10" s="3">
         <v>106500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>52900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>134000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,44 +907,45 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>234800</v>
+        <v>294000</v>
       </c>
       <c r="E12" s="3">
-        <v>252400</v>
+        <v>227100</v>
       </c>
       <c r="F12" s="3">
-        <v>300000</v>
+        <v>244100</v>
       </c>
       <c r="G12" s="3">
-        <v>265800</v>
+        <v>290200</v>
       </c>
       <c r="H12" s="3">
-        <v>111100</v>
+        <v>257100</v>
       </c>
       <c r="I12" s="3">
-        <v>76000</v>
+        <v>107500</v>
       </c>
       <c r="J12" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K12" s="3">
         <v>264400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>135500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>168300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>68800</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,44 +1124,45 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1295900</v>
+        <v>1539900</v>
       </c>
       <c r="E17" s="3">
-        <v>450900</v>
+        <v>1253400</v>
       </c>
       <c r="F17" s="3">
-        <v>118200</v>
+        <v>436100</v>
       </c>
       <c r="G17" s="3">
-        <v>296300</v>
+        <v>114300</v>
       </c>
       <c r="H17" s="3">
-        <v>143200</v>
+        <v>286600</v>
       </c>
       <c r="I17" s="3">
-        <v>101500</v>
+        <v>138500</v>
       </c>
       <c r="J17" s="3">
+        <v>98200</v>
+      </c>
+      <c r="K17" s="3">
         <v>338700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>176000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>213400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,44 +1172,47 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4901300</v>
+        <v>5333300</v>
       </c>
       <c r="E18" s="3">
-        <v>1940500</v>
+        <v>4740400</v>
       </c>
       <c r="F18" s="3">
-        <v>285000</v>
+        <v>1876800</v>
       </c>
       <c r="G18" s="3">
-        <v>-217500</v>
+        <v>275700</v>
       </c>
       <c r="H18" s="3">
-        <v>-94400</v>
+        <v>-210400</v>
       </c>
       <c r="I18" s="3">
-        <v>-69200</v>
+        <v>-91300</v>
       </c>
       <c r="J18" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-211900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-112400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-63300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,44 +1244,45 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-204400</v>
+        <v>-62400</v>
       </c>
       <c r="E20" s="3">
-        <v>-22400</v>
+        <v>-197700</v>
       </c>
       <c r="F20" s="3">
-        <v>-44300</v>
+        <v>-21700</v>
       </c>
       <c r="G20" s="3">
-        <v>-24100</v>
+        <v>-42900</v>
       </c>
       <c r="H20" s="3">
-        <v>-10700</v>
+        <v>-23300</v>
       </c>
       <c r="I20" s="3">
-        <v>7300</v>
+        <v>-10300</v>
       </c>
       <c r="J20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>4400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,44 +1292,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4716000</v>
+        <v>5293200</v>
       </c>
       <c r="E21" s="3">
-        <v>1933200</v>
+        <v>4561200</v>
       </c>
       <c r="F21" s="3">
-        <v>255300</v>
+        <v>1869800</v>
       </c>
       <c r="G21" s="3">
-        <v>-231400</v>
+        <v>247000</v>
       </c>
       <c r="H21" s="3">
-        <v>-94800</v>
+        <v>-223800</v>
       </c>
       <c r="I21" s="3">
-        <v>-51800</v>
+        <v>-91700</v>
       </c>
       <c r="J21" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-167900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-91100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-28200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,44 +1342,47 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>700</v>
       </c>
       <c r="G22" s="3">
         <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1352,44 +1392,47 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4696300</v>
+        <v>5270000</v>
       </c>
       <c r="E23" s="3">
-        <v>1917200</v>
+        <v>4542100</v>
       </c>
       <c r="F23" s="3">
-        <v>240000</v>
+        <v>1854300</v>
       </c>
       <c r="G23" s="3">
-        <v>-242300</v>
+        <v>232200</v>
       </c>
       <c r="H23" s="3">
-        <v>-105700</v>
+        <v>-234300</v>
       </c>
       <c r="I23" s="3">
-        <v>-62300</v>
+        <v>-102200</v>
       </c>
       <c r="J23" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-209500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-111300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-56100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1399,43 +1442,46 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1442500</v>
+        <v>1644400</v>
       </c>
       <c r="E24" s="3">
-        <v>600300</v>
+        <v>1395100</v>
       </c>
       <c r="F24" s="3">
-        <v>-188300</v>
+        <v>580600</v>
       </c>
       <c r="G24" s="3">
-        <v>2900</v>
+        <v>-182100</v>
       </c>
       <c r="H24" s="3">
-        <v>-2600</v>
+        <v>2800</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,44 +1542,47 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3253800</v>
+        <v>3625500</v>
       </c>
       <c r="E26" s="3">
-        <v>1317000</v>
+        <v>3147000</v>
       </c>
       <c r="F26" s="3">
-        <v>428300</v>
+        <v>1273700</v>
       </c>
       <c r="G26" s="3">
-        <v>-245200</v>
+        <v>414300</v>
       </c>
       <c r="H26" s="3">
-        <v>-103100</v>
+        <v>-237100</v>
       </c>
       <c r="I26" s="3">
-        <v>-62300</v>
+        <v>-99700</v>
       </c>
       <c r="J26" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-209200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-111300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-56800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1540,44 +1592,47 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3253800</v>
+        <v>3625500</v>
       </c>
       <c r="E27" s="3">
-        <v>1317000</v>
+        <v>3147000</v>
       </c>
       <c r="F27" s="3">
-        <v>428300</v>
+        <v>1273700</v>
       </c>
       <c r="G27" s="3">
-        <v>-245200</v>
+        <v>414300</v>
       </c>
       <c r="H27" s="3">
-        <v>-103100</v>
+        <v>-237100</v>
       </c>
       <c r="I27" s="3">
-        <v>-62300</v>
+        <v>-99700</v>
       </c>
       <c r="J27" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-209000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-111100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-56500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27300</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,44 +1842,47 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>204400</v>
+        <v>62400</v>
       </c>
       <c r="E32" s="3">
-        <v>22400</v>
+        <v>197700</v>
       </c>
       <c r="F32" s="3">
-        <v>44300</v>
+        <v>21700</v>
       </c>
       <c r="G32" s="3">
-        <v>24100</v>
+        <v>42900</v>
       </c>
       <c r="H32" s="3">
-        <v>10700</v>
+        <v>23300</v>
       </c>
       <c r="I32" s="3">
-        <v>-7300</v>
+        <v>10300</v>
       </c>
       <c r="J32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,44 +1892,47 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3253800</v>
+        <v>3625500</v>
       </c>
       <c r="E33" s="3">
-        <v>1317000</v>
+        <v>3147000</v>
       </c>
       <c r="F33" s="3">
-        <v>428300</v>
+        <v>1273700</v>
       </c>
       <c r="G33" s="3">
-        <v>-245200</v>
+        <v>414300</v>
       </c>
       <c r="H33" s="3">
-        <v>-103100</v>
+        <v>-237100</v>
       </c>
       <c r="I33" s="3">
-        <v>-62300</v>
+        <v>-99700</v>
       </c>
       <c r="J33" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-209000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-111100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-56500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,44 +1992,47 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3253800</v>
+        <v>3625500</v>
       </c>
       <c r="E35" s="3">
-        <v>1317000</v>
+        <v>3147000</v>
       </c>
       <c r="F35" s="3">
-        <v>428300</v>
+        <v>1273700</v>
       </c>
       <c r="G35" s="3">
-        <v>-245200</v>
+        <v>414300</v>
       </c>
       <c r="H35" s="3">
-        <v>-103100</v>
+        <v>-237100</v>
       </c>
       <c r="I35" s="3">
-        <v>-62300</v>
+        <v>-99700</v>
       </c>
       <c r="J35" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-209000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-111100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-56500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1963,49 +2042,52 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2015,8 +2097,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1067100</v>
+        <v>2701600</v>
       </c>
       <c r="E41" s="3">
-        <v>1040700</v>
+        <v>1032100</v>
       </c>
       <c r="F41" s="3">
-        <v>1412800</v>
+        <v>1006600</v>
       </c>
       <c r="G41" s="3">
-        <v>1156300</v>
+        <v>1366400</v>
       </c>
       <c r="H41" s="3">
-        <v>668900</v>
+        <v>1118300</v>
       </c>
       <c r="I41" s="3">
-        <v>527200</v>
+        <v>647000</v>
       </c>
       <c r="J41" s="3">
+        <v>509900</v>
+      </c>
+      <c r="K41" s="3">
         <v>606100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>349000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,38 +2187,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>600</v>
       </c>
-      <c r="F42" s="3">
-        <v>160200</v>
-      </c>
       <c r="G42" s="3">
-        <v>20800</v>
+        <v>155000</v>
       </c>
       <c r="H42" s="3">
-        <v>2300</v>
+        <v>20100</v>
       </c>
       <c r="I42" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2000</v>
       </c>
-      <c r="J42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>233500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,38 +2237,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8233300</v>
+        <v>11973900</v>
       </c>
       <c r="E43" s="3">
-        <v>2797100</v>
+        <v>7963100</v>
       </c>
       <c r="F43" s="3">
-        <v>194200</v>
+        <v>2705300</v>
       </c>
       <c r="G43" s="3">
-        <v>9200</v>
+        <v>187800</v>
       </c>
       <c r="H43" s="3">
-        <v>12000</v>
+        <v>8900</v>
       </c>
       <c r="I43" s="3">
-        <v>14600</v>
+        <v>11600</v>
       </c>
       <c r="J43" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K43" s="3">
         <v>14800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,38 +2287,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>356500</v>
+        <v>444200</v>
       </c>
       <c r="E44" s="3">
-        <v>171500</v>
+        <v>344800</v>
       </c>
       <c r="F44" s="3">
-        <v>74900</v>
+        <v>165900</v>
       </c>
       <c r="G44" s="3">
-        <v>14400</v>
+        <v>72400</v>
       </c>
       <c r="H44" s="3">
-        <v>10100</v>
+        <v>14000</v>
       </c>
       <c r="I44" s="3">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="J44" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K44" s="3">
         <v>13700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>194500</v>
+        <v>179200</v>
       </c>
       <c r="E45" s="3">
-        <v>118000</v>
+        <v>188100</v>
       </c>
       <c r="F45" s="3">
-        <v>103900</v>
+        <v>114200</v>
       </c>
       <c r="G45" s="3">
-        <v>73900</v>
+        <v>100500</v>
       </c>
       <c r="H45" s="3">
-        <v>31800</v>
+        <v>71400</v>
       </c>
       <c r="I45" s="3">
-        <v>20300</v>
+        <v>30700</v>
       </c>
       <c r="J45" s="3">
+        <v>19700</v>
+      </c>
+      <c r="K45" s="3">
         <v>17400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9852400</v>
+        <v>15300900</v>
       </c>
       <c r="E46" s="3">
-        <v>4128000</v>
+        <v>9529000</v>
       </c>
       <c r="F46" s="3">
-        <v>1946000</v>
+        <v>3992500</v>
       </c>
       <c r="G46" s="3">
-        <v>1274600</v>
+        <v>1882100</v>
       </c>
       <c r="H46" s="3">
-        <v>725100</v>
+        <v>1232800</v>
       </c>
       <c r="I46" s="3">
-        <v>575400</v>
+        <v>701300</v>
       </c>
       <c r="J46" s="3">
+        <v>556500</v>
+      </c>
+      <c r="K46" s="3">
         <v>653900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>617800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,28 +2437,31 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2364,8 +2469,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>444900</v>
+        <v>499200</v>
       </c>
       <c r="E48" s="3">
-        <v>421200</v>
+        <v>430300</v>
       </c>
       <c r="F48" s="3">
-        <v>380500</v>
+        <v>407400</v>
       </c>
       <c r="G48" s="3">
-        <v>214200</v>
+        <v>368000</v>
       </c>
       <c r="H48" s="3">
-        <v>195800</v>
+        <v>207200</v>
       </c>
       <c r="I48" s="3">
-        <v>169800</v>
+        <v>189400</v>
       </c>
       <c r="J48" s="3">
+        <v>164200</v>
+      </c>
+      <c r="K48" s="3">
         <v>172800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>150700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,38 +2537,41 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>191600</v>
+        <v>183900</v>
       </c>
       <c r="E49" s="3">
-        <v>192900</v>
+        <v>185300</v>
       </c>
       <c r="F49" s="3">
-        <v>190900</v>
+        <v>186500</v>
       </c>
       <c r="G49" s="3">
-        <v>197000</v>
+        <v>184600</v>
       </c>
       <c r="H49" s="3">
-        <v>214000</v>
+        <v>190500</v>
       </c>
       <c r="I49" s="3">
-        <v>109700</v>
+        <v>206900</v>
       </c>
       <c r="J49" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K49" s="3">
         <v>104400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>116400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,29 +2687,32 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>191600</v>
+        <v>86000</v>
       </c>
       <c r="E52" s="3">
-        <v>166600</v>
+        <v>185300</v>
       </c>
       <c r="F52" s="3">
-        <v>189400</v>
+        <v>161100</v>
       </c>
       <c r="G52" s="3">
-        <v>6000</v>
+        <v>183200</v>
       </c>
       <c r="H52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I52" s="3">
         <v>1500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2728,8 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10680400</v>
+        <v>16070000</v>
       </c>
       <c r="E54" s="3">
-        <v>4908600</v>
+        <v>10329900</v>
       </c>
       <c r="F54" s="3">
-        <v>2706800</v>
+        <v>4747500</v>
       </c>
       <c r="G54" s="3">
-        <v>1691900</v>
+        <v>2618000</v>
       </c>
       <c r="H54" s="3">
-        <v>1136400</v>
+        <v>1636400</v>
       </c>
       <c r="I54" s="3">
-        <v>854800</v>
+        <v>1099100</v>
       </c>
       <c r="J54" s="3">
+        <v>826700</v>
+      </c>
+      <c r="K54" s="3">
         <v>931200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>884900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>306700</v>
+        <v>292300</v>
       </c>
       <c r="E57" s="3">
-        <v>124000</v>
+        <v>296600</v>
       </c>
       <c r="F57" s="3">
-        <v>119400</v>
+        <v>119900</v>
       </c>
       <c r="G57" s="3">
-        <v>48900</v>
+        <v>115500</v>
       </c>
       <c r="H57" s="3">
-        <v>41700</v>
+        <v>47300</v>
       </c>
       <c r="I57" s="3">
-        <v>22700</v>
+        <v>40300</v>
       </c>
       <c r="J57" s="3">
+        <v>21900</v>
+      </c>
+      <c r="K57" s="3">
         <v>23900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>832100</v>
+        <v>1065300</v>
       </c>
       <c r="E58" s="3">
-        <v>405300</v>
+        <v>804800</v>
       </c>
       <c r="F58" s="3">
-        <v>7200</v>
+        <v>392000</v>
       </c>
       <c r="G58" s="3">
-        <v>157800</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3">
-        <v>42400</v>
+        <v>152600</v>
       </c>
       <c r="I58" s="3">
-        <v>19000</v>
+        <v>41000</v>
       </c>
       <c r="J58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2554100</v>
+        <v>4177900</v>
       </c>
       <c r="E59" s="3">
-        <v>1001300</v>
+        <v>2470200</v>
       </c>
       <c r="F59" s="3">
-        <v>580900</v>
+        <v>968400</v>
       </c>
       <c r="G59" s="3">
-        <v>106700</v>
+        <v>561800</v>
       </c>
       <c r="H59" s="3">
-        <v>159400</v>
+        <v>103200</v>
       </c>
       <c r="I59" s="3">
-        <v>124200</v>
+        <v>154100</v>
       </c>
       <c r="J59" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K59" s="3">
         <v>133300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>120900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3692900</v>
+        <v>5535500</v>
       </c>
       <c r="E60" s="3">
-        <v>1530600</v>
+        <v>3571700</v>
       </c>
       <c r="F60" s="3">
-        <v>707500</v>
+        <v>1480400</v>
       </c>
       <c r="G60" s="3">
-        <v>313400</v>
+        <v>684300</v>
       </c>
       <c r="H60" s="3">
-        <v>243500</v>
+        <v>303100</v>
       </c>
       <c r="I60" s="3">
-        <v>165800</v>
+        <v>235500</v>
       </c>
       <c r="J60" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K60" s="3">
         <v>161300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>166600</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>567700</v>
+        <v>669100</v>
       </c>
       <c r="E61" s="3">
-        <v>277400</v>
+        <v>549100</v>
       </c>
       <c r="F61" s="3">
-        <v>269700</v>
+        <v>268300</v>
       </c>
       <c r="G61" s="3">
-        <v>205000</v>
+        <v>260900</v>
       </c>
       <c r="H61" s="3">
-        <v>82100</v>
+        <v>198300</v>
       </c>
       <c r="I61" s="3">
-        <v>77800</v>
+        <v>79400</v>
       </c>
       <c r="J61" s="3">
+        <v>75200</v>
+      </c>
+      <c r="K61" s="3">
         <v>80400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19100</v>
+        <v>29200</v>
       </c>
       <c r="E62" s="3">
-        <v>159200</v>
+        <v>18500</v>
       </c>
       <c r="F62" s="3">
-        <v>128100</v>
+        <v>154000</v>
       </c>
       <c r="G62" s="3">
-        <v>90400</v>
+        <v>123900</v>
       </c>
       <c r="H62" s="3">
-        <v>108200</v>
+        <v>87500</v>
       </c>
       <c r="I62" s="3">
-        <v>88000</v>
+        <v>104600</v>
       </c>
       <c r="J62" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K62" s="3">
         <v>113400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>172200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4279700</v>
+        <v>6233900</v>
       </c>
       <c r="E66" s="3">
-        <v>1967200</v>
+        <v>4139300</v>
       </c>
       <c r="F66" s="3">
-        <v>1105300</v>
+        <v>1902600</v>
       </c>
       <c r="G66" s="3">
-        <v>608900</v>
+        <v>1069000</v>
       </c>
       <c r="H66" s="3">
-        <v>433700</v>
+        <v>588900</v>
       </c>
       <c r="I66" s="3">
-        <v>331600</v>
+        <v>419500</v>
       </c>
       <c r="J66" s="3">
+        <v>320800</v>
+      </c>
+      <c r="K66" s="3">
         <v>355100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>413900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6117600</v>
+        <v>9562300</v>
       </c>
       <c r="E72" s="3">
-        <v>2659500</v>
+        <v>5916800</v>
       </c>
       <c r="F72" s="3">
-        <v>1319600</v>
+        <v>2572200</v>
       </c>
       <c r="G72" s="3">
-        <v>801900</v>
+        <v>1276200</v>
       </c>
       <c r="H72" s="3">
-        <v>431100</v>
+        <v>775600</v>
       </c>
       <c r="I72" s="3">
-        <v>258400</v>
+        <v>416900</v>
       </c>
       <c r="J72" s="3">
+        <v>249900</v>
+      </c>
+      <c r="K72" s="3">
         <v>311400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>210400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6400700</v>
+        <v>9836200</v>
       </c>
       <c r="E76" s="3">
-        <v>2941400</v>
+        <v>6190600</v>
       </c>
       <c r="F76" s="3">
-        <v>1601500</v>
+        <v>2844900</v>
       </c>
       <c r="G76" s="3">
-        <v>1083000</v>
+        <v>1549000</v>
       </c>
       <c r="H76" s="3">
-        <v>702700</v>
+        <v>1047400</v>
       </c>
       <c r="I76" s="3">
-        <v>523200</v>
+        <v>679600</v>
       </c>
       <c r="J76" s="3">
+        <v>506000</v>
+      </c>
+      <c r="K76" s="3">
         <v>576100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>471000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,49 +3897,52 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3760,44 +3952,47 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3253800</v>
+        <v>3625500</v>
       </c>
       <c r="E81" s="3">
-        <v>1317000</v>
+        <v>3147000</v>
       </c>
       <c r="F81" s="3">
-        <v>428300</v>
+        <v>1273700</v>
       </c>
       <c r="G81" s="3">
-        <v>-245200</v>
+        <v>414300</v>
       </c>
       <c r="H81" s="3">
-        <v>-103100</v>
+        <v>-237100</v>
       </c>
       <c r="I81" s="3">
-        <v>-62300</v>
+        <v>-99700</v>
       </c>
       <c r="J81" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-209000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-111100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-56500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,44 +4024,45 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19100</v>
+        <v>22400</v>
       </c>
       <c r="E83" s="3">
-        <v>15200</v>
+        <v>18500</v>
       </c>
       <c r="F83" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="G83" s="3">
-        <v>10200</v>
+        <v>14200</v>
       </c>
       <c r="H83" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="I83" s="3">
         <v>10000</v>
       </c>
       <c r="J83" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K83" s="3">
         <v>39600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,44 +4322,47 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-117100</v>
+        <v>1694600</v>
       </c>
       <c r="E89" s="3">
-        <v>-363400</v>
+        <v>-113200</v>
       </c>
       <c r="F89" s="3">
-        <v>291000</v>
+        <v>-351500</v>
       </c>
       <c r="G89" s="3">
-        <v>-224800</v>
+        <v>281400</v>
       </c>
       <c r="H89" s="3">
-        <v>-18100</v>
+        <v>-217400</v>
       </c>
       <c r="I89" s="3">
-        <v>-63800</v>
+        <v>-17500</v>
       </c>
       <c r="J89" s="3">
+        <v>-61700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-231800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-105000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-68400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-82000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,44 +4394,45 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-30200</v>
+        <v>-45700</v>
       </c>
       <c r="E91" s="3">
-        <v>-25300</v>
+        <v>-29200</v>
       </c>
       <c r="F91" s="3">
-        <v>-29600</v>
+        <v>-24500</v>
       </c>
       <c r="G91" s="3">
-        <v>-22500</v>
+        <v>-28600</v>
       </c>
       <c r="H91" s="3">
-        <v>-17600</v>
+        <v>-21800</v>
       </c>
       <c r="I91" s="3">
-        <v>-7300</v>
+        <v>-17100</v>
       </c>
       <c r="J91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-34800</v>
+        <v>-46400</v>
       </c>
       <c r="E94" s="3">
-        <v>-33000</v>
+        <v>-33600</v>
       </c>
       <c r="F94" s="3">
-        <v>-116500</v>
+        <v>-32000</v>
       </c>
       <c r="G94" s="3">
-        <v>-23700</v>
+        <v>-112700</v>
       </c>
       <c r="H94" s="3">
-        <v>-11400</v>
+        <v>-23000</v>
       </c>
       <c r="I94" s="3">
-        <v>-17400</v>
+        <v>-11000</v>
       </c>
       <c r="J94" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-90000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-78200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-46500</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,44 +4812,47 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>178500</v>
+        <v>-6000</v>
       </c>
       <c r="E100" s="3">
-        <v>-5300</v>
+        <v>172600</v>
       </c>
       <c r="F100" s="3">
-        <v>135800</v>
+        <v>-5100</v>
       </c>
       <c r="G100" s="3">
-        <v>735700</v>
+        <v>131300</v>
       </c>
       <c r="H100" s="3">
-        <v>170700</v>
+        <v>711600</v>
       </c>
       <c r="I100" s="3">
+        <v>165100</v>
+      </c>
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>447500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>429600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>267900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,44 +4862,47 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>29700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-53700</v>
+        <v>28700</v>
       </c>
       <c r="G101" s="3">
+        <v>-51900</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>600</v>
-      </c>
       <c r="I101" s="3">
+        <v>500</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4663,44 +4912,47 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>26400</v>
+        <v>1669500</v>
       </c>
       <c r="E102" s="3">
-        <v>-372100</v>
+        <v>25500</v>
       </c>
       <c r="F102" s="3">
-        <v>256500</v>
+        <v>-359800</v>
       </c>
       <c r="G102" s="3">
-        <v>487300</v>
+        <v>248100</v>
       </c>
       <c r="H102" s="3">
-        <v>141700</v>
+        <v>471300</v>
       </c>
       <c r="I102" s="3">
-        <v>-78900</v>
+        <v>137100</v>
       </c>
       <c r="J102" s="3">
+        <v>-76300</v>
+      </c>
+      <c r="K102" s="3">
         <v>125700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-155100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>281600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>142600</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -666,7 +666,7 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6873200</v>
+        <v>6640700</v>
       </c>
       <c r="E8" s="3">
-        <v>5993800</v>
+        <v>5791100</v>
       </c>
       <c r="F8" s="3">
-        <v>2312800</v>
+        <v>2234600</v>
       </c>
       <c r="G8" s="3">
-        <v>390000</v>
+        <v>376800</v>
       </c>
       <c r="H8" s="3">
-        <v>76200</v>
+        <v>73600</v>
       </c>
       <c r="I8" s="3">
-        <v>47200</v>
+        <v>45600</v>
       </c>
       <c r="J8" s="3">
-        <v>31300</v>
+        <v>30200</v>
       </c>
       <c r="K8" s="3">
         <v>126800</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1367800</v>
+        <v>18100</v>
       </c>
       <c r="E9" s="3">
-        <v>997900</v>
+        <v>964100</v>
       </c>
       <c r="F9" s="3">
-        <v>263200</v>
+        <v>254300</v>
       </c>
       <c r="G9" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="H9" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="I9" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J9" s="3">
         <v>6400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6600</v>
       </c>
       <c r="K9" s="3">
         <v>20300</v>
@@ -844,25 +844,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5505400</v>
+        <v>6622600</v>
       </c>
       <c r="E10" s="3">
-        <v>4995900</v>
+        <v>4826900</v>
       </c>
       <c r="F10" s="3">
-        <v>2049700</v>
+        <v>1980300</v>
       </c>
       <c r="G10" s="3">
-        <v>343700</v>
+        <v>332100</v>
       </c>
       <c r="H10" s="3">
-        <v>68500</v>
+        <v>66200</v>
       </c>
       <c r="I10" s="3">
-        <v>40800</v>
+        <v>39400</v>
       </c>
       <c r="J10" s="3">
-        <v>24700</v>
+        <v>23800</v>
       </c>
       <c r="K10" s="3">
         <v>106500</v>
@@ -914,25 +914,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>294000</v>
+        <v>274800</v>
       </c>
       <c r="E12" s="3">
-        <v>227100</v>
+        <v>219400</v>
       </c>
       <c r="F12" s="3">
-        <v>244100</v>
+        <v>235900</v>
       </c>
       <c r="G12" s="3">
-        <v>290200</v>
+        <v>280400</v>
       </c>
       <c r="H12" s="3">
-        <v>257100</v>
+        <v>248400</v>
       </c>
       <c r="I12" s="3">
-        <v>107500</v>
+        <v>103800</v>
       </c>
       <c r="J12" s="3">
-        <v>73500</v>
+        <v>71000</v>
       </c>
       <c r="K12" s="3">
         <v>264400</v>
@@ -1014,25 +1014,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1303400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1064,25 +1064,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>11200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1539900</v>
+        <v>1487800</v>
       </c>
       <c r="E17" s="3">
-        <v>1253400</v>
+        <v>1211000</v>
       </c>
       <c r="F17" s="3">
-        <v>436100</v>
+        <v>421300</v>
       </c>
       <c r="G17" s="3">
-        <v>114300</v>
+        <v>110500</v>
       </c>
       <c r="H17" s="3">
-        <v>286600</v>
+        <v>276900</v>
       </c>
       <c r="I17" s="3">
-        <v>138500</v>
+        <v>133900</v>
       </c>
       <c r="J17" s="3">
-        <v>98200</v>
+        <v>94800</v>
       </c>
       <c r="K17" s="3">
         <v>338700</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5333300</v>
+        <v>5152900</v>
       </c>
       <c r="E18" s="3">
-        <v>4740400</v>
+        <v>4580100</v>
       </c>
       <c r="F18" s="3">
-        <v>1876800</v>
+        <v>1813300</v>
       </c>
       <c r="G18" s="3">
-        <v>275700</v>
+        <v>266300</v>
       </c>
       <c r="H18" s="3">
-        <v>-210400</v>
+        <v>-203300</v>
       </c>
       <c r="I18" s="3">
-        <v>-91300</v>
+        <v>-88300</v>
       </c>
       <c r="J18" s="3">
-        <v>-66900</v>
+        <v>-64600</v>
       </c>
       <c r="K18" s="3">
         <v>-211900</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-62400</v>
+        <v>-60300</v>
       </c>
       <c r="E20" s="3">
-        <v>-197700</v>
+        <v>-191000</v>
       </c>
       <c r="F20" s="3">
-        <v>-21700</v>
+        <v>-20900</v>
       </c>
       <c r="G20" s="3">
-        <v>-42900</v>
+        <v>-41400</v>
       </c>
       <c r="H20" s="3">
-        <v>-23300</v>
+        <v>-22500</v>
       </c>
       <c r="I20" s="3">
-        <v>-10300</v>
+        <v>-10000</v>
       </c>
       <c r="J20" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K20" s="3">
         <v>4400</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5293200</v>
+        <v>5114200</v>
       </c>
       <c r="E21" s="3">
-        <v>4561200</v>
+        <v>4406900</v>
       </c>
       <c r="F21" s="3">
-        <v>1869800</v>
+        <v>1806500</v>
       </c>
       <c r="G21" s="3">
-        <v>247000</v>
+        <v>238600</v>
       </c>
       <c r="H21" s="3">
-        <v>-223800</v>
+        <v>-216200</v>
       </c>
       <c r="I21" s="3">
-        <v>-91700</v>
+        <v>-88600</v>
       </c>
       <c r="J21" s="3">
-        <v>-50100</v>
+        <v>-48400</v>
       </c>
       <c r="K21" s="3">
         <v>-167900</v>
@@ -1354,7 +1354,7 @@
         <v>900</v>
       </c>
       <c r="E22" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5270000</v>
+        <v>5091700</v>
       </c>
       <c r="E23" s="3">
-        <v>4542100</v>
+        <v>4388500</v>
       </c>
       <c r="F23" s="3">
-        <v>1854300</v>
+        <v>1791600</v>
       </c>
       <c r="G23" s="3">
-        <v>232200</v>
+        <v>224300</v>
       </c>
       <c r="H23" s="3">
-        <v>-234300</v>
+        <v>-226400</v>
       </c>
       <c r="I23" s="3">
-        <v>-102200</v>
+        <v>-98700</v>
       </c>
       <c r="J23" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K23" s="3">
         <v>-209500</v>
@@ -1451,22 +1451,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1644400</v>
+        <v>1588800</v>
       </c>
       <c r="E24" s="3">
-        <v>1395100</v>
+        <v>1347900</v>
       </c>
       <c r="F24" s="3">
-        <v>580600</v>
+        <v>560900</v>
       </c>
       <c r="G24" s="3">
-        <v>-182100</v>
+        <v>-176000</v>
       </c>
       <c r="H24" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I24" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3625500</v>
+        <v>3502900</v>
       </c>
       <c r="E26" s="3">
-        <v>3147000</v>
+        <v>3040600</v>
       </c>
       <c r="F26" s="3">
-        <v>1273700</v>
+        <v>1230700</v>
       </c>
       <c r="G26" s="3">
-        <v>414300</v>
+        <v>400300</v>
       </c>
       <c r="H26" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="I26" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="J26" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K26" s="3">
         <v>-209200</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3625500</v>
+        <v>3502900</v>
       </c>
       <c r="E27" s="3">
-        <v>3147000</v>
+        <v>3040600</v>
       </c>
       <c r="F27" s="3">
-        <v>1273700</v>
+        <v>1230700</v>
       </c>
       <c r="G27" s="3">
-        <v>414300</v>
+        <v>400300</v>
       </c>
       <c r="H27" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="I27" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="J27" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K27" s="3">
         <v>-209000</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>62400</v>
+        <v>60300</v>
       </c>
       <c r="E32" s="3">
-        <v>197700</v>
+        <v>191000</v>
       </c>
       <c r="F32" s="3">
-        <v>21700</v>
+        <v>20900</v>
       </c>
       <c r="G32" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="H32" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="I32" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="J32" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="K32" s="3">
         <v>-4400</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3625500</v>
+        <v>3502900</v>
       </c>
       <c r="E33" s="3">
-        <v>3147000</v>
+        <v>3040600</v>
       </c>
       <c r="F33" s="3">
-        <v>1273700</v>
+        <v>1230700</v>
       </c>
       <c r="G33" s="3">
-        <v>414300</v>
+        <v>400300</v>
       </c>
       <c r="H33" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="I33" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="J33" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K33" s="3">
         <v>-209000</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3625500</v>
+        <v>3502900</v>
       </c>
       <c r="E35" s="3">
-        <v>3147000</v>
+        <v>3040600</v>
       </c>
       <c r="F35" s="3">
-        <v>1273700</v>
+        <v>1230700</v>
       </c>
       <c r="G35" s="3">
-        <v>414300</v>
+        <v>400300</v>
       </c>
       <c r="H35" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="I35" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="J35" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K35" s="3">
         <v>-209000</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2701600</v>
+        <v>2610200</v>
       </c>
       <c r="E41" s="3">
-        <v>1032100</v>
+        <v>997200</v>
       </c>
       <c r="F41" s="3">
-        <v>1006600</v>
+        <v>972500</v>
       </c>
       <c r="G41" s="3">
-        <v>1366400</v>
+        <v>1320200</v>
       </c>
       <c r="H41" s="3">
-        <v>1118300</v>
+        <v>1080500</v>
       </c>
       <c r="I41" s="3">
-        <v>647000</v>
+        <v>625100</v>
       </c>
       <c r="J41" s="3">
-        <v>509900</v>
+        <v>492700</v>
       </c>
       <c r="K41" s="3">
         <v>606100</v>
@@ -2202,16 +2202,16 @@
         <v>900</v>
       </c>
       <c r="F42" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>155000</v>
+        <v>149700</v>
       </c>
       <c r="H42" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="I42" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J42" s="3">
         <v>1900</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11973900</v>
+        <v>11568900</v>
       </c>
       <c r="E43" s="3">
-        <v>7963100</v>
+        <v>7693800</v>
       </c>
       <c r="F43" s="3">
-        <v>2705300</v>
+        <v>2613800</v>
       </c>
       <c r="G43" s="3">
-        <v>187800</v>
+        <v>181500</v>
       </c>
       <c r="H43" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="I43" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="J43" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K43" s="3">
         <v>14800</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>444200</v>
+        <v>429200</v>
       </c>
       <c r="E44" s="3">
-        <v>344800</v>
+        <v>333200</v>
       </c>
       <c r="F44" s="3">
-        <v>165900</v>
+        <v>160300</v>
       </c>
       <c r="G44" s="3">
-        <v>72400</v>
+        <v>69900</v>
       </c>
       <c r="H44" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="I44" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="J44" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="K44" s="3">
         <v>13700</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>179200</v>
+        <v>173100</v>
       </c>
       <c r="E45" s="3">
-        <v>188100</v>
+        <v>181700</v>
       </c>
       <c r="F45" s="3">
-        <v>114200</v>
+        <v>110300</v>
       </c>
       <c r="G45" s="3">
-        <v>100500</v>
+        <v>97100</v>
       </c>
       <c r="H45" s="3">
-        <v>71400</v>
+        <v>69000</v>
       </c>
       <c r="I45" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="J45" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="K45" s="3">
         <v>17400</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15300900</v>
+        <v>14783400</v>
       </c>
       <c r="E46" s="3">
-        <v>9529000</v>
+        <v>9206700</v>
       </c>
       <c r="F46" s="3">
-        <v>3992500</v>
+        <v>3857500</v>
       </c>
       <c r="G46" s="3">
-        <v>1882100</v>
+        <v>1818400</v>
       </c>
       <c r="H46" s="3">
-        <v>1232800</v>
+        <v>1191100</v>
       </c>
       <c r="I46" s="3">
-        <v>701300</v>
+        <v>677600</v>
       </c>
       <c r="J46" s="3">
-        <v>556500</v>
+        <v>537700</v>
       </c>
       <c r="K46" s="3">
         <v>653900</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>499200</v>
+        <v>482300</v>
       </c>
       <c r="E48" s="3">
-        <v>430300</v>
+        <v>415700</v>
       </c>
       <c r="F48" s="3">
-        <v>407400</v>
+        <v>393600</v>
       </c>
       <c r="G48" s="3">
-        <v>368000</v>
+        <v>355600</v>
       </c>
       <c r="H48" s="3">
-        <v>207200</v>
+        <v>200200</v>
       </c>
       <c r="I48" s="3">
-        <v>189400</v>
+        <v>183000</v>
       </c>
       <c r="J48" s="3">
-        <v>164200</v>
+        <v>158600</v>
       </c>
       <c r="K48" s="3">
         <v>172800</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>183900</v>
+        <v>177700</v>
       </c>
       <c r="E49" s="3">
-        <v>185300</v>
+        <v>179000</v>
       </c>
       <c r="F49" s="3">
-        <v>186500</v>
+        <v>180200</v>
       </c>
       <c r="G49" s="3">
-        <v>184600</v>
+        <v>178400</v>
       </c>
       <c r="H49" s="3">
-        <v>190500</v>
+        <v>184100</v>
       </c>
       <c r="I49" s="3">
-        <v>206900</v>
+        <v>199900</v>
       </c>
       <c r="J49" s="3">
-        <v>106100</v>
+        <v>102500</v>
       </c>
       <c r="K49" s="3">
         <v>104400</v>
@@ -2696,22 +2696,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86000</v>
+        <v>83100</v>
       </c>
       <c r="E52" s="3">
-        <v>185300</v>
+        <v>179000</v>
       </c>
       <c r="F52" s="3">
-        <v>161100</v>
+        <v>155700</v>
       </c>
       <c r="G52" s="3">
-        <v>183200</v>
+        <v>177000</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16070000</v>
+        <v>15526500</v>
       </c>
       <c r="E54" s="3">
-        <v>10329900</v>
+        <v>9980500</v>
       </c>
       <c r="F54" s="3">
-        <v>4747500</v>
+        <v>4586900</v>
       </c>
       <c r="G54" s="3">
-        <v>2618000</v>
+        <v>2529400</v>
       </c>
       <c r="H54" s="3">
-        <v>1636400</v>
+        <v>1581000</v>
       </c>
       <c r="I54" s="3">
-        <v>1099100</v>
+        <v>1061900</v>
       </c>
       <c r="J54" s="3">
-        <v>826700</v>
+        <v>798800</v>
       </c>
       <c r="K54" s="3">
         <v>931200</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>292300</v>
+        <v>282400</v>
       </c>
       <c r="E57" s="3">
-        <v>296600</v>
+        <v>286600</v>
       </c>
       <c r="F57" s="3">
-        <v>119900</v>
+        <v>115900</v>
       </c>
       <c r="G57" s="3">
-        <v>115500</v>
+        <v>111600</v>
       </c>
       <c r="H57" s="3">
-        <v>47300</v>
+        <v>45700</v>
       </c>
       <c r="I57" s="3">
-        <v>40300</v>
+        <v>38900</v>
       </c>
       <c r="J57" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="K57" s="3">
         <v>23900</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1065300</v>
+        <v>20700</v>
       </c>
       <c r="E58" s="3">
-        <v>804800</v>
+        <v>777600</v>
       </c>
       <c r="F58" s="3">
-        <v>392000</v>
+        <v>378800</v>
       </c>
       <c r="G58" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H58" s="3">
-        <v>152600</v>
+        <v>147500</v>
       </c>
       <c r="I58" s="3">
-        <v>41000</v>
+        <v>39700</v>
       </c>
       <c r="J58" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="K58" s="3">
         <v>4100</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4177900</v>
+        <v>5045100</v>
       </c>
       <c r="E59" s="3">
-        <v>2470200</v>
+        <v>2386700</v>
       </c>
       <c r="F59" s="3">
-        <v>968400</v>
+        <v>935700</v>
       </c>
       <c r="G59" s="3">
-        <v>561800</v>
+        <v>542800</v>
       </c>
       <c r="H59" s="3">
-        <v>103200</v>
+        <v>99700</v>
       </c>
       <c r="I59" s="3">
-        <v>154100</v>
+        <v>148900</v>
       </c>
       <c r="J59" s="3">
-        <v>120100</v>
+        <v>116000</v>
       </c>
       <c r="K59" s="3">
         <v>133300</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5535500</v>
+        <v>5348300</v>
       </c>
       <c r="E60" s="3">
-        <v>3571700</v>
+        <v>3450900</v>
       </c>
       <c r="F60" s="3">
-        <v>1480400</v>
+        <v>1430300</v>
       </c>
       <c r="G60" s="3">
-        <v>684300</v>
+        <v>661100</v>
       </c>
       <c r="H60" s="3">
-        <v>303100</v>
+        <v>292900</v>
       </c>
       <c r="I60" s="3">
-        <v>235500</v>
+        <v>227500</v>
       </c>
       <c r="J60" s="3">
-        <v>160400</v>
+        <v>155000</v>
       </c>
       <c r="K60" s="3">
         <v>161300</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>669100</v>
+        <v>292000</v>
       </c>
       <c r="E61" s="3">
-        <v>549100</v>
+        <v>530500</v>
       </c>
       <c r="F61" s="3">
-        <v>268300</v>
+        <v>259200</v>
       </c>
       <c r="G61" s="3">
-        <v>260900</v>
+        <v>252100</v>
       </c>
       <c r="H61" s="3">
-        <v>198300</v>
+        <v>191600</v>
       </c>
       <c r="I61" s="3">
-        <v>79400</v>
+        <v>76700</v>
       </c>
       <c r="J61" s="3">
-        <v>75200</v>
+        <v>72700</v>
       </c>
       <c r="K61" s="3">
         <v>80400</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>29200</v>
+        <v>382700</v>
       </c>
       <c r="E62" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F62" s="3">
-        <v>154000</v>
+        <v>148800</v>
       </c>
       <c r="G62" s="3">
-        <v>123900</v>
+        <v>119700</v>
       </c>
       <c r="H62" s="3">
-        <v>87500</v>
+        <v>84500</v>
       </c>
       <c r="I62" s="3">
-        <v>104600</v>
+        <v>101100</v>
       </c>
       <c r="J62" s="3">
-        <v>85100</v>
+        <v>82200</v>
       </c>
       <c r="K62" s="3">
         <v>113400</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6233900</v>
+        <v>6023000</v>
       </c>
       <c r="E66" s="3">
-        <v>4139300</v>
+        <v>3999300</v>
       </c>
       <c r="F66" s="3">
-        <v>1902600</v>
+        <v>1838300</v>
       </c>
       <c r="G66" s="3">
-        <v>1069000</v>
+        <v>1032800</v>
       </c>
       <c r="H66" s="3">
-        <v>588900</v>
+        <v>569000</v>
       </c>
       <c r="I66" s="3">
-        <v>419500</v>
+        <v>405300</v>
       </c>
       <c r="J66" s="3">
-        <v>320800</v>
+        <v>309900</v>
       </c>
       <c r="K66" s="3">
         <v>355100</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9562300</v>
+        <v>9238900</v>
       </c>
       <c r="E72" s="3">
-        <v>5916800</v>
+        <v>5716700</v>
       </c>
       <c r="F72" s="3">
-        <v>2572200</v>
+        <v>2485200</v>
       </c>
       <c r="G72" s="3">
-        <v>1276200</v>
+        <v>1233100</v>
       </c>
       <c r="H72" s="3">
-        <v>775600</v>
+        <v>749300</v>
       </c>
       <c r="I72" s="3">
-        <v>416900</v>
+        <v>402800</v>
       </c>
       <c r="J72" s="3">
-        <v>249900</v>
+        <v>241500</v>
       </c>
       <c r="K72" s="3">
         <v>311400</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9836200</v>
+        <v>9503500</v>
       </c>
       <c r="E76" s="3">
-        <v>6190600</v>
+        <v>5981200</v>
       </c>
       <c r="F76" s="3">
-        <v>2844900</v>
+        <v>2748700</v>
       </c>
       <c r="G76" s="3">
-        <v>1549000</v>
+        <v>1496600</v>
       </c>
       <c r="H76" s="3">
-        <v>1047400</v>
+        <v>1012000</v>
       </c>
       <c r="I76" s="3">
-        <v>679600</v>
+        <v>656700</v>
       </c>
       <c r="J76" s="3">
-        <v>506000</v>
+        <v>488900</v>
       </c>
       <c r="K76" s="3">
         <v>576100</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3625500</v>
+        <v>3502900</v>
       </c>
       <c r="E81" s="3">
-        <v>3147000</v>
+        <v>3040600</v>
       </c>
       <c r="F81" s="3">
-        <v>1273700</v>
+        <v>1230700</v>
       </c>
       <c r="G81" s="3">
-        <v>414300</v>
+        <v>400300</v>
       </c>
       <c r="H81" s="3">
-        <v>-237100</v>
+        <v>-229100</v>
       </c>
       <c r="I81" s="3">
-        <v>-99700</v>
+        <v>-96300</v>
       </c>
       <c r="J81" s="3">
-        <v>-60300</v>
+        <v>-58200</v>
       </c>
       <c r="K81" s="3">
         <v>-209000</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22400</v>
+        <v>21600</v>
       </c>
       <c r="E83" s="3">
-        <v>18500</v>
+        <v>17900</v>
       </c>
       <c r="F83" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="G83" s="3">
-        <v>14200</v>
+        <v>13700</v>
       </c>
       <c r="H83" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="I83" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="J83" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="K83" s="3">
         <v>39600</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1694600</v>
+        <v>1637200</v>
       </c>
       <c r="E89" s="3">
-        <v>-113200</v>
+        <v>-109400</v>
       </c>
       <c r="F89" s="3">
-        <v>-351500</v>
+        <v>-339600</v>
       </c>
       <c r="G89" s="3">
-        <v>281400</v>
+        <v>271900</v>
       </c>
       <c r="H89" s="3">
-        <v>-217400</v>
+        <v>-210000</v>
       </c>
       <c r="I89" s="3">
-        <v>-17500</v>
+        <v>-16900</v>
       </c>
       <c r="J89" s="3">
-        <v>-61700</v>
+        <v>-59700</v>
       </c>
       <c r="K89" s="3">
         <v>-231800</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45700</v>
+        <v>-44200</v>
       </c>
       <c r="E91" s="3">
-        <v>-29200</v>
+        <v>-28300</v>
       </c>
       <c r="F91" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="G91" s="3">
-        <v>-28600</v>
+        <v>-27700</v>
       </c>
       <c r="H91" s="3">
-        <v>-21800</v>
+        <v>-21000</v>
       </c>
       <c r="I91" s="3">
-        <v>-17100</v>
+        <v>-16500</v>
       </c>
       <c r="J91" s="3">
-        <v>-7100</v>
+        <v>-6900</v>
       </c>
       <c r="K91" s="3">
         <v>-45100</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-46400</v>
+        <v>-44800</v>
       </c>
       <c r="E94" s="3">
-        <v>-33600</v>
+        <v>-32500</v>
       </c>
       <c r="F94" s="3">
-        <v>-32000</v>
+        <v>-30900</v>
       </c>
       <c r="G94" s="3">
-        <v>-112700</v>
+        <v>-108900</v>
       </c>
       <c r="H94" s="3">
-        <v>-23000</v>
+        <v>-22200</v>
       </c>
       <c r="I94" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="J94" s="3">
-        <v>-16900</v>
+        <v>-16300</v>
       </c>
       <c r="K94" s="3">
         <v>-90000</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E100" s="3">
-        <v>172600</v>
+        <v>166800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="G100" s="3">
-        <v>131300</v>
+        <v>126900</v>
       </c>
       <c r="H100" s="3">
-        <v>711600</v>
+        <v>687500</v>
       </c>
       <c r="I100" s="3">
-        <v>165100</v>
+        <v>159500</v>
       </c>
       <c r="J100" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K100" s="3">
         <v>447500</v>
@@ -4871,16 +4871,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
       </c>
       <c r="F101" s="3">
-        <v>28700</v>
+        <v>27700</v>
       </c>
       <c r="G101" s="3">
-        <v>-51900</v>
+        <v>-50200</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1669500</v>
+        <v>1613000</v>
       </c>
       <c r="E102" s="3">
-        <v>25500</v>
+        <v>24700</v>
       </c>
       <c r="F102" s="3">
-        <v>-359800</v>
+        <v>-347700</v>
       </c>
       <c r="G102" s="3">
-        <v>248100</v>
+        <v>239700</v>
       </c>
       <c r="H102" s="3">
-        <v>471300</v>
+        <v>455400</v>
       </c>
       <c r="I102" s="3">
-        <v>137100</v>
+        <v>132500</v>
       </c>
       <c r="J102" s="3">
-        <v>-76300</v>
+        <v>-73700</v>
       </c>
       <c r="K102" s="3">
         <v>125700</v>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,256 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6640700</v>
+        <v>6616200</v>
       </c>
       <c r="E8" s="3">
-        <v>5791100</v>
+        <v>5742200</v>
       </c>
       <c r="F8" s="3">
-        <v>2234600</v>
+        <v>6318000</v>
       </c>
       <c r="G8" s="3">
-        <v>376800</v>
+        <v>5509700</v>
       </c>
       <c r="H8" s="3">
-        <v>73600</v>
+        <v>2126000</v>
       </c>
       <c r="I8" s="3">
+        <v>358500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>70100</v>
+      </c>
+      <c r="K8" s="3">
         <v>45600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>30200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>126800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>63600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>150100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>51100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>18100</v>
+        <v>1343100</v>
       </c>
       <c r="E9" s="3">
-        <v>964100</v>
+        <v>605300</v>
       </c>
       <c r="F9" s="3">
-        <v>254300</v>
+        <v>1257300</v>
       </c>
       <c r="G9" s="3">
-        <v>44700</v>
+        <v>917300</v>
       </c>
       <c r="H9" s="3">
-        <v>7500</v>
+        <v>241900</v>
       </c>
       <c r="I9" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K9" s="3">
         <v>6200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>20300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>10700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>16100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>7600</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6622600</v>
+        <v>5273100</v>
       </c>
       <c r="E10" s="3">
-        <v>4826900</v>
+        <v>5136900</v>
       </c>
       <c r="F10" s="3">
-        <v>1980300</v>
+        <v>5060700</v>
       </c>
       <c r="G10" s="3">
-        <v>332100</v>
+        <v>4592400</v>
       </c>
       <c r="H10" s="3">
-        <v>66200</v>
+        <v>1884100</v>
       </c>
       <c r="I10" s="3">
+        <v>315900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>63000</v>
+      </c>
+      <c r="K10" s="3">
         <v>39400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>23800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>106500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>52900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>134000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>43500</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +933,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>274800</v>
+        <v>285400</v>
       </c>
       <c r="E12" s="3">
-        <v>219400</v>
+        <v>271600</v>
       </c>
       <c r="F12" s="3">
-        <v>235900</v>
+        <v>261400</v>
       </c>
       <c r="G12" s="3">
-        <v>280400</v>
+        <v>201400</v>
       </c>
       <c r="H12" s="3">
-        <v>248400</v>
+        <v>216600</v>
       </c>
       <c r="I12" s="3">
+        <v>266800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>236300</v>
+      </c>
+      <c r="K12" s="3">
         <v>103800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>264400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>135500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>168300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>68800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,25 +1041,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1303400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-50100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-70500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1034,11 +1073,11 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1058,25 +1097,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>11200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>7800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1084,11 +1129,11 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1108,8 +1153,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1176,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1487800</v>
+        <v>1683400</v>
       </c>
       <c r="E17" s="3">
-        <v>1211000</v>
+        <v>864400</v>
       </c>
       <c r="F17" s="3">
-        <v>421300</v>
+        <v>1415500</v>
       </c>
       <c r="G17" s="3">
-        <v>110500</v>
+        <v>1152200</v>
       </c>
       <c r="H17" s="3">
-        <v>276900</v>
+        <v>400800</v>
       </c>
       <c r="I17" s="3">
+        <v>105100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>263500</v>
+      </c>
+      <c r="K17" s="3">
         <v>133900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>94800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>338700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>176000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>213400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>86100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5152900</v>
+        <v>4932800</v>
       </c>
       <c r="E18" s="3">
-        <v>4580100</v>
+        <v>4877800</v>
       </c>
       <c r="F18" s="3">
-        <v>1813300</v>
+        <v>4902500</v>
       </c>
       <c r="G18" s="3">
-        <v>266300</v>
+        <v>4357500</v>
       </c>
       <c r="H18" s="3">
-        <v>-203300</v>
+        <v>1725200</v>
       </c>
       <c r="I18" s="3">
+        <v>253400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-88300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-64600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-211900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-112400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-63300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-35100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,137 +1310,151 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-60300</v>
+        <v>279700</v>
       </c>
       <c r="E20" s="3">
-        <v>-191000</v>
+        <v>18300</v>
       </c>
       <c r="F20" s="3">
-        <v>-20900</v>
+        <v>-57400</v>
       </c>
       <c r="G20" s="3">
-        <v>-41400</v>
+        <v>-181700</v>
       </c>
       <c r="H20" s="3">
-        <v>-22500</v>
+        <v>-19900</v>
       </c>
       <c r="I20" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>2200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>9300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>8700</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5114200</v>
+        <v>5241200</v>
       </c>
       <c r="E21" s="3">
-        <v>4406900</v>
+        <v>4923100</v>
       </c>
       <c r="F21" s="3">
-        <v>1806500</v>
+        <v>4865700</v>
       </c>
       <c r="G21" s="3">
-        <v>238600</v>
+        <v>4192800</v>
       </c>
       <c r="H21" s="3">
-        <v>-216200</v>
+        <v>1718800</v>
       </c>
       <c r="I21" s="3">
+        <v>227000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-205700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-88600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-48400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-167900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-91100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-28200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-16100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="F22" s="3">
         <v>800</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1000</v>
       </c>
       <c r="M22" s="3">
         <v>2000</v>
@@ -1383,11 +1462,11 @@
       <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1000</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1395,99 +1474,111 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5091700</v>
+        <v>5208300</v>
       </c>
       <c r="E23" s="3">
-        <v>4388500</v>
+        <v>4892600</v>
       </c>
       <c r="F23" s="3">
-        <v>1791600</v>
+        <v>4844300</v>
       </c>
       <c r="G23" s="3">
-        <v>224300</v>
+        <v>4175300</v>
       </c>
       <c r="H23" s="3">
-        <v>-226400</v>
+        <v>1704500</v>
       </c>
       <c r="I23" s="3">
+        <v>213400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-215400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-98700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-58200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-209500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-111300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-56100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-27400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1588800</v>
+        <v>1369300</v>
       </c>
       <c r="E24" s="3">
-        <v>1347900</v>
+        <v>1606400</v>
       </c>
       <c r="F24" s="3">
-        <v>560900</v>
+        <v>1511600</v>
       </c>
       <c r="G24" s="3">
-        <v>-176000</v>
+        <v>1282400</v>
       </c>
       <c r="H24" s="3">
-        <v>2700</v>
+        <v>533700</v>
       </c>
       <c r="I24" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1495,8 +1586,14 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1642,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3502900</v>
+        <v>3839000</v>
       </c>
       <c r="E26" s="3">
-        <v>3040600</v>
+        <v>3286200</v>
       </c>
       <c r="F26" s="3">
-        <v>1230700</v>
+        <v>3332700</v>
       </c>
       <c r="G26" s="3">
-        <v>400300</v>
+        <v>2892800</v>
       </c>
       <c r="H26" s="3">
-        <v>-229100</v>
+        <v>1170900</v>
       </c>
       <c r="I26" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-96300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-58200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-209200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-111300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-56800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-27400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3502900</v>
+        <v>3839000</v>
       </c>
       <c r="E27" s="3">
-        <v>3040600</v>
+        <v>3286200</v>
       </c>
       <c r="F27" s="3">
-        <v>1230700</v>
+        <v>3332700</v>
       </c>
       <c r="G27" s="3">
-        <v>400300</v>
+        <v>2892800</v>
       </c>
       <c r="H27" s="3">
-        <v>-229100</v>
+        <v>1170900</v>
       </c>
       <c r="I27" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-96300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-58200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-209000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-111100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-56500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-27300</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1810,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1866,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1922,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1978,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60300</v>
+        <v>-279700</v>
       </c>
       <c r="E32" s="3">
-        <v>191000</v>
+        <v>-18300</v>
       </c>
       <c r="F32" s="3">
-        <v>20900</v>
+        <v>57400</v>
       </c>
       <c r="G32" s="3">
-        <v>41400</v>
+        <v>181700</v>
       </c>
       <c r="H32" s="3">
-        <v>22500</v>
+        <v>19900</v>
       </c>
       <c r="I32" s="3">
+        <v>39400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-2200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-9300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-8700</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3502900</v>
+        <v>3839000</v>
       </c>
       <c r="E33" s="3">
-        <v>3040600</v>
+        <v>3286200</v>
       </c>
       <c r="F33" s="3">
-        <v>1230700</v>
+        <v>3332700</v>
       </c>
       <c r="G33" s="3">
-        <v>400300</v>
+        <v>2892800</v>
       </c>
       <c r="H33" s="3">
-        <v>-229100</v>
+        <v>1170900</v>
       </c>
       <c r="I33" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-96300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-58200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-209000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-111100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-56500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-27300</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2146,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3502900</v>
+        <v>3839000</v>
       </c>
       <c r="E35" s="3">
-        <v>3040600</v>
+        <v>3286200</v>
       </c>
       <c r="F35" s="3">
-        <v>1230700</v>
+        <v>3332700</v>
       </c>
       <c r="G35" s="3">
-        <v>400300</v>
+        <v>2892800</v>
       </c>
       <c r="H35" s="3">
-        <v>-229100</v>
+        <v>1170900</v>
       </c>
       <c r="I35" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-96300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-58200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-209000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-111100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-56500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-27300</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2289,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,44 +2311,46 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2610200</v>
+        <v>6397700</v>
       </c>
       <c r="E41" s="3">
-        <v>997200</v>
+        <v>1756900</v>
       </c>
       <c r="F41" s="3">
-        <v>972500</v>
+        <v>2483400</v>
       </c>
       <c r="G41" s="3">
-        <v>1320200</v>
+        <v>948700</v>
       </c>
       <c r="H41" s="3">
-        <v>1080500</v>
+        <v>925300</v>
       </c>
       <c r="I41" s="3">
+        <v>1256100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="K41" s="3">
         <v>625100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>492700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>606100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>349000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,44 +2363,50 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>396100</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>142400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M42" s="3">
         <v>2000</v>
       </c>
-      <c r="E42" s="3">
-        <v>900</v>
-      </c>
-      <c r="F42" s="3">
-        <v>500</v>
-      </c>
-      <c r="G42" s="3">
-        <v>149700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>19500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>233500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,44 +2419,50 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11568900</v>
+        <v>13177400</v>
       </c>
       <c r="E43" s="3">
-        <v>7693800</v>
+        <v>12851400</v>
       </c>
       <c r="F43" s="3">
-        <v>2613800</v>
+        <v>11006700</v>
       </c>
       <c r="G43" s="3">
-        <v>181500</v>
+        <v>7319900</v>
       </c>
       <c r="H43" s="3">
-        <v>8600</v>
+        <v>2486800</v>
       </c>
       <c r="I43" s="3">
+        <v>172700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K43" s="3">
         <v>11200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>13600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>14800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>11400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,44 +2475,50 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>429200</v>
+        <v>476700</v>
       </c>
       <c r="E44" s="3">
-        <v>333200</v>
+        <v>521500</v>
       </c>
       <c r="F44" s="3">
-        <v>160300</v>
+        <v>408300</v>
       </c>
       <c r="G44" s="3">
-        <v>69900</v>
+        <v>317000</v>
       </c>
       <c r="H44" s="3">
-        <v>13500</v>
+        <v>152500</v>
       </c>
       <c r="I44" s="3">
+        <v>66600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K44" s="3">
         <v>9400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>10500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>13700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>8900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2340,44 +2531,50 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>173100</v>
+        <v>151100</v>
       </c>
       <c r="E45" s="3">
-        <v>181700</v>
+        <v>117700</v>
       </c>
       <c r="F45" s="3">
-        <v>110300</v>
+        <v>164700</v>
       </c>
       <c r="G45" s="3">
-        <v>97100</v>
+        <v>172900</v>
       </c>
       <c r="H45" s="3">
-        <v>69000</v>
+        <v>104900</v>
       </c>
       <c r="I45" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K45" s="3">
         <v>29700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>17400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,44 +2587,50 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14783400</v>
+        <v>20203900</v>
       </c>
       <c r="E46" s="3">
-        <v>9206700</v>
+        <v>15643500</v>
       </c>
       <c r="F46" s="3">
-        <v>3857500</v>
+        <v>14065000</v>
       </c>
       <c r="G46" s="3">
-        <v>1818400</v>
+        <v>8759400</v>
       </c>
       <c r="H46" s="3">
-        <v>1191100</v>
+        <v>3670000</v>
       </c>
       <c r="I46" s="3">
+        <v>1730100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1133200</v>
+      </c>
+      <c r="K46" s="3">
         <v>677600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>537700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>653900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>617800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,31 +2643,37 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>50200</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>22100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2472,11 +2681,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2490,44 +2699,50 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482300</v>
+        <v>578000</v>
       </c>
       <c r="E48" s="3">
-        <v>415700</v>
+        <v>540100</v>
       </c>
       <c r="F48" s="3">
-        <v>393600</v>
+        <v>458900</v>
       </c>
       <c r="G48" s="3">
-        <v>355600</v>
+        <v>395500</v>
       </c>
       <c r="H48" s="3">
-        <v>200200</v>
+        <v>374500</v>
       </c>
       <c r="I48" s="3">
+        <v>338300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>190500</v>
+      </c>
+      <c r="K48" s="3">
         <v>183000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>158600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>172800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>150700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,44 +2755,50 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>177700</v>
+        <v>224200</v>
       </c>
       <c r="E49" s="3">
-        <v>179000</v>
+        <v>210100</v>
       </c>
       <c r="F49" s="3">
-        <v>180200</v>
+        <v>169100</v>
       </c>
       <c r="G49" s="3">
-        <v>178400</v>
+        <v>170300</v>
       </c>
       <c r="H49" s="3">
-        <v>184100</v>
+        <v>171500</v>
       </c>
       <c r="I49" s="3">
+        <v>169700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>175100</v>
+      </c>
+      <c r="K49" s="3">
         <v>199900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>102500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>104400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>116400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2590,8 +2811,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2867,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,35 +2923,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>83100</v>
+        <v>12700</v>
       </c>
       <c r="E52" s="3">
-        <v>179000</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="3">
-        <v>155700</v>
+        <v>79100</v>
       </c>
       <c r="G52" s="3">
-        <v>177000</v>
+        <v>170300</v>
       </c>
       <c r="H52" s="3">
-        <v>5600</v>
+        <v>148100</v>
       </c>
       <c r="I52" s="3">
+        <v>168400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,17 +2970,23 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,44 +3035,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15526500</v>
+        <v>21069000</v>
       </c>
       <c r="E54" s="3">
-        <v>9980500</v>
+        <v>16430800</v>
       </c>
       <c r="F54" s="3">
-        <v>4586900</v>
+        <v>14772000</v>
       </c>
       <c r="G54" s="3">
-        <v>2529400</v>
+        <v>9495500</v>
       </c>
       <c r="H54" s="3">
-        <v>1581000</v>
+        <v>4364100</v>
       </c>
       <c r="I54" s="3">
+        <v>2406500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1504200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1061900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>798800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>931200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>884900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +3091,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3117,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,44 +3139,46 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>282400</v>
+        <v>128400</v>
       </c>
       <c r="E57" s="3">
-        <v>286600</v>
+        <v>166100</v>
       </c>
       <c r="F57" s="3">
-        <v>115900</v>
+        <v>268700</v>
       </c>
       <c r="G57" s="3">
-        <v>111600</v>
+        <v>272700</v>
       </c>
       <c r="H57" s="3">
-        <v>45700</v>
+        <v>110200</v>
       </c>
       <c r="I57" s="3">
+        <v>106200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K57" s="3">
         <v>38900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>21200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>23900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,44 +3191,50 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20700</v>
+        <v>31800</v>
       </c>
       <c r="E58" s="3">
-        <v>777600</v>
+        <v>134800</v>
       </c>
       <c r="F58" s="3">
-        <v>378800</v>
+        <v>19700</v>
       </c>
       <c r="G58" s="3">
-        <v>6700</v>
+        <v>14400</v>
       </c>
       <c r="H58" s="3">
-        <v>147500</v>
+        <v>18700</v>
       </c>
       <c r="I58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K58" s="3">
         <v>39700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>17800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>25000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,44 +3247,50 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5045100</v>
+        <v>3840400</v>
       </c>
       <c r="E59" s="3">
-        <v>2386700</v>
+        <v>3312700</v>
       </c>
       <c r="F59" s="3">
-        <v>935700</v>
+        <v>4800000</v>
       </c>
       <c r="G59" s="3">
-        <v>542800</v>
+        <v>2996100</v>
       </c>
       <c r="H59" s="3">
-        <v>99700</v>
+        <v>1231900</v>
       </c>
       <c r="I59" s="3">
+        <v>516500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K59" s="3">
         <v>148900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>116000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>133300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>120900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,44 +3303,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5348300</v>
+        <v>4000600</v>
       </c>
       <c r="E60" s="3">
-        <v>3450900</v>
+        <v>3613600</v>
       </c>
       <c r="F60" s="3">
-        <v>1430300</v>
+        <v>5088400</v>
       </c>
       <c r="G60" s="3">
-        <v>661100</v>
+        <v>3283200</v>
       </c>
       <c r="H60" s="3">
-        <v>292900</v>
+        <v>1360800</v>
       </c>
       <c r="I60" s="3">
+        <v>629000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>278700</v>
+      </c>
+      <c r="K60" s="3">
         <v>227500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>155000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>161300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>166600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,44 +3359,50 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>292000</v>
+        <v>161300</v>
       </c>
       <c r="E61" s="3">
-        <v>530500</v>
+        <v>178100</v>
       </c>
       <c r="F61" s="3">
-        <v>259200</v>
+        <v>277800</v>
       </c>
       <c r="G61" s="3">
         <v>252100</v>
       </c>
       <c r="H61" s="3">
-        <v>191600</v>
+        <v>245600</v>
       </c>
       <c r="I61" s="3">
+        <v>239800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K61" s="3">
         <v>76700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>72700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>80400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>75100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3130,44 +3415,50 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382700</v>
+        <v>393400</v>
       </c>
       <c r="E62" s="3">
-        <v>17900</v>
+        <v>294700</v>
       </c>
       <c r="F62" s="3">
-        <v>148800</v>
+        <v>364100</v>
       </c>
       <c r="G62" s="3">
-        <v>119700</v>
+        <v>269600</v>
       </c>
       <c r="H62" s="3">
-        <v>84500</v>
+        <v>142600</v>
       </c>
       <c r="I62" s="3">
+        <v>113900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>80400</v>
+      </c>
+      <c r="K62" s="3">
         <v>101100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>82200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>113400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>172200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3471,14 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3527,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3583,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,44 +3639,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6023000</v>
+        <v>4555200</v>
       </c>
       <c r="E66" s="3">
-        <v>3999300</v>
+        <v>4086300</v>
       </c>
       <c r="F66" s="3">
-        <v>1838300</v>
+        <v>5730300</v>
       </c>
       <c r="G66" s="3">
-        <v>1032800</v>
+        <v>3804900</v>
       </c>
       <c r="H66" s="3">
-        <v>569000</v>
+        <v>1749000</v>
       </c>
       <c r="I66" s="3">
+        <v>982700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>541300</v>
+      </c>
+      <c r="K66" s="3">
         <v>405300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>309900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>355100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>413900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3695,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3721,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3773,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3829,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3885,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,44 +3941,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9238900</v>
+        <v>16261500</v>
       </c>
       <c r="E72" s="3">
-        <v>5716700</v>
+        <v>12092800</v>
       </c>
       <c r="F72" s="3">
-        <v>2485200</v>
+        <v>8790000</v>
       </c>
       <c r="G72" s="3">
-        <v>1233100</v>
+        <v>5438900</v>
       </c>
       <c r="H72" s="3">
-        <v>749300</v>
+        <v>2364400</v>
       </c>
       <c r="I72" s="3">
+        <v>1173200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>712900</v>
+      </c>
+      <c r="K72" s="3">
         <v>402800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>241500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>311400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>210400</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3997,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4053,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4109,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,44 +4165,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9503500</v>
+        <v>16513700</v>
       </c>
       <c r="E76" s="3">
-        <v>5981200</v>
+        <v>12344500</v>
       </c>
       <c r="F76" s="3">
-        <v>2748700</v>
+        <v>9041700</v>
       </c>
       <c r="G76" s="3">
-        <v>1496600</v>
+        <v>5690600</v>
       </c>
       <c r="H76" s="3">
-        <v>1012000</v>
+        <v>2615100</v>
       </c>
       <c r="I76" s="3">
+        <v>1423800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>962800</v>
+      </c>
+      <c r="K76" s="3">
         <v>656700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>488900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>576100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>471000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4221,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4277,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3502900</v>
+        <v>3839000</v>
       </c>
       <c r="E81" s="3">
-        <v>3040600</v>
+        <v>3286200</v>
       </c>
       <c r="F81" s="3">
-        <v>1230700</v>
+        <v>3332700</v>
       </c>
       <c r="G81" s="3">
-        <v>400300</v>
+        <v>2892800</v>
       </c>
       <c r="H81" s="3">
-        <v>-229100</v>
+        <v>1170900</v>
       </c>
       <c r="I81" s="3">
+        <v>380800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-96300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-58200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-209000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-111100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-56500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-27300</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4420,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21600</v>
+        <v>28600</v>
       </c>
       <c r="E83" s="3">
-        <v>17900</v>
+        <v>27000</v>
       </c>
       <c r="F83" s="3">
-        <v>14200</v>
+        <v>20600</v>
       </c>
       <c r="G83" s="3">
-        <v>13700</v>
+        <v>17000</v>
       </c>
       <c r="H83" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K83" s="3">
         <v>9600</v>
       </c>
-      <c r="I83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>39600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>19100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>25900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>10300</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4528,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4584,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4640,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4696,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4752,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1637200</v>
+        <v>4203700</v>
       </c>
       <c r="E89" s="3">
-        <v>-109400</v>
+        <v>-207100</v>
       </c>
       <c r="F89" s="3">
-        <v>-339600</v>
+        <v>1557700</v>
       </c>
       <c r="G89" s="3">
-        <v>271900</v>
+        <v>-104100</v>
       </c>
       <c r="H89" s="3">
-        <v>-210000</v>
+        <v>-323100</v>
       </c>
       <c r="I89" s="3">
+        <v>258700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-199800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-16900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-59700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-231800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-105000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-68400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-82000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4834,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44200</v>
+        <v>-45800</v>
       </c>
       <c r="E91" s="3">
-        <v>-28300</v>
+        <v>-40900</v>
       </c>
       <c r="F91" s="3">
-        <v>-23700</v>
+        <v>-42000</v>
       </c>
       <c r="G91" s="3">
-        <v>-27700</v>
+        <v>-26900</v>
       </c>
       <c r="H91" s="3">
-        <v>-21000</v>
+        <v>-22500</v>
       </c>
       <c r="I91" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-16500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-45100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-35200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-14500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4942,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4998,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-44800</v>
+        <v>298300</v>
       </c>
       <c r="E94" s="3">
-        <v>-32500</v>
+        <v>-484600</v>
       </c>
       <c r="F94" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-30900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-108900</v>
-      </c>
       <c r="H94" s="3">
-        <v>-22200</v>
+        <v>-29400</v>
       </c>
       <c r="I94" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-90000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-56100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-78200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-46500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5080,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5132,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5188,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5244,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5300,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5800</v>
+        <v>83300</v>
       </c>
       <c r="E100" s="3">
-        <v>166800</v>
+        <v>-50800</v>
       </c>
       <c r="F100" s="3">
-        <v>-4900</v>
+        <v>-5500</v>
       </c>
       <c r="G100" s="3">
-        <v>126900</v>
+        <v>158700</v>
       </c>
       <c r="H100" s="3">
-        <v>687500</v>
+        <v>-4700</v>
       </c>
       <c r="I100" s="3">
+        <v>120700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>654100</v>
+      </c>
+      <c r="K100" s="3">
         <v>159500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>447500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>429600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>267900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>15900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>25100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
         <v>26400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F101" s="3">
-        <v>27700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>100</v>
-      </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>-47700</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1613000</v>
+        <v>4640900</v>
       </c>
       <c r="E102" s="3">
-        <v>24700</v>
+        <v>-726500</v>
       </c>
       <c r="F102" s="3">
-        <v>-347700</v>
+        <v>1534600</v>
       </c>
       <c r="G102" s="3">
-        <v>239700</v>
+        <v>23500</v>
       </c>
       <c r="H102" s="3">
-        <v>455400</v>
+        <v>-330800</v>
       </c>
       <c r="I102" s="3">
+        <v>228100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>433300</v>
+      </c>
+      <c r="K102" s="3">
         <v>132500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-73700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>125700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-155100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>281600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>142600</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -745,53 +746,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>6616200</v>
+        <v>3188200</v>
       </c>
       <c r="E8" s="3">
-        <v>5742200</v>
+        <v>6358000</v>
       </c>
       <c r="F8" s="3">
-        <v>6318000</v>
+        <v>5518100</v>
       </c>
       <c r="G8" s="3">
-        <v>5509700</v>
+        <v>6071500</v>
       </c>
       <c r="H8" s="3">
-        <v>2126000</v>
+        <v>5294700</v>
       </c>
       <c r="I8" s="3">
-        <v>358500</v>
+        <v>2043100</v>
       </c>
       <c r="J8" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K8" s="3">
         <v>70100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>45600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>63600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>150100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>51100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -801,53 +805,56 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1343100</v>
+        <v>762600</v>
       </c>
       <c r="E9" s="3">
-        <v>605300</v>
+        <v>1290700</v>
       </c>
       <c r="F9" s="3">
-        <v>1257300</v>
+        <v>581700</v>
       </c>
       <c r="G9" s="3">
-        <v>917300</v>
+        <v>1208300</v>
       </c>
       <c r="H9" s="3">
-        <v>241900</v>
+        <v>881500</v>
       </c>
       <c r="I9" s="3">
-        <v>42500</v>
+        <v>232500</v>
       </c>
       <c r="J9" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>20300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7600</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
@@ -857,53 +864,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>5273100</v>
+        <v>2425600</v>
       </c>
       <c r="E10" s="3">
-        <v>5136900</v>
+        <v>5067300</v>
       </c>
       <c r="F10" s="3">
-        <v>5060700</v>
+        <v>4936400</v>
       </c>
       <c r="G10" s="3">
-        <v>4592400</v>
+        <v>4863200</v>
       </c>
       <c r="H10" s="3">
-        <v>1884100</v>
+        <v>4413200</v>
       </c>
       <c r="I10" s="3">
-        <v>315900</v>
+        <v>1810600</v>
       </c>
       <c r="J10" s="3">
+        <v>303600</v>
+      </c>
+      <c r="K10" s="3">
         <v>63000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>39400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>106500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>52900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>134000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>43500</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,53 +948,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>285400</v>
+        <v>387000</v>
       </c>
       <c r="E12" s="3">
-        <v>271600</v>
+        <v>274300</v>
       </c>
       <c r="F12" s="3">
-        <v>261400</v>
+        <v>261000</v>
       </c>
       <c r="G12" s="3">
-        <v>201400</v>
+        <v>251200</v>
       </c>
       <c r="H12" s="3">
-        <v>216600</v>
+        <v>193500</v>
       </c>
       <c r="I12" s="3">
-        <v>266800</v>
+        <v>208200</v>
       </c>
       <c r="J12" s="3">
+        <v>256300</v>
+      </c>
+      <c r="K12" s="3">
         <v>236300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>103800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>264400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>135500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>168300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>68800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-50100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-21700</v>
+        <v>-48200</v>
       </c>
       <c r="G14" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>-67700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -1079,8 +1099,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1103,28 +1123,31 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="E15" s="3">
-        <v>13200</v>
+        <v>10800</v>
       </c>
       <c r="F15" s="3">
-        <v>10700</v>
+        <v>12700</v>
       </c>
       <c r="G15" s="3">
-        <v>8700</v>
+        <v>10300</v>
       </c>
       <c r="H15" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+        <v>8400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>7500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1135,8 +1158,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,53 +1204,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1683400</v>
+        <v>984300</v>
       </c>
       <c r="E17" s="3">
-        <v>864400</v>
+        <v>1617700</v>
       </c>
       <c r="F17" s="3">
-        <v>1415500</v>
+        <v>830600</v>
       </c>
       <c r="G17" s="3">
-        <v>1152200</v>
+        <v>1360300</v>
       </c>
       <c r="H17" s="3">
-        <v>400800</v>
+        <v>1107200</v>
       </c>
       <c r="I17" s="3">
-        <v>105100</v>
+        <v>385200</v>
       </c>
       <c r="J17" s="3">
+        <v>101000</v>
+      </c>
+      <c r="K17" s="3">
         <v>263500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>94800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>338700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>176000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>213400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>86100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,53 +1261,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4932800</v>
+        <v>2203900</v>
       </c>
       <c r="E18" s="3">
-        <v>4877800</v>
+        <v>4740300</v>
       </c>
       <c r="F18" s="3">
-        <v>4902500</v>
+        <v>4687500</v>
       </c>
       <c r="G18" s="3">
-        <v>4357500</v>
+        <v>4711200</v>
       </c>
       <c r="H18" s="3">
-        <v>1725200</v>
+        <v>4187500</v>
       </c>
       <c r="I18" s="3">
-        <v>253400</v>
+        <v>1657900</v>
       </c>
       <c r="J18" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-193400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-88300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-64600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-211900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-112400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-63300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,53 +1345,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>279700</v>
+        <v>115200</v>
       </c>
       <c r="E20" s="3">
-        <v>18300</v>
+        <v>268800</v>
       </c>
       <c r="F20" s="3">
-        <v>-57400</v>
+        <v>17600</v>
       </c>
       <c r="G20" s="3">
-        <v>-181700</v>
+        <v>-55200</v>
       </c>
       <c r="H20" s="3">
-        <v>-19900</v>
+        <v>-174600</v>
       </c>
       <c r="I20" s="3">
-        <v>-39400</v>
+        <v>-19200</v>
       </c>
       <c r="J20" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-21400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8700</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1368,53 +1402,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5241200</v>
+        <v>2352200</v>
       </c>
       <c r="E21" s="3">
-        <v>4923100</v>
+        <v>5036700</v>
       </c>
       <c r="F21" s="3">
-        <v>4865700</v>
+        <v>4731000</v>
       </c>
       <c r="G21" s="3">
-        <v>4192800</v>
+        <v>4675800</v>
       </c>
       <c r="H21" s="3">
-        <v>1718800</v>
+        <v>4029200</v>
       </c>
       <c r="I21" s="3">
-        <v>227000</v>
+        <v>1651700</v>
       </c>
       <c r="J21" s="3">
+        <v>218200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-205700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-88600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-167900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-91100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-28200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,53 +1461,56 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>5800</v>
       </c>
       <c r="E22" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>600</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,53 +1520,56 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5208300</v>
+        <v>2313300</v>
       </c>
       <c r="E23" s="3">
-        <v>4892600</v>
+        <v>5005100</v>
       </c>
       <c r="F23" s="3">
-        <v>4844300</v>
+        <v>4701600</v>
       </c>
       <c r="G23" s="3">
-        <v>4175300</v>
+        <v>4655300</v>
       </c>
       <c r="H23" s="3">
-        <v>1704500</v>
+        <v>4012300</v>
       </c>
       <c r="I23" s="3">
-        <v>213400</v>
+        <v>1638000</v>
       </c>
       <c r="J23" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-215400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-98700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-209500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-111300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-56100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,52 +1579,55 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1369300</v>
+        <v>645600</v>
       </c>
       <c r="E24" s="3">
-        <v>1606400</v>
+        <v>1315900</v>
       </c>
       <c r="F24" s="3">
-        <v>1511600</v>
+        <v>1543700</v>
       </c>
       <c r="G24" s="3">
-        <v>1282400</v>
+        <v>1452600</v>
       </c>
       <c r="H24" s="3">
-        <v>533700</v>
+        <v>1232400</v>
       </c>
       <c r="I24" s="3">
-        <v>-167400</v>
+        <v>512900</v>
       </c>
       <c r="J24" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K24" s="3">
         <v>2600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,53 +1697,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3839000</v>
+        <v>1667700</v>
       </c>
       <c r="E26" s="3">
-        <v>3286200</v>
+        <v>3689200</v>
       </c>
       <c r="F26" s="3">
-        <v>3332700</v>
+        <v>3158000</v>
       </c>
       <c r="G26" s="3">
-        <v>2892800</v>
+        <v>3202700</v>
       </c>
       <c r="H26" s="3">
-        <v>1170900</v>
+        <v>2780000</v>
       </c>
       <c r="I26" s="3">
-        <v>380800</v>
+        <v>1125200</v>
       </c>
       <c r="J26" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-218000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-96300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-58200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-209200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-111300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-56800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,53 +1756,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3839000</v>
+        <v>1667700</v>
       </c>
       <c r="E27" s="3">
-        <v>3286200</v>
+        <v>3689200</v>
       </c>
       <c r="F27" s="3">
-        <v>3332700</v>
+        <v>3158000</v>
       </c>
       <c r="G27" s="3">
-        <v>2892800</v>
+        <v>3202700</v>
       </c>
       <c r="H27" s="3">
-        <v>1170900</v>
+        <v>2780000</v>
       </c>
       <c r="I27" s="3">
-        <v>380800</v>
+        <v>1125200</v>
       </c>
       <c r="J27" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-218000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-96300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-58200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-209000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-111100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-56500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,53 +2051,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-279700</v>
+        <v>-115200</v>
       </c>
       <c r="E32" s="3">
-        <v>-18300</v>
+        <v>-268800</v>
       </c>
       <c r="F32" s="3">
-        <v>57400</v>
+        <v>-17600</v>
       </c>
       <c r="G32" s="3">
-        <v>181700</v>
+        <v>55200</v>
       </c>
       <c r="H32" s="3">
-        <v>19900</v>
+        <v>174600</v>
       </c>
       <c r="I32" s="3">
-        <v>39400</v>
+        <v>19200</v>
       </c>
       <c r="J32" s="3">
+        <v>37900</v>
+      </c>
+      <c r="K32" s="3">
         <v>21400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,53 +2110,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3839000</v>
+        <v>1667700</v>
       </c>
       <c r="E33" s="3">
-        <v>3286200</v>
+        <v>3689200</v>
       </c>
       <c r="F33" s="3">
-        <v>3332700</v>
+        <v>3158000</v>
       </c>
       <c r="G33" s="3">
-        <v>2892800</v>
+        <v>3202700</v>
       </c>
       <c r="H33" s="3">
-        <v>1170900</v>
+        <v>2780000</v>
       </c>
       <c r="I33" s="3">
-        <v>380800</v>
+        <v>1125200</v>
       </c>
       <c r="J33" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-218000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-96300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-58200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-209000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-111100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-56500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,53 +2228,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3839000</v>
+        <v>1667700</v>
       </c>
       <c r="E35" s="3">
-        <v>3286200</v>
+        <v>3689200</v>
       </c>
       <c r="F35" s="3">
-        <v>3332700</v>
+        <v>3158000</v>
       </c>
       <c r="G35" s="3">
-        <v>2892800</v>
+        <v>3202700</v>
       </c>
       <c r="H35" s="3">
-        <v>1170900</v>
+        <v>2780000</v>
       </c>
       <c r="I35" s="3">
-        <v>380800</v>
+        <v>1125200</v>
       </c>
       <c r="J35" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-218000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-96300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-58200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-209000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-111100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-56500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,58 +2287,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2269,8 +2351,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6397700</v>
+        <v>9310500</v>
       </c>
       <c r="E41" s="3">
-        <v>1756900</v>
+        <v>6148100</v>
       </c>
       <c r="F41" s="3">
-        <v>2483400</v>
+        <v>1688300</v>
       </c>
       <c r="G41" s="3">
-        <v>948700</v>
+        <v>2386500</v>
       </c>
       <c r="H41" s="3">
-        <v>925300</v>
+        <v>911700</v>
       </c>
       <c r="I41" s="3">
-        <v>1256100</v>
+        <v>889200</v>
       </c>
       <c r="J41" s="3">
+        <v>1207100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1028000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>625100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>492700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>606100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>349000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2456,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>900</v>
       </c>
-      <c r="E42" s="3">
-        <v>396100</v>
-      </c>
       <c r="F42" s="3">
+        <v>380600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H42" s="3">
+        <v>800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K42" s="3">
+        <v>18500</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M42" s="3">
         <v>1900</v>
       </c>
-      <c r="G42" s="3">
-        <v>800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>142400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>18500</v>
-      </c>
-      <c r="K42" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1900</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>233500</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,47 +2515,50 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13177400</v>
+        <v>10356300</v>
       </c>
       <c r="E43" s="3">
-        <v>12851400</v>
+        <v>12663200</v>
       </c>
       <c r="F43" s="3">
-        <v>11006700</v>
+        <v>12349900</v>
       </c>
       <c r="G43" s="3">
-        <v>7319900</v>
+        <v>10577200</v>
       </c>
       <c r="H43" s="3">
-        <v>2486800</v>
+        <v>7034300</v>
       </c>
       <c r="I43" s="3">
-        <v>172700</v>
+        <v>2389800</v>
       </c>
       <c r="J43" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K43" s="3">
         <v>8200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>13600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,47 +2574,50 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>476700</v>
+        <v>366700</v>
       </c>
       <c r="E44" s="3">
-        <v>521500</v>
+        <v>458100</v>
       </c>
       <c r="F44" s="3">
-        <v>408300</v>
+        <v>501200</v>
       </c>
       <c r="G44" s="3">
-        <v>317000</v>
+        <v>392400</v>
       </c>
       <c r="H44" s="3">
-        <v>152500</v>
+        <v>304600</v>
       </c>
       <c r="I44" s="3">
-        <v>66600</v>
+        <v>146500</v>
       </c>
       <c r="J44" s="3">
+        <v>64000</v>
+      </c>
+      <c r="K44" s="3">
         <v>12800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>10500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8900</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,47 +2633,50 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>151100</v>
+        <v>121900</v>
       </c>
       <c r="E45" s="3">
-        <v>117700</v>
+        <v>145200</v>
       </c>
       <c r="F45" s="3">
-        <v>164700</v>
+        <v>113100</v>
       </c>
       <c r="G45" s="3">
-        <v>172900</v>
+        <v>158300</v>
       </c>
       <c r="H45" s="3">
-        <v>104900</v>
+        <v>166200</v>
       </c>
       <c r="I45" s="3">
-        <v>92300</v>
+        <v>100800</v>
       </c>
       <c r="J45" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K45" s="3">
         <v>65700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20203900</v>
+        <v>20155600</v>
       </c>
       <c r="E46" s="3">
-        <v>15643500</v>
+        <v>19415500</v>
       </c>
       <c r="F46" s="3">
-        <v>14065000</v>
+        <v>15033100</v>
       </c>
       <c r="G46" s="3">
-        <v>8759400</v>
+        <v>13516200</v>
       </c>
       <c r="H46" s="3">
-        <v>3670000</v>
+        <v>8417600</v>
       </c>
       <c r="I46" s="3">
-        <v>1730100</v>
+        <v>3526800</v>
       </c>
       <c r="J46" s="3">
+        <v>1662600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1133200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>677600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>537700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>653900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>617800</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,19 +2751,22 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50200</v>
+        <v>51400</v>
       </c>
       <c r="E47" s="3">
-        <v>22100</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>48300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>21200</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -2675,8 +2780,8 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2687,8 +2792,8 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
@@ -2705,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>578000</v>
+        <v>662400</v>
       </c>
       <c r="E48" s="3">
-        <v>540100</v>
+        <v>555500</v>
       </c>
       <c r="F48" s="3">
-        <v>458900</v>
+        <v>519000</v>
       </c>
       <c r="G48" s="3">
-        <v>395500</v>
+        <v>441000</v>
       </c>
       <c r="H48" s="3">
-        <v>374500</v>
+        <v>380100</v>
       </c>
       <c r="I48" s="3">
-        <v>338300</v>
+        <v>359900</v>
       </c>
       <c r="J48" s="3">
+        <v>325100</v>
+      </c>
+      <c r="K48" s="3">
         <v>190500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>158600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>172800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>150700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,47 +2869,50 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>224200</v>
+        <v>220800</v>
       </c>
       <c r="E49" s="3">
-        <v>210100</v>
+        <v>215400</v>
       </c>
       <c r="F49" s="3">
-        <v>169100</v>
+        <v>201900</v>
       </c>
       <c r="G49" s="3">
-        <v>170300</v>
+        <v>162500</v>
       </c>
       <c r="H49" s="3">
-        <v>171500</v>
+        <v>163700</v>
       </c>
       <c r="I49" s="3">
-        <v>169700</v>
+        <v>164800</v>
       </c>
       <c r="J49" s="3">
+        <v>163100</v>
+      </c>
+      <c r="K49" s="3">
         <v>175100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>199900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>102500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>104400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>116400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,38 +3046,41 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12700</v>
+        <v>10300</v>
       </c>
       <c r="E52" s="3">
-        <v>14900</v>
+        <v>12200</v>
       </c>
       <c r="F52" s="3">
-        <v>79100</v>
+        <v>14400</v>
       </c>
       <c r="G52" s="3">
-        <v>170300</v>
+        <v>76000</v>
       </c>
       <c r="H52" s="3">
-        <v>148100</v>
+        <v>163700</v>
       </c>
       <c r="I52" s="3">
-        <v>168400</v>
+        <v>142300</v>
       </c>
       <c r="J52" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2976,8 +3096,8 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21069000</v>
+        <v>21100400</v>
       </c>
       <c r="E54" s="3">
-        <v>16430800</v>
+        <v>20246800</v>
       </c>
       <c r="F54" s="3">
-        <v>14772000</v>
+        <v>15789600</v>
       </c>
       <c r="G54" s="3">
-        <v>9495500</v>
+        <v>14195600</v>
       </c>
       <c r="H54" s="3">
-        <v>4364100</v>
+        <v>9125000</v>
       </c>
       <c r="I54" s="3">
-        <v>2406500</v>
+        <v>4193800</v>
       </c>
       <c r="J54" s="3">
+        <v>2312600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1504200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1061900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>798800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>931200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>884900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>128400</v>
+        <v>290300</v>
       </c>
       <c r="E57" s="3">
-        <v>166100</v>
+        <v>123400</v>
       </c>
       <c r="F57" s="3">
-        <v>268700</v>
+        <v>159600</v>
       </c>
       <c r="G57" s="3">
-        <v>272700</v>
+        <v>258200</v>
       </c>
       <c r="H57" s="3">
-        <v>110200</v>
+        <v>262000</v>
       </c>
       <c r="I57" s="3">
-        <v>106200</v>
+        <v>105900</v>
       </c>
       <c r="J57" s="3">
+        <v>102000</v>
+      </c>
+      <c r="K57" s="3">
         <v>43500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>21200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,47 +3328,50 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31800</v>
+        <v>32200</v>
       </c>
       <c r="E58" s="3">
-        <v>134800</v>
+        <v>30500</v>
       </c>
       <c r="F58" s="3">
-        <v>19700</v>
+        <v>129600</v>
       </c>
       <c r="G58" s="3">
-        <v>14400</v>
+        <v>19000</v>
       </c>
       <c r="H58" s="3">
-        <v>18700</v>
+        <v>13900</v>
       </c>
       <c r="I58" s="3">
-        <v>6400</v>
+        <v>18000</v>
       </c>
       <c r="J58" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K58" s="3">
         <v>140300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>17800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,47 +3387,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3840400</v>
+        <v>3590900</v>
       </c>
       <c r="E59" s="3">
-        <v>3312700</v>
+        <v>3690600</v>
       </c>
       <c r="F59" s="3">
-        <v>4800000</v>
+        <v>3183400</v>
       </c>
       <c r="G59" s="3">
-        <v>2996100</v>
+        <v>4612700</v>
       </c>
       <c r="H59" s="3">
-        <v>1231900</v>
+        <v>2879200</v>
       </c>
       <c r="I59" s="3">
-        <v>516500</v>
+        <v>1183800</v>
       </c>
       <c r="J59" s="3">
+        <v>496300</v>
+      </c>
+      <c r="K59" s="3">
         <v>94900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>148900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>116000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>133300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4000600</v>
+        <v>3913500</v>
       </c>
       <c r="E60" s="3">
-        <v>3613600</v>
+        <v>3844500</v>
       </c>
       <c r="F60" s="3">
-        <v>5088400</v>
+        <v>3472500</v>
       </c>
       <c r="G60" s="3">
-        <v>3283200</v>
+        <v>4889900</v>
       </c>
       <c r="H60" s="3">
-        <v>1360800</v>
+        <v>3155100</v>
       </c>
       <c r="I60" s="3">
-        <v>629000</v>
+        <v>1307700</v>
       </c>
       <c r="J60" s="3">
+        <v>604400</v>
+      </c>
+      <c r="K60" s="3">
         <v>278700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>155000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>161300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>166600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,47 +3505,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>161300</v>
+        <v>206100</v>
       </c>
       <c r="E61" s="3">
-        <v>178100</v>
+        <v>155000</v>
       </c>
       <c r="F61" s="3">
-        <v>277800</v>
+        <v>171200</v>
       </c>
       <c r="G61" s="3">
-        <v>252100</v>
+        <v>267000</v>
       </c>
       <c r="H61" s="3">
-        <v>245600</v>
+        <v>242300</v>
       </c>
       <c r="I61" s="3">
-        <v>239800</v>
+        <v>236000</v>
       </c>
       <c r="J61" s="3">
+        <v>230400</v>
+      </c>
+      <c r="K61" s="3">
         <v>182300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>72700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>393400</v>
+        <v>193900</v>
       </c>
       <c r="E62" s="3">
-        <v>294700</v>
+        <v>378000</v>
       </c>
       <c r="F62" s="3">
-        <v>364100</v>
+        <v>283200</v>
       </c>
       <c r="G62" s="3">
-        <v>269600</v>
+        <v>349900</v>
       </c>
       <c r="H62" s="3">
-        <v>142600</v>
+        <v>259100</v>
       </c>
       <c r="I62" s="3">
-        <v>113900</v>
+        <v>137000</v>
       </c>
       <c r="J62" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K62" s="3">
         <v>80400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>113400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>172200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4555200</v>
+        <v>4313500</v>
       </c>
       <c r="E66" s="3">
-        <v>4086300</v>
+        <v>4377500</v>
       </c>
       <c r="F66" s="3">
-        <v>5730300</v>
+        <v>3926900</v>
       </c>
       <c r="G66" s="3">
-        <v>3804900</v>
+        <v>5506700</v>
       </c>
       <c r="H66" s="3">
-        <v>1749000</v>
+        <v>3656500</v>
       </c>
       <c r="I66" s="3">
-        <v>982700</v>
+        <v>1680700</v>
       </c>
       <c r="J66" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K66" s="3">
         <v>541300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>405300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>309900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>355100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>413900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16261500</v>
+        <v>16544900</v>
       </c>
       <c r="E72" s="3">
-        <v>12092800</v>
+        <v>15627000</v>
       </c>
       <c r="F72" s="3">
-        <v>8790000</v>
+        <v>11620900</v>
       </c>
       <c r="G72" s="3">
-        <v>5438900</v>
+        <v>8447000</v>
       </c>
       <c r="H72" s="3">
-        <v>2364400</v>
+        <v>5226700</v>
       </c>
       <c r="I72" s="3">
-        <v>1173200</v>
+        <v>2272200</v>
       </c>
       <c r="J72" s="3">
+        <v>1127400</v>
+      </c>
+      <c r="K72" s="3">
         <v>712900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>402800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>241500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>311400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>210400</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16513700</v>
+        <v>16786900</v>
       </c>
       <c r="E76" s="3">
-        <v>12344500</v>
+        <v>15869300</v>
       </c>
       <c r="F76" s="3">
-        <v>9041700</v>
+        <v>11862800</v>
       </c>
       <c r="G76" s="3">
-        <v>5690600</v>
+        <v>8688900</v>
       </c>
       <c r="H76" s="3">
-        <v>2615100</v>
+        <v>5468500</v>
       </c>
       <c r="I76" s="3">
-        <v>1423800</v>
+        <v>2513000</v>
       </c>
       <c r="J76" s="3">
+        <v>1368300</v>
+      </c>
+      <c r="K76" s="3">
         <v>962800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>656700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>488900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>576100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>471000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,58 +4472,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4344,53 +4536,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3839000</v>
+        <v>1667700</v>
       </c>
       <c r="E81" s="3">
-        <v>3286200</v>
+        <v>3689200</v>
       </c>
       <c r="F81" s="3">
-        <v>3332700</v>
+        <v>3158000</v>
       </c>
       <c r="G81" s="3">
-        <v>2892800</v>
+        <v>3202700</v>
       </c>
       <c r="H81" s="3">
-        <v>1170900</v>
+        <v>2780000</v>
       </c>
       <c r="I81" s="3">
-        <v>380800</v>
+        <v>1125200</v>
       </c>
       <c r="J81" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-218000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-96300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-58200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-209000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-111100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-56500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27300</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,53 +4620,54 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>28600</v>
+        <v>33100</v>
       </c>
       <c r="E83" s="3">
-        <v>27000</v>
+        <v>27500</v>
       </c>
       <c r="F83" s="3">
-        <v>20600</v>
+        <v>25900</v>
       </c>
       <c r="G83" s="3">
-        <v>17000</v>
+        <v>19700</v>
       </c>
       <c r="H83" s="3">
-        <v>13500</v>
+        <v>16400</v>
       </c>
       <c r="I83" s="3">
         <v>13000</v>
       </c>
       <c r="J83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K83" s="3">
         <v>9100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>39600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10300</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,53 +4972,56 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4203700</v>
+        <v>3908900</v>
       </c>
       <c r="E89" s="3">
-        <v>-207100</v>
+        <v>4039700</v>
       </c>
       <c r="F89" s="3">
-        <v>1557700</v>
+        <v>-199000</v>
       </c>
       <c r="G89" s="3">
-        <v>-104100</v>
+        <v>1496900</v>
       </c>
       <c r="H89" s="3">
-        <v>-323100</v>
+        <v>-100000</v>
       </c>
       <c r="I89" s="3">
-        <v>258700</v>
+        <v>-310500</v>
       </c>
       <c r="J89" s="3">
+        <v>248600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-199800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-59700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-231800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-105000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-68400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,53 +5056,54 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45800</v>
+        <v>-70400</v>
       </c>
       <c r="E91" s="3">
-        <v>-40900</v>
+        <v>-44000</v>
       </c>
       <c r="F91" s="3">
-        <v>-42000</v>
+        <v>-39300</v>
       </c>
       <c r="G91" s="3">
-        <v>-26900</v>
+        <v>-40400</v>
       </c>
       <c r="H91" s="3">
-        <v>-22500</v>
+        <v>-25800</v>
       </c>
       <c r="I91" s="3">
-        <v>-26300</v>
+        <v>-21600</v>
       </c>
       <c r="J91" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,53 +5231,56 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>298300</v>
+        <v>-78200</v>
       </c>
       <c r="E94" s="3">
-        <v>-484600</v>
+        <v>286700</v>
       </c>
       <c r="F94" s="3">
-        <v>-42700</v>
+        <v>-465700</v>
       </c>
       <c r="G94" s="3">
-        <v>-30900</v>
+        <v>-41000</v>
       </c>
       <c r="H94" s="3">
-        <v>-29400</v>
+        <v>-29700</v>
       </c>
       <c r="I94" s="3">
-        <v>-103600</v>
+        <v>-28200</v>
       </c>
       <c r="J94" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-21100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-90000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,53 +5549,56 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>83300</v>
+        <v>-779500</v>
       </c>
       <c r="E100" s="3">
-        <v>-50800</v>
+        <v>80100</v>
       </c>
       <c r="F100" s="3">
-        <v>-5500</v>
+        <v>-48800</v>
       </c>
       <c r="G100" s="3">
-        <v>158700</v>
+        <v>-5300</v>
       </c>
       <c r="H100" s="3">
-        <v>-4700</v>
+        <v>152500</v>
       </c>
       <c r="I100" s="3">
-        <v>120700</v>
+        <v>-4500</v>
       </c>
       <c r="J100" s="3">
+        <v>116000</v>
+      </c>
+      <c r="K100" s="3">
         <v>654100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>159500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>447500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>429600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>267900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,53 +5608,56 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55500</v>
+        <v>111200</v>
       </c>
       <c r="E101" s="3">
-        <v>15900</v>
+        <v>53400</v>
       </c>
       <c r="F101" s="3">
-        <v>25100</v>
+        <v>15300</v>
       </c>
       <c r="G101" s="3">
+        <v>24100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>26400</v>
-      </c>
       <c r="I101" s="3">
-        <v>-47700</v>
+        <v>25300</v>
       </c>
       <c r="J101" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,53 +5667,56 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4640900</v>
+        <v>3162500</v>
       </c>
       <c r="E102" s="3">
-        <v>-726500</v>
+        <v>4459800</v>
       </c>
       <c r="F102" s="3">
-        <v>1534600</v>
+        <v>-698200</v>
       </c>
       <c r="G102" s="3">
-        <v>23500</v>
+        <v>1474800</v>
       </c>
       <c r="H102" s="3">
-        <v>-330800</v>
+        <v>22500</v>
       </c>
       <c r="I102" s="3">
-        <v>228100</v>
+        <v>-317900</v>
       </c>
       <c r="J102" s="3">
+        <v>219200</v>
+      </c>
+      <c r="K102" s="3">
         <v>433300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-73700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>125700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>281600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>142600</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
@@ -749,56 +750,59 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3188200</v>
+        <v>3533200</v>
       </c>
       <c r="E8" s="3">
-        <v>6358000</v>
+        <v>3263000</v>
       </c>
       <c r="F8" s="3">
-        <v>5518100</v>
+        <v>6507200</v>
       </c>
       <c r="G8" s="3">
-        <v>6071500</v>
+        <v>5647600</v>
       </c>
       <c r="H8" s="3">
-        <v>5294700</v>
+        <v>6213900</v>
       </c>
       <c r="I8" s="3">
-        <v>2043100</v>
+        <v>5418900</v>
       </c>
       <c r="J8" s="3">
+        <v>2091000</v>
+      </c>
+      <c r="K8" s="3">
         <v>344500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>70100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>30200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>63600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>150100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>51100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
@@ -808,56 +812,59 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>762600</v>
+        <v>768500</v>
       </c>
       <c r="E9" s="3">
-        <v>1290700</v>
+        <v>780500</v>
       </c>
       <c r="F9" s="3">
-        <v>581700</v>
+        <v>1321000</v>
       </c>
       <c r="G9" s="3">
-        <v>1208300</v>
+        <v>595300</v>
       </c>
       <c r="H9" s="3">
-        <v>881500</v>
+        <v>1236600</v>
       </c>
       <c r="I9" s="3">
-        <v>232500</v>
+        <v>902200</v>
       </c>
       <c r="J9" s="3">
+        <v>237900</v>
+      </c>
+      <c r="K9" s="3">
         <v>40900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>20300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>10700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>16100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7600</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
@@ -867,56 +874,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2425600</v>
+        <v>2764700</v>
       </c>
       <c r="E10" s="3">
-        <v>5067300</v>
+        <v>2482500</v>
       </c>
       <c r="F10" s="3">
-        <v>4936400</v>
+        <v>5186200</v>
       </c>
       <c r="G10" s="3">
-        <v>4863200</v>
+        <v>5052200</v>
       </c>
       <c r="H10" s="3">
-        <v>4413200</v>
+        <v>4977300</v>
       </c>
       <c r="I10" s="3">
-        <v>1810600</v>
+        <v>4516700</v>
       </c>
       <c r="J10" s="3">
+        <v>1853100</v>
+      </c>
+      <c r="K10" s="3">
         <v>303600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>39400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>106500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>52900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>134000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>43500</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,56 +962,57 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>387000</v>
+        <v>335000</v>
       </c>
       <c r="E12" s="3">
-        <v>274300</v>
+        <v>396100</v>
       </c>
       <c r="F12" s="3">
-        <v>261000</v>
+        <v>280700</v>
       </c>
       <c r="G12" s="3">
-        <v>251200</v>
+        <v>267100</v>
       </c>
       <c r="H12" s="3">
-        <v>193500</v>
+        <v>257100</v>
       </c>
       <c r="I12" s="3">
-        <v>208200</v>
+        <v>198000</v>
       </c>
       <c r="J12" s="3">
+        <v>213000</v>
+      </c>
+      <c r="K12" s="3">
         <v>256300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>236300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>103800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>264400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>135500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>168300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>68800</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,31 +1084,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-48200</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-20800</v>
+        <v>-49300</v>
       </c>
       <c r="H14" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
-        <v>-67700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>-69300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1102,8 +1122,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1126,31 +1146,34 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11600</v>
+        <v>13900</v>
       </c>
       <c r="E15" s="3">
-        <v>10800</v>
+        <v>11800</v>
       </c>
       <c r="F15" s="3">
-        <v>12700</v>
+        <v>11000</v>
       </c>
       <c r="G15" s="3">
-        <v>10300</v>
+        <v>13000</v>
       </c>
       <c r="H15" s="3">
-        <v>8400</v>
+        <v>10500</v>
       </c>
       <c r="I15" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7700</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1161,8 +1184,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,56 +1231,57 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>984300</v>
+        <v>1096000</v>
       </c>
       <c r="E17" s="3">
-        <v>1617700</v>
+        <v>1007400</v>
       </c>
       <c r="F17" s="3">
-        <v>830600</v>
+        <v>1655600</v>
       </c>
       <c r="G17" s="3">
-        <v>1360300</v>
+        <v>850100</v>
       </c>
       <c r="H17" s="3">
-        <v>1107200</v>
+        <v>1392200</v>
       </c>
       <c r="I17" s="3">
-        <v>385200</v>
+        <v>1133200</v>
       </c>
       <c r="J17" s="3">
+        <v>394200</v>
+      </c>
+      <c r="K17" s="3">
         <v>101000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>263500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>133900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>94800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>338700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>176000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>213400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>86100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,56 +1291,59 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2203900</v>
+        <v>2437200</v>
       </c>
       <c r="E18" s="3">
-        <v>4740300</v>
+        <v>2255600</v>
       </c>
       <c r="F18" s="3">
-        <v>4687500</v>
+        <v>4851600</v>
       </c>
       <c r="G18" s="3">
-        <v>4711200</v>
+        <v>4797500</v>
       </c>
       <c r="H18" s="3">
-        <v>4187500</v>
+        <v>4821700</v>
       </c>
       <c r="I18" s="3">
-        <v>1657900</v>
+        <v>4285700</v>
       </c>
       <c r="J18" s="3">
+        <v>1696800</v>
+      </c>
+      <c r="K18" s="3">
         <v>243500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-193400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-88300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-64600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-211900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-112400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,56 +1379,57 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>115200</v>
+        <v>62100</v>
       </c>
       <c r="E20" s="3">
-        <v>268800</v>
+        <v>117900</v>
       </c>
       <c r="F20" s="3">
-        <v>17600</v>
+        <v>275100</v>
       </c>
       <c r="G20" s="3">
-        <v>-55200</v>
+        <v>18000</v>
       </c>
       <c r="H20" s="3">
-        <v>-174600</v>
+        <v>-56500</v>
       </c>
       <c r="I20" s="3">
-        <v>-19200</v>
+        <v>-178700</v>
       </c>
       <c r="J20" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-37900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8700</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1405,56 +1439,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2352200</v>
+        <v>2533400</v>
       </c>
       <c r="E21" s="3">
-        <v>5036700</v>
+        <v>2407400</v>
       </c>
       <c r="F21" s="3">
-        <v>4731000</v>
+        <v>5154800</v>
       </c>
       <c r="G21" s="3">
-        <v>4675800</v>
+        <v>4842000</v>
       </c>
       <c r="H21" s="3">
-        <v>4029200</v>
+        <v>4785500</v>
       </c>
       <c r="I21" s="3">
-        <v>1651700</v>
+        <v>4123700</v>
       </c>
       <c r="J21" s="3">
+        <v>1690400</v>
+      </c>
+      <c r="K21" s="3">
         <v>218200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-205700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-88600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-48400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-167900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-91100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,56 +1501,59 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>5900</v>
       </c>
       <c r="F22" s="3">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="G22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>600</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
       </c>
       <c r="L22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M22" s="3">
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1523,56 +1563,59 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2313300</v>
+        <v>2494900</v>
       </c>
       <c r="E23" s="3">
-        <v>5005100</v>
+        <v>2367500</v>
       </c>
       <c r="F23" s="3">
-        <v>4701600</v>
+        <v>5122500</v>
       </c>
       <c r="G23" s="3">
-        <v>4655300</v>
+        <v>4811900</v>
       </c>
       <c r="H23" s="3">
-        <v>4012300</v>
+        <v>4764500</v>
       </c>
       <c r="I23" s="3">
-        <v>1638000</v>
+        <v>4106500</v>
       </c>
       <c r="J23" s="3">
+        <v>1676500</v>
+      </c>
+      <c r="K23" s="3">
         <v>205100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-215400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-98700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-209500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-111300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,55 +1625,58 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>645600</v>
+        <v>672900</v>
       </c>
       <c r="E24" s="3">
-        <v>1315900</v>
+        <v>660800</v>
       </c>
       <c r="F24" s="3">
-        <v>1543700</v>
+        <v>1346700</v>
       </c>
       <c r="G24" s="3">
-        <v>1452600</v>
+        <v>1579900</v>
       </c>
       <c r="H24" s="3">
-        <v>1232400</v>
+        <v>1486700</v>
       </c>
       <c r="I24" s="3">
-        <v>512900</v>
+        <v>1261300</v>
       </c>
       <c r="J24" s="3">
+        <v>524900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-160900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,56 +1749,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1667700</v>
+        <v>1822000</v>
       </c>
       <c r="E26" s="3">
-        <v>3689200</v>
+        <v>1706800</v>
       </c>
       <c r="F26" s="3">
-        <v>3158000</v>
+        <v>3775700</v>
       </c>
       <c r="G26" s="3">
-        <v>3202700</v>
+        <v>3232100</v>
       </c>
       <c r="H26" s="3">
-        <v>2780000</v>
+        <v>3277800</v>
       </c>
       <c r="I26" s="3">
-        <v>1125200</v>
+        <v>2845200</v>
       </c>
       <c r="J26" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K26" s="3">
         <v>366000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-218000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-96300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-58200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-209200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-111300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-56800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1759,56 +1811,59 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1667700</v>
+        <v>1822000</v>
       </c>
       <c r="E27" s="3">
-        <v>3689200</v>
+        <v>1706800</v>
       </c>
       <c r="F27" s="3">
-        <v>3158000</v>
+        <v>3775700</v>
       </c>
       <c r="G27" s="3">
-        <v>3202700</v>
+        <v>3232100</v>
       </c>
       <c r="H27" s="3">
-        <v>2780000</v>
+        <v>3277800</v>
       </c>
       <c r="I27" s="3">
-        <v>1125200</v>
+        <v>2845200</v>
       </c>
       <c r="J27" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K27" s="3">
         <v>366000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-218000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-96300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-58200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-209000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-111100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27300</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,56 +2121,59 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-115200</v>
+        <v>-62100</v>
       </c>
       <c r="E32" s="3">
-        <v>-268800</v>
+        <v>-117900</v>
       </c>
       <c r="F32" s="3">
-        <v>-17600</v>
+        <v>-275100</v>
       </c>
       <c r="G32" s="3">
-        <v>55200</v>
+        <v>-18000</v>
       </c>
       <c r="H32" s="3">
-        <v>174600</v>
+        <v>56500</v>
       </c>
       <c r="I32" s="3">
-        <v>19200</v>
+        <v>178700</v>
       </c>
       <c r="J32" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K32" s="3">
         <v>37900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8700</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2113,56 +2183,59 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1667700</v>
+        <v>1822000</v>
       </c>
       <c r="E33" s="3">
-        <v>3689200</v>
+        <v>1706800</v>
       </c>
       <c r="F33" s="3">
-        <v>3158000</v>
+        <v>3775700</v>
       </c>
       <c r="G33" s="3">
-        <v>3202700</v>
+        <v>3232100</v>
       </c>
       <c r="H33" s="3">
-        <v>2780000</v>
+        <v>3277800</v>
       </c>
       <c r="I33" s="3">
-        <v>1125200</v>
+        <v>2845200</v>
       </c>
       <c r="J33" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K33" s="3">
         <v>366000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-218000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-96300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-58200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-209000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-111100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27300</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,56 +2307,59 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1667700</v>
+        <v>1822000</v>
       </c>
       <c r="E35" s="3">
-        <v>3689200</v>
+        <v>1706800</v>
       </c>
       <c r="F35" s="3">
-        <v>3158000</v>
+        <v>3775700</v>
       </c>
       <c r="G35" s="3">
-        <v>3202700</v>
+        <v>3232100</v>
       </c>
       <c r="H35" s="3">
-        <v>2780000</v>
+        <v>3277800</v>
       </c>
       <c r="I35" s="3">
-        <v>1125200</v>
+        <v>2845200</v>
       </c>
       <c r="J35" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K35" s="3">
         <v>366000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-218000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-96300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-58200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-209000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-111100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27300</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2290,61 +2369,64 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2354,8 +2436,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9310500</v>
+        <v>13702900</v>
       </c>
       <c r="E41" s="3">
-        <v>6148100</v>
+        <v>9529000</v>
       </c>
       <c r="F41" s="3">
-        <v>1688300</v>
+        <v>6292300</v>
       </c>
       <c r="G41" s="3">
-        <v>2386500</v>
+        <v>1727900</v>
       </c>
       <c r="H41" s="3">
-        <v>911700</v>
+        <v>2442500</v>
       </c>
       <c r="I41" s="3">
-        <v>889200</v>
+        <v>933100</v>
       </c>
       <c r="J41" s="3">
+        <v>910000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1207100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1028000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>625100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>492700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>606100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>349000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>900</v>
       </c>
-      <c r="F42" s="3">
-        <v>380600</v>
-      </c>
       <c r="G42" s="3">
+        <v>389500</v>
+      </c>
+      <c r="H42" s="3">
         <v>1800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>136900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>233500</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,50 +2608,53 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10356300</v>
+        <v>7461800</v>
       </c>
       <c r="E43" s="3">
-        <v>12663200</v>
+        <v>10599300</v>
       </c>
       <c r="F43" s="3">
-        <v>12349900</v>
+        <v>12960300</v>
       </c>
       <c r="G43" s="3">
-        <v>10577200</v>
+        <v>12639600</v>
       </c>
       <c r="H43" s="3">
-        <v>7034300</v>
+        <v>10825400</v>
       </c>
       <c r="I43" s="3">
-        <v>2389800</v>
+        <v>7199300</v>
       </c>
       <c r="J43" s="3">
+        <v>2445800</v>
+      </c>
+      <c r="K43" s="3">
         <v>165900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>14800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,50 +2670,53 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>366700</v>
+        <v>300900</v>
       </c>
       <c r="E44" s="3">
-        <v>458100</v>
+        <v>375300</v>
       </c>
       <c r="F44" s="3">
-        <v>501200</v>
+        <v>468900</v>
       </c>
       <c r="G44" s="3">
-        <v>392400</v>
+        <v>513000</v>
       </c>
       <c r="H44" s="3">
-        <v>304600</v>
+        <v>401600</v>
       </c>
       <c r="I44" s="3">
-        <v>146500</v>
+        <v>311800</v>
       </c>
       <c r="J44" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K44" s="3">
         <v>64000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>12800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>10500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>13700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8900</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121900</v>
+        <v>240600</v>
       </c>
       <c r="E45" s="3">
-        <v>145200</v>
+        <v>124700</v>
       </c>
       <c r="F45" s="3">
-        <v>113100</v>
+        <v>148600</v>
       </c>
       <c r="G45" s="3">
-        <v>158300</v>
+        <v>115800</v>
       </c>
       <c r="H45" s="3">
-        <v>166200</v>
+        <v>162000</v>
       </c>
       <c r="I45" s="3">
-        <v>100800</v>
+        <v>170100</v>
       </c>
       <c r="J45" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K45" s="3">
         <v>88700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20155600</v>
+        <v>21711200</v>
       </c>
       <c r="E46" s="3">
-        <v>19415500</v>
+        <v>20628400</v>
       </c>
       <c r="F46" s="3">
-        <v>15033100</v>
+        <v>19871000</v>
       </c>
       <c r="G46" s="3">
-        <v>13516200</v>
+        <v>15385800</v>
       </c>
       <c r="H46" s="3">
-        <v>8417600</v>
+        <v>13833300</v>
       </c>
       <c r="I46" s="3">
-        <v>3526800</v>
+        <v>8615000</v>
       </c>
       <c r="J46" s="3">
+        <v>3609500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1662600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1133200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>677600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>537700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>653900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>617800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,22 +2856,25 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51400</v>
+        <v>53900</v>
       </c>
       <c r="E47" s="3">
-        <v>48300</v>
+        <v>52600</v>
       </c>
       <c r="F47" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>49400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>21700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2783,8 +2888,8 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2795,8 +2900,8 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>662400</v>
+        <v>776300</v>
       </c>
       <c r="E48" s="3">
-        <v>555500</v>
+        <v>677900</v>
       </c>
       <c r="F48" s="3">
-        <v>519000</v>
+        <v>568500</v>
       </c>
       <c r="G48" s="3">
-        <v>441000</v>
+        <v>531200</v>
       </c>
       <c r="H48" s="3">
-        <v>380100</v>
+        <v>451300</v>
       </c>
       <c r="I48" s="3">
-        <v>359900</v>
+        <v>389000</v>
       </c>
       <c r="J48" s="3">
+        <v>368300</v>
+      </c>
+      <c r="K48" s="3">
         <v>325100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>190500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>183000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>158600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>172800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>150700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,50 +2980,53 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>220800</v>
+        <v>230900</v>
       </c>
       <c r="E49" s="3">
-        <v>215400</v>
+        <v>226000</v>
       </c>
       <c r="F49" s="3">
-        <v>201900</v>
+        <v>220500</v>
       </c>
       <c r="G49" s="3">
-        <v>162500</v>
+        <v>206600</v>
       </c>
       <c r="H49" s="3">
-        <v>163700</v>
+        <v>166300</v>
       </c>
       <c r="I49" s="3">
-        <v>164800</v>
+        <v>167500</v>
       </c>
       <c r="J49" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K49" s="3">
         <v>163100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>175100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>199900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>102500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>104400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>116400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,41 +3166,44 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10300</v>
+        <v>359600</v>
       </c>
       <c r="E52" s="3">
-        <v>12200</v>
+        <v>10500</v>
       </c>
       <c r="F52" s="3">
-        <v>14400</v>
+        <v>12500</v>
       </c>
       <c r="G52" s="3">
-        <v>76000</v>
+        <v>14700</v>
       </c>
       <c r="H52" s="3">
-        <v>163700</v>
+        <v>77800</v>
       </c>
       <c r="I52" s="3">
-        <v>142300</v>
+        <v>167500</v>
       </c>
       <c r="J52" s="3">
+        <v>145700</v>
+      </c>
+      <c r="K52" s="3">
         <v>161900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3099,8 +3219,8 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21100400</v>
+        <v>23131900</v>
       </c>
       <c r="E54" s="3">
-        <v>20246800</v>
+        <v>21595400</v>
       </c>
       <c r="F54" s="3">
-        <v>15789600</v>
+        <v>20721800</v>
       </c>
       <c r="G54" s="3">
-        <v>14195600</v>
+        <v>16160100</v>
       </c>
       <c r="H54" s="3">
-        <v>9125000</v>
+        <v>14528600</v>
       </c>
       <c r="I54" s="3">
-        <v>4193800</v>
+        <v>9339100</v>
       </c>
       <c r="J54" s="3">
+        <v>4292200</v>
+      </c>
+      <c r="K54" s="3">
         <v>2312600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1504200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1061900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>798800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>931200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>884900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>290300</v>
+        <v>302700</v>
       </c>
       <c r="E57" s="3">
-        <v>123400</v>
+        <v>297200</v>
       </c>
       <c r="F57" s="3">
-        <v>159600</v>
+        <v>126300</v>
       </c>
       <c r="G57" s="3">
-        <v>258200</v>
+        <v>163300</v>
       </c>
       <c r="H57" s="3">
-        <v>262000</v>
+        <v>264300</v>
       </c>
       <c r="I57" s="3">
-        <v>105900</v>
+        <v>268200</v>
       </c>
       <c r="J57" s="3">
+        <v>108400</v>
+      </c>
+      <c r="K57" s="3">
         <v>102000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>21200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,50 +3462,53 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32200</v>
+        <v>37800</v>
       </c>
       <c r="E58" s="3">
-        <v>30500</v>
+        <v>33000</v>
       </c>
       <c r="F58" s="3">
-        <v>129600</v>
+        <v>31200</v>
       </c>
       <c r="G58" s="3">
-        <v>19000</v>
+        <v>132600</v>
       </c>
       <c r="H58" s="3">
-        <v>13900</v>
+        <v>19400</v>
       </c>
       <c r="I58" s="3">
-        <v>18000</v>
+        <v>14200</v>
       </c>
       <c r="J58" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K58" s="3">
         <v>6100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>140300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>17800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>25000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3590900</v>
+        <v>3699600</v>
       </c>
       <c r="E59" s="3">
-        <v>3690600</v>
+        <v>3675200</v>
       </c>
       <c r="F59" s="3">
-        <v>3183400</v>
+        <v>3777200</v>
       </c>
       <c r="G59" s="3">
-        <v>4612700</v>
+        <v>3258100</v>
       </c>
       <c r="H59" s="3">
-        <v>2879200</v>
+        <v>4720900</v>
       </c>
       <c r="I59" s="3">
-        <v>1183800</v>
+        <v>2946700</v>
       </c>
       <c r="J59" s="3">
+        <v>1211600</v>
+      </c>
+      <c r="K59" s="3">
         <v>496300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>148900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>116000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>133300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120900</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3913500</v>
+        <v>4040000</v>
       </c>
       <c r="E60" s="3">
-        <v>3844500</v>
+        <v>4005300</v>
       </c>
       <c r="F60" s="3">
-        <v>3472500</v>
+        <v>3934700</v>
       </c>
       <c r="G60" s="3">
-        <v>4889900</v>
+        <v>3554000</v>
       </c>
       <c r="H60" s="3">
-        <v>3155100</v>
+        <v>5004600</v>
       </c>
       <c r="I60" s="3">
-        <v>1307700</v>
+        <v>3229100</v>
       </c>
       <c r="J60" s="3">
+        <v>1338400</v>
+      </c>
+      <c r="K60" s="3">
         <v>604400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>278700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>227500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>155000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>161300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>166600</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,50 +3648,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>206100</v>
+        <v>241900</v>
       </c>
       <c r="E61" s="3">
-        <v>155000</v>
+        <v>210900</v>
       </c>
       <c r="F61" s="3">
-        <v>171200</v>
+        <v>158600</v>
       </c>
       <c r="G61" s="3">
-        <v>267000</v>
+        <v>175200</v>
       </c>
       <c r="H61" s="3">
-        <v>242300</v>
+        <v>273300</v>
       </c>
       <c r="I61" s="3">
-        <v>236000</v>
+        <v>248000</v>
       </c>
       <c r="J61" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K61" s="3">
         <v>230400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>182300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>72700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>80400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>193900</v>
+        <v>101700</v>
       </c>
       <c r="E62" s="3">
-        <v>378000</v>
+        <v>198400</v>
       </c>
       <c r="F62" s="3">
-        <v>283200</v>
+        <v>386900</v>
       </c>
       <c r="G62" s="3">
-        <v>349900</v>
+        <v>289800</v>
       </c>
       <c r="H62" s="3">
-        <v>259100</v>
+        <v>358100</v>
       </c>
       <c r="I62" s="3">
-        <v>137000</v>
+        <v>265200</v>
       </c>
       <c r="J62" s="3">
+        <v>140300</v>
+      </c>
+      <c r="K62" s="3">
         <v>109400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>113400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>172200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4313500</v>
+        <v>4383600</v>
       </c>
       <c r="E66" s="3">
-        <v>4377500</v>
+        <v>4414700</v>
       </c>
       <c r="F66" s="3">
-        <v>3926900</v>
+        <v>4480200</v>
       </c>
       <c r="G66" s="3">
-        <v>5506700</v>
+        <v>4019000</v>
       </c>
       <c r="H66" s="3">
-        <v>3656500</v>
+        <v>5635900</v>
       </c>
       <c r="I66" s="3">
-        <v>1680700</v>
+        <v>3742300</v>
       </c>
       <c r="J66" s="3">
+        <v>1720200</v>
+      </c>
+      <c r="K66" s="3">
         <v>944300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>541300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>405300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>309900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>355100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>413900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16544900</v>
+        <v>18505100</v>
       </c>
       <c r="E72" s="3">
-        <v>15627000</v>
+        <v>16933000</v>
       </c>
       <c r="F72" s="3">
-        <v>11620900</v>
+        <v>15993600</v>
       </c>
       <c r="G72" s="3">
-        <v>8447000</v>
+        <v>11893500</v>
       </c>
       <c r="H72" s="3">
-        <v>5226700</v>
+        <v>8645200</v>
       </c>
       <c r="I72" s="3">
-        <v>2272200</v>
+        <v>5349300</v>
       </c>
       <c r="J72" s="3">
+        <v>2325500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1127400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>712900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>402800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>241500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>311400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>210400</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16786900</v>
+        <v>18748300</v>
       </c>
       <c r="E76" s="3">
-        <v>15869300</v>
+        <v>17180800</v>
       </c>
       <c r="F76" s="3">
-        <v>11862800</v>
+        <v>16241600</v>
       </c>
       <c r="G76" s="3">
-        <v>8688900</v>
+        <v>12141100</v>
       </c>
       <c r="H76" s="3">
-        <v>5468500</v>
+        <v>8892700</v>
       </c>
       <c r="I76" s="3">
-        <v>2513000</v>
+        <v>5596800</v>
       </c>
       <c r="J76" s="3">
+        <v>2572000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1368300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>962800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>656700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>488900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>576100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>471000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,61 +4664,64 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4539,56 +4731,59 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1667700</v>
+        <v>1822000</v>
       </c>
       <c r="E81" s="3">
-        <v>3689200</v>
+        <v>1706800</v>
       </c>
       <c r="F81" s="3">
-        <v>3158000</v>
+        <v>3775700</v>
       </c>
       <c r="G81" s="3">
-        <v>3202700</v>
+        <v>3232100</v>
       </c>
       <c r="H81" s="3">
-        <v>2780000</v>
+        <v>3277800</v>
       </c>
       <c r="I81" s="3">
-        <v>1125200</v>
+        <v>2845200</v>
       </c>
       <c r="J81" s="3">
+        <v>1151600</v>
+      </c>
+      <c r="K81" s="3">
         <v>366000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-218000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-96300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-58200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-209000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-111100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27300</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,56 +4819,57 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33100</v>
+        <v>34200</v>
       </c>
       <c r="E83" s="3">
-        <v>27500</v>
+        <v>33900</v>
       </c>
       <c r="F83" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>20200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>12500</v>
+      </c>
+      <c r="L83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O83" s="3">
+        <v>39600</v>
+      </c>
+      <c r="P83" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>25900</v>
       </c>
-      <c r="G83" s="3">
-        <v>19700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>16400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>13000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>9100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>9600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>39600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>19100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>25900</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10300</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,56 +5189,59 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3908900</v>
+        <v>4878300</v>
       </c>
       <c r="E89" s="3">
-        <v>4039700</v>
+        <v>4000600</v>
       </c>
       <c r="F89" s="3">
-        <v>-199000</v>
+        <v>4134400</v>
       </c>
       <c r="G89" s="3">
-        <v>1496900</v>
+        <v>-203600</v>
       </c>
       <c r="H89" s="3">
-        <v>-100000</v>
+        <v>1532000</v>
       </c>
       <c r="I89" s="3">
-        <v>-310500</v>
+        <v>-102400</v>
       </c>
       <c r="J89" s="3">
+        <v>-317800</v>
+      </c>
+      <c r="K89" s="3">
         <v>248600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-199800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-59700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-231800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-105000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-68400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-82000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,56 +5277,57 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-70400</v>
+        <v>-79500</v>
       </c>
       <c r="E91" s="3">
-        <v>-44000</v>
+        <v>-72100</v>
       </c>
       <c r="F91" s="3">
-        <v>-39300</v>
+        <v>-45000</v>
       </c>
       <c r="G91" s="3">
-        <v>-40400</v>
+        <v>-40200</v>
       </c>
       <c r="H91" s="3">
-        <v>-25800</v>
+        <v>-41300</v>
       </c>
       <c r="I91" s="3">
-        <v>-21600</v>
+        <v>-26400</v>
       </c>
       <c r="J91" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14500</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,56 +5461,59 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>293400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-476600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-99600</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-78200</v>
       </c>
-      <c r="E94" s="3">
-        <v>286700</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-465700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-28200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-99600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-16300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-90000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-56100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-78200</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-46500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,56 +5795,59 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-779500</v>
+        <v>-667000</v>
       </c>
       <c r="E100" s="3">
-        <v>80100</v>
+        <v>-797800</v>
       </c>
       <c r="F100" s="3">
-        <v>-48800</v>
+        <v>82000</v>
       </c>
       <c r="G100" s="3">
-        <v>-5300</v>
+        <v>-49900</v>
       </c>
       <c r="H100" s="3">
-        <v>152500</v>
+        <v>-5400</v>
       </c>
       <c r="I100" s="3">
-        <v>-4500</v>
+        <v>156100</v>
       </c>
       <c r="J100" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K100" s="3">
         <v>116000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>654100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>159500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>447500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>429600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>267900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5611,56 +5857,59 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>111200</v>
+        <v>47700</v>
       </c>
       <c r="E101" s="3">
-        <v>53400</v>
+        <v>113800</v>
       </c>
       <c r="F101" s="3">
-        <v>15300</v>
+        <v>54600</v>
       </c>
       <c r="G101" s="3">
-        <v>24100</v>
+        <v>15600</v>
       </c>
       <c r="H101" s="3">
+        <v>24700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>25300</v>
-      </c>
       <c r="J101" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-45900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5670,56 +5919,59 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3162500</v>
+        <v>4173900</v>
       </c>
       <c r="E102" s="3">
-        <v>4459800</v>
+        <v>3236700</v>
       </c>
       <c r="F102" s="3">
-        <v>-698200</v>
+        <v>4564400</v>
       </c>
       <c r="G102" s="3">
-        <v>1474800</v>
+        <v>-714600</v>
       </c>
       <c r="H102" s="3">
-        <v>22500</v>
+        <v>1509400</v>
       </c>
       <c r="I102" s="3">
-        <v>-317900</v>
+        <v>23100</v>
       </c>
       <c r="J102" s="3">
+        <v>-325300</v>
+      </c>
+      <c r="K102" s="3">
         <v>219200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>433300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-73700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>125700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>281600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>142600</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -759,25 +759,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3533200</v>
+        <v>3661900</v>
       </c>
       <c r="E8" s="3">
-        <v>3263000</v>
+        <v>3381900</v>
       </c>
       <c r="F8" s="3">
-        <v>6507200</v>
+        <v>6744300</v>
       </c>
       <c r="G8" s="3">
-        <v>5647600</v>
+        <v>5853400</v>
       </c>
       <c r="H8" s="3">
-        <v>6213900</v>
+        <v>6440400</v>
       </c>
       <c r="I8" s="3">
-        <v>5418900</v>
+        <v>5616400</v>
       </c>
       <c r="J8" s="3">
-        <v>2091000</v>
+        <v>2167200</v>
       </c>
       <c r="K8" s="3">
         <v>344500</v>
@@ -821,25 +821,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>768500</v>
+        <v>796500</v>
       </c>
       <c r="E9" s="3">
-        <v>780500</v>
+        <v>808900</v>
       </c>
       <c r="F9" s="3">
-        <v>1321000</v>
+        <v>1369200</v>
       </c>
       <c r="G9" s="3">
-        <v>595300</v>
+        <v>617000</v>
       </c>
       <c r="H9" s="3">
-        <v>1236600</v>
+        <v>1281700</v>
       </c>
       <c r="I9" s="3">
-        <v>902200</v>
+        <v>935100</v>
       </c>
       <c r="J9" s="3">
-        <v>237900</v>
+        <v>246600</v>
       </c>
       <c r="K9" s="3">
         <v>40900</v>
@@ -883,25 +883,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2764700</v>
+        <v>2865500</v>
       </c>
       <c r="E10" s="3">
-        <v>2482500</v>
+        <v>2573000</v>
       </c>
       <c r="F10" s="3">
-        <v>5186200</v>
+        <v>5375200</v>
       </c>
       <c r="G10" s="3">
-        <v>5052200</v>
+        <v>5236400</v>
       </c>
       <c r="H10" s="3">
-        <v>4977300</v>
+        <v>5158700</v>
       </c>
       <c r="I10" s="3">
-        <v>4516700</v>
+        <v>4681300</v>
       </c>
       <c r="J10" s="3">
-        <v>1853100</v>
+        <v>1920600</v>
       </c>
       <c r="K10" s="3">
         <v>303600</v>
@@ -969,25 +969,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>335000</v>
+        <v>347200</v>
       </c>
       <c r="E12" s="3">
-        <v>396100</v>
+        <v>410500</v>
       </c>
       <c r="F12" s="3">
-        <v>280700</v>
+        <v>291000</v>
       </c>
       <c r="G12" s="3">
-        <v>267100</v>
+        <v>276900</v>
       </c>
       <c r="H12" s="3">
-        <v>257100</v>
+        <v>266500</v>
       </c>
       <c r="I12" s="3">
-        <v>198000</v>
+        <v>205300</v>
       </c>
       <c r="J12" s="3">
-        <v>213000</v>
+        <v>220800</v>
       </c>
       <c r="K12" s="3">
         <v>256300</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-49300</v>
+        <v>-51100</v>
       </c>
       <c r="H14" s="3">
-        <v>-21300</v>
+        <v>-22100</v>
       </c>
       <c r="I14" s="3">
         <v>-100</v>
       </c>
       <c r="J14" s="3">
-        <v>-69300</v>
+        <v>-71800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1155,25 +1155,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13900</v>
+        <v>14400</v>
       </c>
       <c r="E15" s="3">
-        <v>11800</v>
+        <v>12300</v>
       </c>
       <c r="F15" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="G15" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="H15" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="I15" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="J15" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1238,25 +1238,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1096000</v>
+        <v>1136000</v>
       </c>
       <c r="E17" s="3">
-        <v>1007400</v>
+        <v>1044100</v>
       </c>
       <c r="F17" s="3">
-        <v>1655600</v>
+        <v>1716000</v>
       </c>
       <c r="G17" s="3">
-        <v>850100</v>
+        <v>881100</v>
       </c>
       <c r="H17" s="3">
-        <v>1392200</v>
+        <v>1442900</v>
       </c>
       <c r="I17" s="3">
-        <v>1133200</v>
+        <v>1174500</v>
       </c>
       <c r="J17" s="3">
-        <v>394200</v>
+        <v>408600</v>
       </c>
       <c r="K17" s="3">
         <v>101000</v>
@@ -1300,25 +1300,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2437200</v>
+        <v>2526000</v>
       </c>
       <c r="E18" s="3">
-        <v>2255600</v>
+        <v>2337800</v>
       </c>
       <c r="F18" s="3">
-        <v>4851600</v>
+        <v>5028400</v>
       </c>
       <c r="G18" s="3">
-        <v>4797500</v>
+        <v>4972300</v>
       </c>
       <c r="H18" s="3">
-        <v>4821700</v>
+        <v>4997500</v>
       </c>
       <c r="I18" s="3">
-        <v>4285700</v>
+        <v>4441900</v>
       </c>
       <c r="J18" s="3">
-        <v>1696800</v>
+        <v>1758600</v>
       </c>
       <c r="K18" s="3">
         <v>243500</v>
@@ -1386,25 +1386,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>62100</v>
+        <v>64300</v>
       </c>
       <c r="E20" s="3">
-        <v>117900</v>
+        <v>122200</v>
       </c>
       <c r="F20" s="3">
-        <v>275100</v>
+        <v>285100</v>
       </c>
       <c r="G20" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="H20" s="3">
-        <v>-56500</v>
+        <v>-58500</v>
       </c>
       <c r="I20" s="3">
-        <v>-178700</v>
+        <v>-185300</v>
       </c>
       <c r="J20" s="3">
-        <v>-19600</v>
+        <v>-20300</v>
       </c>
       <c r="K20" s="3">
         <v>-37900</v>
@@ -1448,25 +1448,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2533400</v>
+        <v>2625700</v>
       </c>
       <c r="E21" s="3">
-        <v>2407400</v>
+        <v>2495100</v>
       </c>
       <c r="F21" s="3">
-        <v>5154800</v>
+        <v>5342700</v>
       </c>
       <c r="G21" s="3">
-        <v>4842000</v>
+        <v>5018400</v>
       </c>
       <c r="H21" s="3">
-        <v>4785500</v>
+        <v>4959900</v>
       </c>
       <c r="I21" s="3">
-        <v>4123700</v>
+        <v>4274000</v>
       </c>
       <c r="J21" s="3">
-        <v>1690400</v>
+        <v>1752000</v>
       </c>
       <c r="K21" s="3">
         <v>218200</v>
@@ -1510,16 +1510,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4200</v>
-      </c>
       <c r="G22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
         <v>800</v>
@@ -1572,25 +1572,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2494900</v>
+        <v>2585900</v>
       </c>
       <c r="E23" s="3">
-        <v>2367500</v>
+        <v>2453800</v>
       </c>
       <c r="F23" s="3">
-        <v>5122500</v>
+        <v>5309100</v>
       </c>
       <c r="G23" s="3">
-        <v>4811900</v>
+        <v>4987300</v>
       </c>
       <c r="H23" s="3">
-        <v>4764500</v>
+        <v>4938100</v>
       </c>
       <c r="I23" s="3">
-        <v>4106500</v>
+        <v>4256100</v>
       </c>
       <c r="J23" s="3">
-        <v>1676500</v>
+        <v>1737600</v>
       </c>
       <c r="K23" s="3">
         <v>205100</v>
@@ -1634,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>672900</v>
+        <v>697400</v>
       </c>
       <c r="E24" s="3">
-        <v>660800</v>
+        <v>684800</v>
       </c>
       <c r="F24" s="3">
-        <v>1346700</v>
+        <v>1395800</v>
       </c>
       <c r="G24" s="3">
-        <v>1579900</v>
+        <v>1637500</v>
       </c>
       <c r="H24" s="3">
-        <v>1486700</v>
+        <v>1540900</v>
       </c>
       <c r="I24" s="3">
-        <v>1261300</v>
+        <v>1307300</v>
       </c>
       <c r="J24" s="3">
-        <v>524900</v>
+        <v>544000</v>
       </c>
       <c r="K24" s="3">
         <v>-160900</v>
@@ -1758,25 +1758,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1822000</v>
+        <v>1888400</v>
       </c>
       <c r="E26" s="3">
-        <v>1706800</v>
+        <v>1769000</v>
       </c>
       <c r="F26" s="3">
-        <v>3775700</v>
+        <v>3913300</v>
       </c>
       <c r="G26" s="3">
-        <v>3232100</v>
+        <v>3349800</v>
       </c>
       <c r="H26" s="3">
-        <v>3277800</v>
+        <v>3397200</v>
       </c>
       <c r="I26" s="3">
-        <v>2845200</v>
+        <v>2948900</v>
       </c>
       <c r="J26" s="3">
-        <v>1151600</v>
+        <v>1193500</v>
       </c>
       <c r="K26" s="3">
         <v>366000</v>
@@ -1820,25 +1820,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1822000</v>
+        <v>1888400</v>
       </c>
       <c r="E27" s="3">
-        <v>1706800</v>
+        <v>1769000</v>
       </c>
       <c r="F27" s="3">
-        <v>3775700</v>
+        <v>3913300</v>
       </c>
       <c r="G27" s="3">
-        <v>3232100</v>
+        <v>3349800</v>
       </c>
       <c r="H27" s="3">
-        <v>3277800</v>
+        <v>3397200</v>
       </c>
       <c r="I27" s="3">
-        <v>2845200</v>
+        <v>2948900</v>
       </c>
       <c r="J27" s="3">
-        <v>1151600</v>
+        <v>1193500</v>
       </c>
       <c r="K27" s="3">
         <v>366000</v>
@@ -2130,25 +2130,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-62100</v>
+        <v>-64300</v>
       </c>
       <c r="E32" s="3">
-        <v>-117900</v>
+        <v>-122200</v>
       </c>
       <c r="F32" s="3">
-        <v>-275100</v>
+        <v>-285100</v>
       </c>
       <c r="G32" s="3">
-        <v>-18000</v>
+        <v>-18600</v>
       </c>
       <c r="H32" s="3">
-        <v>56500</v>
+        <v>58500</v>
       </c>
       <c r="I32" s="3">
-        <v>178700</v>
+        <v>185300</v>
       </c>
       <c r="J32" s="3">
-        <v>19600</v>
+        <v>20300</v>
       </c>
       <c r="K32" s="3">
         <v>37900</v>
@@ -2192,25 +2192,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1822000</v>
+        <v>1888400</v>
       </c>
       <c r="E33" s="3">
-        <v>1706800</v>
+        <v>1769000</v>
       </c>
       <c r="F33" s="3">
-        <v>3775700</v>
+        <v>3913300</v>
       </c>
       <c r="G33" s="3">
-        <v>3232100</v>
+        <v>3349800</v>
       </c>
       <c r="H33" s="3">
-        <v>3277800</v>
+        <v>3397200</v>
       </c>
       <c r="I33" s="3">
-        <v>2845200</v>
+        <v>2948900</v>
       </c>
       <c r="J33" s="3">
-        <v>1151600</v>
+        <v>1193500</v>
       </c>
       <c r="K33" s="3">
         <v>366000</v>
@@ -2316,25 +2316,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1822000</v>
+        <v>1888400</v>
       </c>
       <c r="E35" s="3">
-        <v>1706800</v>
+        <v>1769000</v>
       </c>
       <c r="F35" s="3">
-        <v>3775700</v>
+        <v>3913300</v>
       </c>
       <c r="G35" s="3">
-        <v>3232100</v>
+        <v>3349800</v>
       </c>
       <c r="H35" s="3">
-        <v>3277800</v>
+        <v>3397200</v>
       </c>
       <c r="I35" s="3">
-        <v>2845200</v>
+        <v>2948900</v>
       </c>
       <c r="J35" s="3">
-        <v>1151600</v>
+        <v>1193500</v>
       </c>
       <c r="K35" s="3">
         <v>366000</v>
@@ -2493,25 +2493,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13702900</v>
+        <v>14202300</v>
       </c>
       <c r="E41" s="3">
-        <v>9529000</v>
+        <v>9876200</v>
       </c>
       <c r="F41" s="3">
-        <v>6292300</v>
+        <v>6521600</v>
       </c>
       <c r="G41" s="3">
-        <v>1727900</v>
+        <v>1790900</v>
       </c>
       <c r="H41" s="3">
-        <v>2442500</v>
+        <v>2531500</v>
       </c>
       <c r="I41" s="3">
-        <v>933100</v>
+        <v>967100</v>
       </c>
       <c r="J41" s="3">
-        <v>910000</v>
+        <v>943200</v>
       </c>
       <c r="K41" s="3">
         <v>1207100</v>
@@ -2555,19 +2555,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>389500</v>
+        <v>403700</v>
       </c>
       <c r="H42" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I42" s="3">
         <v>800</v>
@@ -2617,25 +2617,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7461800</v>
+        <v>7733800</v>
       </c>
       <c r="E43" s="3">
-        <v>10599300</v>
+        <v>10985500</v>
       </c>
       <c r="F43" s="3">
-        <v>12960300</v>
+        <v>13432600</v>
       </c>
       <c r="G43" s="3">
-        <v>12639600</v>
+        <v>13100300</v>
       </c>
       <c r="H43" s="3">
-        <v>10825400</v>
+        <v>11219900</v>
       </c>
       <c r="I43" s="3">
-        <v>7199300</v>
+        <v>7461700</v>
       </c>
       <c r="J43" s="3">
-        <v>2445800</v>
+        <v>2535000</v>
       </c>
       <c r="K43" s="3">
         <v>165900</v>
@@ -2679,25 +2679,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300900</v>
+        <v>311900</v>
       </c>
       <c r="E44" s="3">
-        <v>375300</v>
+        <v>389000</v>
       </c>
       <c r="F44" s="3">
-        <v>468900</v>
+        <v>485900</v>
       </c>
       <c r="G44" s="3">
-        <v>513000</v>
+        <v>531600</v>
       </c>
       <c r="H44" s="3">
-        <v>401600</v>
+        <v>416200</v>
       </c>
       <c r="I44" s="3">
-        <v>311800</v>
+        <v>323100</v>
       </c>
       <c r="J44" s="3">
-        <v>150000</v>
+        <v>155400</v>
       </c>
       <c r="K44" s="3">
         <v>64000</v>
@@ -2741,25 +2741,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>240600</v>
+        <v>249400</v>
       </c>
       <c r="E45" s="3">
-        <v>124700</v>
+        <v>129300</v>
       </c>
       <c r="F45" s="3">
-        <v>148600</v>
+        <v>154000</v>
       </c>
       <c r="G45" s="3">
-        <v>115800</v>
+        <v>120000</v>
       </c>
       <c r="H45" s="3">
-        <v>162000</v>
+        <v>167900</v>
       </c>
       <c r="I45" s="3">
-        <v>170100</v>
+        <v>176300</v>
       </c>
       <c r="J45" s="3">
-        <v>103200</v>
+        <v>107000</v>
       </c>
       <c r="K45" s="3">
         <v>88700</v>
@@ -2803,25 +2803,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21711200</v>
+        <v>22502400</v>
       </c>
       <c r="E46" s="3">
-        <v>20628400</v>
+        <v>21380200</v>
       </c>
       <c r="F46" s="3">
-        <v>19871000</v>
+        <v>20595100</v>
       </c>
       <c r="G46" s="3">
-        <v>15385800</v>
+        <v>15946500</v>
       </c>
       <c r="H46" s="3">
-        <v>13833300</v>
+        <v>14337400</v>
       </c>
       <c r="I46" s="3">
-        <v>8615000</v>
+        <v>8929000</v>
       </c>
       <c r="J46" s="3">
-        <v>3609500</v>
+        <v>3741100</v>
       </c>
       <c r="K46" s="3">
         <v>1662600</v>
@@ -2865,16 +2865,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53900</v>
+        <v>55900</v>
       </c>
       <c r="E47" s="3">
-        <v>52600</v>
+        <v>54500</v>
       </c>
       <c r="F47" s="3">
-        <v>49400</v>
+        <v>51200</v>
       </c>
       <c r="G47" s="3">
-        <v>21700</v>
+        <v>22500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>776300</v>
+        <v>804600</v>
       </c>
       <c r="E48" s="3">
-        <v>677900</v>
+        <v>702600</v>
       </c>
       <c r="F48" s="3">
-        <v>568500</v>
+        <v>589200</v>
       </c>
       <c r="G48" s="3">
-        <v>531200</v>
+        <v>550600</v>
       </c>
       <c r="H48" s="3">
-        <v>451300</v>
+        <v>467700</v>
       </c>
       <c r="I48" s="3">
-        <v>389000</v>
+        <v>403200</v>
       </c>
       <c r="J48" s="3">
-        <v>368300</v>
+        <v>381700</v>
       </c>
       <c r="K48" s="3">
         <v>325100</v>
@@ -2989,25 +2989,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>230900</v>
+        <v>239300</v>
       </c>
       <c r="E49" s="3">
-        <v>226000</v>
+        <v>234200</v>
       </c>
       <c r="F49" s="3">
-        <v>220500</v>
+        <v>228500</v>
       </c>
       <c r="G49" s="3">
-        <v>206600</v>
+        <v>214100</v>
       </c>
       <c r="H49" s="3">
-        <v>166300</v>
+        <v>172300</v>
       </c>
       <c r="I49" s="3">
-        <v>167500</v>
+        <v>173600</v>
       </c>
       <c r="J49" s="3">
-        <v>168600</v>
+        <v>174800</v>
       </c>
       <c r="K49" s="3">
         <v>163100</v>
@@ -3175,25 +3175,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>359600</v>
+        <v>372700</v>
       </c>
       <c r="E52" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="F52" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G52" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="H52" s="3">
-        <v>77800</v>
+        <v>80600</v>
       </c>
       <c r="I52" s="3">
-        <v>167500</v>
+        <v>173600</v>
       </c>
       <c r="J52" s="3">
-        <v>145700</v>
+        <v>151000</v>
       </c>
       <c r="K52" s="3">
         <v>161900</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23131900</v>
+        <v>23974900</v>
       </c>
       <c r="E54" s="3">
-        <v>21595400</v>
+        <v>22382400</v>
       </c>
       <c r="F54" s="3">
-        <v>20721800</v>
+        <v>21477000</v>
       </c>
       <c r="G54" s="3">
-        <v>16160100</v>
+        <v>16749000</v>
       </c>
       <c r="H54" s="3">
-        <v>14528600</v>
+        <v>15058100</v>
       </c>
       <c r="I54" s="3">
-        <v>9339100</v>
+        <v>9679400</v>
       </c>
       <c r="J54" s="3">
-        <v>4292200</v>
+        <v>4448600</v>
       </c>
       <c r="K54" s="3">
         <v>2312600</v>
@@ -3409,25 +3409,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>302700</v>
+        <v>313700</v>
       </c>
       <c r="E57" s="3">
-        <v>297200</v>
+        <v>308000</v>
       </c>
       <c r="F57" s="3">
-        <v>126300</v>
+        <v>130900</v>
       </c>
       <c r="G57" s="3">
-        <v>163300</v>
+        <v>169300</v>
       </c>
       <c r="H57" s="3">
-        <v>264300</v>
+        <v>273900</v>
       </c>
       <c r="I57" s="3">
-        <v>268200</v>
+        <v>277900</v>
       </c>
       <c r="J57" s="3">
-        <v>108400</v>
+        <v>112400</v>
       </c>
       <c r="K57" s="3">
         <v>102000</v>
@@ -3471,25 +3471,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37800</v>
+        <v>39100</v>
       </c>
       <c r="E58" s="3">
-        <v>33000</v>
+        <v>34200</v>
       </c>
       <c r="F58" s="3">
-        <v>31200</v>
+        <v>32400</v>
       </c>
       <c r="G58" s="3">
-        <v>132600</v>
+        <v>137400</v>
       </c>
       <c r="H58" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="I58" s="3">
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="J58" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="K58" s="3">
         <v>6100</v>
@@ -3533,25 +3533,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3699600</v>
+        <v>3834400</v>
       </c>
       <c r="E59" s="3">
-        <v>3675200</v>
+        <v>3809100</v>
       </c>
       <c r="F59" s="3">
-        <v>3777200</v>
+        <v>3914800</v>
       </c>
       <c r="G59" s="3">
-        <v>3258100</v>
+        <v>3376800</v>
       </c>
       <c r="H59" s="3">
-        <v>4720900</v>
+        <v>4892900</v>
       </c>
       <c r="I59" s="3">
-        <v>2946700</v>
+        <v>3054100</v>
       </c>
       <c r="J59" s="3">
-        <v>1211600</v>
+        <v>1255700</v>
       </c>
       <c r="K59" s="3">
         <v>496300</v>
@@ -3595,25 +3595,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4040000</v>
+        <v>4187200</v>
       </c>
       <c r="E60" s="3">
-        <v>4005300</v>
+        <v>4151300</v>
       </c>
       <c r="F60" s="3">
-        <v>3934700</v>
+        <v>4078100</v>
       </c>
       <c r="G60" s="3">
-        <v>3554000</v>
+        <v>3683500</v>
       </c>
       <c r="H60" s="3">
-        <v>5004600</v>
+        <v>5187000</v>
       </c>
       <c r="I60" s="3">
-        <v>3229100</v>
+        <v>3346800</v>
       </c>
       <c r="J60" s="3">
-        <v>1338400</v>
+        <v>1387100</v>
       </c>
       <c r="K60" s="3">
         <v>604400</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>241900</v>
+        <v>250700</v>
       </c>
       <c r="E61" s="3">
-        <v>210900</v>
+        <v>218600</v>
       </c>
       <c r="F61" s="3">
-        <v>158600</v>
+        <v>164400</v>
       </c>
       <c r="G61" s="3">
-        <v>175200</v>
+        <v>181600</v>
       </c>
       <c r="H61" s="3">
-        <v>273300</v>
+        <v>283200</v>
       </c>
       <c r="I61" s="3">
-        <v>248000</v>
+        <v>257000</v>
       </c>
       <c r="J61" s="3">
-        <v>241500</v>
+        <v>250300</v>
       </c>
       <c r="K61" s="3">
         <v>230400</v>
@@ -3719,25 +3719,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>101700</v>
+        <v>105400</v>
       </c>
       <c r="E62" s="3">
-        <v>198400</v>
+        <v>205700</v>
       </c>
       <c r="F62" s="3">
-        <v>386900</v>
+        <v>401000</v>
       </c>
       <c r="G62" s="3">
-        <v>289800</v>
+        <v>300400</v>
       </c>
       <c r="H62" s="3">
-        <v>358100</v>
+        <v>371100</v>
       </c>
       <c r="I62" s="3">
-        <v>265200</v>
+        <v>274900</v>
       </c>
       <c r="J62" s="3">
-        <v>140300</v>
+        <v>145400</v>
       </c>
       <c r="K62" s="3">
         <v>109400</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4383600</v>
+        <v>4543400</v>
       </c>
       <c r="E66" s="3">
-        <v>4414700</v>
+        <v>4575500</v>
       </c>
       <c r="F66" s="3">
-        <v>4480200</v>
+        <v>4643500</v>
       </c>
       <c r="G66" s="3">
-        <v>4019000</v>
+        <v>4165500</v>
       </c>
       <c r="H66" s="3">
-        <v>5635900</v>
+        <v>5841300</v>
       </c>
       <c r="I66" s="3">
-        <v>3742300</v>
+        <v>3878600</v>
       </c>
       <c r="J66" s="3">
-        <v>1720200</v>
+        <v>1782800</v>
       </c>
       <c r="K66" s="3">
         <v>944300</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18505100</v>
+        <v>19179400</v>
       </c>
       <c r="E72" s="3">
-        <v>16933000</v>
+        <v>17550100</v>
       </c>
       <c r="F72" s="3">
-        <v>15993600</v>
+        <v>16576400</v>
       </c>
       <c r="G72" s="3">
-        <v>11893500</v>
+        <v>12327000</v>
       </c>
       <c r="H72" s="3">
-        <v>8645200</v>
+        <v>8960200</v>
       </c>
       <c r="I72" s="3">
-        <v>5349300</v>
+        <v>5544200</v>
       </c>
       <c r="J72" s="3">
-        <v>2325500</v>
+        <v>2410200</v>
       </c>
       <c r="K72" s="3">
         <v>1127400</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18748300</v>
+        <v>19431500</v>
       </c>
       <c r="E76" s="3">
-        <v>17180800</v>
+        <v>17806900</v>
       </c>
       <c r="F76" s="3">
-        <v>16241600</v>
+        <v>16833500</v>
       </c>
       <c r="G76" s="3">
-        <v>12141100</v>
+        <v>12583500</v>
       </c>
       <c r="H76" s="3">
-        <v>8892700</v>
+        <v>9216800</v>
       </c>
       <c r="I76" s="3">
-        <v>5596800</v>
+        <v>5800800</v>
       </c>
       <c r="J76" s="3">
-        <v>2572000</v>
+        <v>2665700</v>
       </c>
       <c r="K76" s="3">
         <v>1368300</v>
@@ -4740,25 +4740,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1822000</v>
+        <v>1888400</v>
       </c>
       <c r="E81" s="3">
-        <v>1706800</v>
+        <v>1769000</v>
       </c>
       <c r="F81" s="3">
-        <v>3775700</v>
+        <v>3913300</v>
       </c>
       <c r="G81" s="3">
-        <v>3232100</v>
+        <v>3349800</v>
       </c>
       <c r="H81" s="3">
-        <v>3277800</v>
+        <v>3397200</v>
       </c>
       <c r="I81" s="3">
-        <v>2845200</v>
+        <v>2948900</v>
       </c>
       <c r="J81" s="3">
-        <v>1151600</v>
+        <v>1193500</v>
       </c>
       <c r="K81" s="3">
         <v>366000</v>
@@ -4826,25 +4826,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>34200</v>
+        <v>35400</v>
       </c>
       <c r="E83" s="3">
-        <v>33900</v>
+        <v>35100</v>
       </c>
       <c r="F83" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="G83" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="H83" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="I83" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="J83" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="K83" s="3">
         <v>12500</v>
@@ -5198,25 +5198,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4878300</v>
+        <v>5056100</v>
       </c>
       <c r="E89" s="3">
-        <v>4000600</v>
+        <v>4146400</v>
       </c>
       <c r="F89" s="3">
-        <v>4134400</v>
+        <v>4285100</v>
       </c>
       <c r="G89" s="3">
-        <v>-203600</v>
+        <v>-211100</v>
       </c>
       <c r="H89" s="3">
-        <v>1532000</v>
+        <v>1587800</v>
       </c>
       <c r="I89" s="3">
-        <v>-102400</v>
+        <v>-106100</v>
       </c>
       <c r="J89" s="3">
-        <v>-317800</v>
+        <v>-329400</v>
       </c>
       <c r="K89" s="3">
         <v>248600</v>
@@ -5284,25 +5284,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-79500</v>
+        <v>-82400</v>
       </c>
       <c r="E91" s="3">
-        <v>-72100</v>
+        <v>-74700</v>
       </c>
       <c r="F91" s="3">
-        <v>-45000</v>
+        <v>-46700</v>
       </c>
       <c r="G91" s="3">
-        <v>-40200</v>
+        <v>-41700</v>
       </c>
       <c r="H91" s="3">
-        <v>-41300</v>
+        <v>-42800</v>
       </c>
       <c r="I91" s="3">
-        <v>-26400</v>
+        <v>-27400</v>
       </c>
       <c r="J91" s="3">
-        <v>-22200</v>
+        <v>-23000</v>
       </c>
       <c r="K91" s="3">
         <v>-25300</v>
@@ -5470,25 +5470,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85000</v>
+        <v>-88100</v>
       </c>
       <c r="E94" s="3">
-        <v>-80000</v>
+        <v>-82900</v>
       </c>
       <c r="F94" s="3">
-        <v>293400</v>
+        <v>304100</v>
       </c>
       <c r="G94" s="3">
-        <v>-476600</v>
+        <v>-494000</v>
       </c>
       <c r="H94" s="3">
-        <v>-42000</v>
+        <v>-43500</v>
       </c>
       <c r="I94" s="3">
-        <v>-30400</v>
+        <v>-31500</v>
       </c>
       <c r="J94" s="3">
-        <v>-28900</v>
+        <v>-29900</v>
       </c>
       <c r="K94" s="3">
         <v>-99600</v>
@@ -5804,25 +5804,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-667000</v>
+        <v>-691300</v>
       </c>
       <c r="E100" s="3">
-        <v>-797800</v>
+        <v>-826800</v>
       </c>
       <c r="F100" s="3">
-        <v>82000</v>
+        <v>85000</v>
       </c>
       <c r="G100" s="3">
-        <v>-49900</v>
+        <v>-51700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="I100" s="3">
-        <v>156100</v>
+        <v>161800</v>
       </c>
       <c r="J100" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K100" s="3">
         <v>116000</v>
@@ -5866,25 +5866,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47700</v>
+        <v>49400</v>
       </c>
       <c r="E101" s="3">
-        <v>113800</v>
+        <v>118000</v>
       </c>
       <c r="F101" s="3">
-        <v>54600</v>
+        <v>56600</v>
       </c>
       <c r="G101" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="H101" s="3">
-        <v>24700</v>
+        <v>25600</v>
       </c>
       <c r="I101" s="3">
         <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="K101" s="3">
         <v>-45900</v>
@@ -5928,25 +5928,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4173900</v>
+        <v>4326100</v>
       </c>
       <c r="E102" s="3">
-        <v>3236700</v>
+        <v>3354600</v>
       </c>
       <c r="F102" s="3">
-        <v>4564400</v>
+        <v>4730700</v>
       </c>
       <c r="G102" s="3">
-        <v>-714600</v>
+        <v>-740600</v>
       </c>
       <c r="H102" s="3">
-        <v>1509400</v>
+        <v>1564400</v>
       </c>
       <c r="I102" s="3">
-        <v>23100</v>
+        <v>23900</v>
       </c>
       <c r="J102" s="3">
-        <v>-325300</v>
+        <v>-337200</v>
       </c>
       <c r="K102" s="3">
         <v>219200</v>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,307 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3661900</v>
+        <v>1375200</v>
       </c>
       <c r="E8" s="3">
-        <v>3381900</v>
+        <v>4607300</v>
       </c>
       <c r="F8" s="3">
-        <v>6744300</v>
+        <v>3727400</v>
       </c>
       <c r="G8" s="3">
-        <v>5853400</v>
+        <v>3442300</v>
       </c>
       <c r="H8" s="3">
-        <v>6440400</v>
+        <v>6864800</v>
       </c>
       <c r="I8" s="3">
+        <v>5957900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6555400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5616400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2167200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>344500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>70100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>45600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>30200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>126800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>63600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>150100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>51100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>796500</v>
+        <v>103400</v>
       </c>
       <c r="E9" s="3">
-        <v>808900</v>
+        <v>197600</v>
       </c>
       <c r="F9" s="3">
-        <v>1369200</v>
+        <v>810700</v>
       </c>
       <c r="G9" s="3">
-        <v>617000</v>
+        <v>823400</v>
       </c>
       <c r="H9" s="3">
-        <v>1281700</v>
+        <v>1393600</v>
       </c>
       <c r="I9" s="3">
+        <v>628000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="K9" s="3">
         <v>935100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>246600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>40900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>20300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>10700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>16100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>7600</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2865500</v>
+        <v>1271800</v>
       </c>
       <c r="E10" s="3">
-        <v>2573000</v>
+        <v>4409700</v>
       </c>
       <c r="F10" s="3">
-        <v>5375200</v>
+        <v>2916700</v>
       </c>
       <c r="G10" s="3">
-        <v>5236400</v>
+        <v>2618900</v>
       </c>
       <c r="H10" s="3">
-        <v>5158700</v>
+        <v>5471200</v>
       </c>
       <c r="I10" s="3">
+        <v>5329900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5250900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4681300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1920600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>303600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>63000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>39400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>23800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>106500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>52900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>134000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>43500</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +988,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>347200</v>
+        <v>343900</v>
       </c>
       <c r="E12" s="3">
-        <v>410500</v>
+        <v>534700</v>
       </c>
       <c r="F12" s="3">
-        <v>291000</v>
+        <v>353400</v>
       </c>
       <c r="G12" s="3">
-        <v>276900</v>
+        <v>417800</v>
       </c>
       <c r="H12" s="3">
-        <v>266500</v>
+        <v>296100</v>
       </c>
       <c r="I12" s="3">
+        <v>281800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>271300</v>
+      </c>
+      <c r="K12" s="3">
         <v>205300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>220800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>256300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>236300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>103800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>71000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>264400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>135500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>168300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>68800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,49 +1120,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>-51100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-22100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-71800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1149,49 +1188,55 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14400</v>
+        <v>15800</v>
       </c>
       <c r="E15" s="3">
-        <v>12300</v>
+        <v>14300</v>
       </c>
       <c r="F15" s="3">
-        <v>11400</v>
+        <v>14600</v>
       </c>
       <c r="G15" s="3">
-        <v>13400</v>
+        <v>12500</v>
       </c>
       <c r="H15" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="I15" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K15" s="3">
         <v>8900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1211,8 +1256,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1283,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1136000</v>
+        <v>670500</v>
       </c>
       <c r="E17" s="3">
-        <v>1044100</v>
+        <v>1061200</v>
       </c>
       <c r="F17" s="3">
-        <v>1716000</v>
+        <v>1156300</v>
       </c>
       <c r="G17" s="3">
-        <v>881100</v>
+        <v>1062800</v>
       </c>
       <c r="H17" s="3">
-        <v>1442900</v>
+        <v>1746600</v>
       </c>
       <c r="I17" s="3">
+        <v>896800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1468700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1174500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>408600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>101000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>263500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>133900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>94800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>338700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>176000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>213400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>86100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2526000</v>
+        <v>704700</v>
       </c>
       <c r="E18" s="3">
-        <v>2337800</v>
+        <v>3546100</v>
       </c>
       <c r="F18" s="3">
-        <v>5028400</v>
+        <v>2571100</v>
       </c>
       <c r="G18" s="3">
-        <v>4972300</v>
+        <v>2379500</v>
       </c>
       <c r="H18" s="3">
-        <v>4997500</v>
+        <v>5118200</v>
       </c>
       <c r="I18" s="3">
+        <v>5061100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5086700</v>
+      </c>
+      <c r="K18" s="3">
         <v>4441900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1758600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>243500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-193400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-88300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-64600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-211900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-112400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-63300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-35100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,173 +1445,187 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>64300</v>
+        <v>58800</v>
       </c>
       <c r="E20" s="3">
-        <v>122200</v>
+        <v>-127300</v>
       </c>
       <c r="F20" s="3">
-        <v>285100</v>
+        <v>65500</v>
       </c>
       <c r="G20" s="3">
-        <v>18600</v>
+        <v>124400</v>
       </c>
       <c r="H20" s="3">
-        <v>-58500</v>
+        <v>290200</v>
       </c>
       <c r="I20" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-185300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-37900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-21400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-10000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>6800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>9300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>8700</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2625700</v>
+        <v>797300</v>
       </c>
       <c r="E21" s="3">
-        <v>2495100</v>
+        <v>3450100</v>
       </c>
       <c r="F21" s="3">
-        <v>5342700</v>
+        <v>2672700</v>
       </c>
       <c r="G21" s="3">
-        <v>5018400</v>
+        <v>2539700</v>
       </c>
       <c r="H21" s="3">
-        <v>4959900</v>
+        <v>5438100</v>
       </c>
       <c r="I21" s="3">
+        <v>5108100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5048500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4274000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1752000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>218200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-205700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-88600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-48400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-167900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-91100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-28200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-16100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
-      </c>
       <c r="I22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
       </c>
       <c r="Q22" s="3">
         <v>2000</v>
@@ -1554,11 +1633,11 @@
       <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1000</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1566,123 +1645,135 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2585900</v>
+        <v>762100</v>
       </c>
       <c r="E23" s="3">
-        <v>2453800</v>
+        <v>3416600</v>
       </c>
       <c r="F23" s="3">
-        <v>5309100</v>
+        <v>2632100</v>
       </c>
       <c r="G23" s="3">
-        <v>4987300</v>
+        <v>2497700</v>
       </c>
       <c r="H23" s="3">
-        <v>4938100</v>
+        <v>5404000</v>
       </c>
       <c r="I23" s="3">
+        <v>5076400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5026300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4256100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1737600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>205100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-215400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-98700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-58200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-209500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-56100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-27400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>697400</v>
+        <v>221300</v>
       </c>
       <c r="E24" s="3">
-        <v>684800</v>
+        <v>962600</v>
       </c>
       <c r="F24" s="3">
-        <v>1395800</v>
+        <v>709900</v>
       </c>
       <c r="G24" s="3">
-        <v>1637500</v>
+        <v>697100</v>
       </c>
       <c r="H24" s="3">
-        <v>1540900</v>
+        <v>1420800</v>
       </c>
       <c r="I24" s="3">
+        <v>1666700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1568400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1307300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>544000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-160900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1690,8 +1781,14 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1849,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1888400</v>
+        <v>540800</v>
       </c>
       <c r="E26" s="3">
-        <v>1769000</v>
+        <v>2453900</v>
       </c>
       <c r="F26" s="3">
-        <v>3913300</v>
+        <v>1922200</v>
       </c>
       <c r="G26" s="3">
-        <v>3349800</v>
+        <v>1800600</v>
       </c>
       <c r="H26" s="3">
-        <v>3397200</v>
+        <v>3983200</v>
       </c>
       <c r="I26" s="3">
+        <v>3409700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2948900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1193500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>366000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-218000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-96300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-58200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-209200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-111300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-56800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-27400</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1888400</v>
+        <v>540800</v>
       </c>
       <c r="E27" s="3">
-        <v>1769000</v>
+        <v>2453900</v>
       </c>
       <c r="F27" s="3">
-        <v>3913300</v>
+        <v>1922200</v>
       </c>
       <c r="G27" s="3">
-        <v>3349800</v>
+        <v>1800600</v>
       </c>
       <c r="H27" s="3">
-        <v>3397200</v>
+        <v>3983200</v>
       </c>
       <c r="I27" s="3">
+        <v>3409700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K27" s="3">
         <v>2948900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1193500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>366000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-218000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-96300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-58200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-209000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-56500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-27300</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2053,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2121,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2189,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2257,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-64300</v>
+        <v>-58800</v>
       </c>
       <c r="E32" s="3">
-        <v>-122200</v>
+        <v>127300</v>
       </c>
       <c r="F32" s="3">
-        <v>-285100</v>
+        <v>-65500</v>
       </c>
       <c r="G32" s="3">
-        <v>-18600</v>
+        <v>-124400</v>
       </c>
       <c r="H32" s="3">
-        <v>58500</v>
+        <v>-290200</v>
       </c>
       <c r="I32" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K32" s="3">
         <v>185300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>37900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>21400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>10000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-6800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-9300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-8700</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1888400</v>
+        <v>540800</v>
       </c>
       <c r="E33" s="3">
-        <v>1769000</v>
+        <v>2453900</v>
       </c>
       <c r="F33" s="3">
-        <v>3913300</v>
+        <v>1922200</v>
       </c>
       <c r="G33" s="3">
-        <v>3349800</v>
+        <v>1800600</v>
       </c>
       <c r="H33" s="3">
-        <v>3397200</v>
+        <v>3983200</v>
       </c>
       <c r="I33" s="3">
+        <v>3409700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K33" s="3">
         <v>2948900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1193500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>366000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-218000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-96300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-58200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-209000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-56500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-27300</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2461,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1888400</v>
+        <v>540800</v>
       </c>
       <c r="E35" s="3">
-        <v>1769000</v>
+        <v>2453900</v>
       </c>
       <c r="F35" s="3">
-        <v>3913300</v>
+        <v>1922200</v>
       </c>
       <c r="G35" s="3">
-        <v>3349800</v>
+        <v>1800600</v>
       </c>
       <c r="H35" s="3">
-        <v>3397200</v>
+        <v>3983200</v>
       </c>
       <c r="I35" s="3">
+        <v>3409700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K35" s="3">
         <v>2948900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1193500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>366000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-218000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-96300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-58200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-209000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-56500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-27300</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2632,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,56 +2658,58 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14202300</v>
+        <v>13077800</v>
       </c>
       <c r="E41" s="3">
-        <v>9876200</v>
+        <v>14942100</v>
       </c>
       <c r="F41" s="3">
-        <v>6521600</v>
+        <v>14456000</v>
       </c>
       <c r="G41" s="3">
-        <v>1790900</v>
+        <v>10052600</v>
       </c>
       <c r="H41" s="3">
-        <v>2531500</v>
+        <v>6638100</v>
       </c>
       <c r="I41" s="3">
+        <v>1822900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2576700</v>
+      </c>
+      <c r="K41" s="3">
         <v>967100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>943200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1207100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1028000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>625100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>492700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>606100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>349000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,56 +2722,62 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5100</v>
+        <v>385500</v>
       </c>
       <c r="E42" s="3">
+        <v>204000</v>
+      </c>
+      <c r="F42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G42" s="3">
         <v>100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
-        <v>403700</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
+        <v>410900</v>
+      </c>
+      <c r="J42" s="3">
         <v>1900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>136900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>18500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>2000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>233500</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,56 +2790,62 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7733800</v>
+        <v>7526200</v>
       </c>
       <c r="E43" s="3">
-        <v>10985500</v>
+        <v>7695500</v>
       </c>
       <c r="F43" s="3">
-        <v>13432600</v>
+        <v>7871900</v>
       </c>
       <c r="G43" s="3">
-        <v>13100300</v>
+        <v>11181800</v>
       </c>
       <c r="H43" s="3">
-        <v>11219900</v>
+        <v>13672500</v>
       </c>
       <c r="I43" s="3">
+        <v>13334300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>11420300</v>
+      </c>
+      <c r="K43" s="3">
         <v>7461700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2535000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>165900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>8200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>13600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>14800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>11400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2673,56 +2858,62 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>311900</v>
+        <v>456700</v>
       </c>
       <c r="E44" s="3">
-        <v>389000</v>
+        <v>473400</v>
       </c>
       <c r="F44" s="3">
-        <v>485900</v>
+        <v>317500</v>
       </c>
       <c r="G44" s="3">
-        <v>531600</v>
+        <v>396000</v>
       </c>
       <c r="H44" s="3">
-        <v>416200</v>
+        <v>494600</v>
       </c>
       <c r="I44" s="3">
+        <v>541100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>423700</v>
+      </c>
+      <c r="K44" s="3">
         <v>323100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>155400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>64000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>12800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>9400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>10500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>13700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>8900</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,56 +2926,62 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>249400</v>
+        <v>184500</v>
       </c>
       <c r="E45" s="3">
-        <v>129300</v>
+        <v>292800</v>
       </c>
       <c r="F45" s="3">
-        <v>154000</v>
+        <v>253800</v>
       </c>
       <c r="G45" s="3">
-        <v>120000</v>
+        <v>131600</v>
       </c>
       <c r="H45" s="3">
-        <v>167900</v>
+        <v>156800</v>
       </c>
       <c r="I45" s="3">
+        <v>122100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>170900</v>
+      </c>
+      <c r="K45" s="3">
         <v>176300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>107000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>88700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>65700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>29700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>17400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,56 +2994,62 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22502400</v>
+        <v>21630700</v>
       </c>
       <c r="E46" s="3">
-        <v>21380200</v>
+        <v>23607800</v>
       </c>
       <c r="F46" s="3">
-        <v>20595100</v>
+        <v>22904400</v>
       </c>
       <c r="G46" s="3">
-        <v>15946500</v>
+        <v>21762100</v>
       </c>
       <c r="H46" s="3">
-        <v>14337400</v>
+        <v>20963000</v>
       </c>
       <c r="I46" s="3">
+        <v>16231400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>14593500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8929000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3741100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1662600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1133200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>677600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>537700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>653900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>617800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,28 +3062,34 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55900</v>
+        <v>556500</v>
       </c>
       <c r="E47" s="3">
-        <v>54500</v>
+        <v>86400</v>
       </c>
       <c r="F47" s="3">
-        <v>51200</v>
+        <v>56900</v>
       </c>
       <c r="G47" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>55500</v>
+      </c>
+      <c r="H47" s="3">
+        <v>52100</v>
+      </c>
+      <c r="I47" s="3">
+        <v>22900</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2891,11 +3100,11 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2903,11 +3112,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
@@ -2921,56 +3130,62 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>804600</v>
+        <v>912800</v>
       </c>
       <c r="E48" s="3">
-        <v>702600</v>
+        <v>884200</v>
       </c>
       <c r="F48" s="3">
-        <v>589200</v>
+        <v>819000</v>
       </c>
       <c r="G48" s="3">
-        <v>550600</v>
+        <v>715200</v>
       </c>
       <c r="H48" s="3">
-        <v>467700</v>
+        <v>599700</v>
       </c>
       <c r="I48" s="3">
+        <v>560400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>476100</v>
+      </c>
+      <c r="K48" s="3">
         <v>403200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>381700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>325100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>190500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>183000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>158600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>172800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>150700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,56 +3198,62 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>239300</v>
+        <v>407700</v>
       </c>
       <c r="E49" s="3">
-        <v>234200</v>
+        <v>236600</v>
       </c>
       <c r="F49" s="3">
-        <v>228500</v>
+        <v>243600</v>
       </c>
       <c r="G49" s="3">
-        <v>214100</v>
+        <v>238400</v>
       </c>
       <c r="H49" s="3">
-        <v>172300</v>
+        <v>232600</v>
       </c>
       <c r="I49" s="3">
+        <v>218000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>175400</v>
+      </c>
+      <c r="K49" s="3">
         <v>173600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>174800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>163100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>175100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>199900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>102500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>104400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>116400</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3045,8 +3266,14 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3334,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,47 +3402,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>372700</v>
+        <v>269100</v>
       </c>
       <c r="E52" s="3">
-        <v>10900</v>
+        <v>254300</v>
       </c>
       <c r="F52" s="3">
-        <v>12900</v>
+        <v>379400</v>
       </c>
       <c r="G52" s="3">
-        <v>15200</v>
+        <v>11100</v>
       </c>
       <c r="H52" s="3">
-        <v>80600</v>
+        <v>13100</v>
       </c>
       <c r="I52" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K52" s="3">
         <v>173600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>151000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>161900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,17 +3461,23 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,56 +3538,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23974900</v>
+        <v>23776900</v>
       </c>
       <c r="E54" s="3">
-        <v>22382400</v>
+        <v>25069300</v>
       </c>
       <c r="F54" s="3">
-        <v>21477000</v>
+        <v>24403200</v>
       </c>
       <c r="G54" s="3">
-        <v>16749000</v>
+        <v>22782300</v>
       </c>
       <c r="H54" s="3">
-        <v>15058100</v>
+        <v>21860600</v>
       </c>
       <c r="I54" s="3">
+        <v>17048200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15327100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9679400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4448600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2312600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1504200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1061900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>798800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>931200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>884900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3606,14 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3636,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,56 +3662,58 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>313700</v>
+        <v>32200</v>
       </c>
       <c r="E57" s="3">
-        <v>308000</v>
+        <v>219800</v>
       </c>
       <c r="F57" s="3">
-        <v>130900</v>
+        <v>319300</v>
       </c>
       <c r="G57" s="3">
-        <v>169300</v>
+        <v>313500</v>
       </c>
       <c r="H57" s="3">
-        <v>273900</v>
+        <v>133200</v>
       </c>
       <c r="I57" s="3">
+        <v>172300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>278800</v>
+      </c>
+      <c r="K57" s="3">
         <v>277900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>112400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>102000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>43500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>38900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>21200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>23900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>20700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,56 +3726,62 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>39100</v>
+        <v>40300</v>
       </c>
       <c r="E58" s="3">
-        <v>34200</v>
+        <v>38800</v>
       </c>
       <c r="F58" s="3">
-        <v>32400</v>
+        <v>39800</v>
       </c>
       <c r="G58" s="3">
-        <v>137400</v>
+        <v>34800</v>
       </c>
       <c r="H58" s="3">
-        <v>20100</v>
+        <v>33000</v>
       </c>
       <c r="I58" s="3">
+        <v>139900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>19000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>140300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>39700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>17800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>25000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,56 +3794,62 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3834400</v>
+        <v>1597700</v>
       </c>
       <c r="E59" s="3">
-        <v>3809100</v>
+        <v>2918900</v>
       </c>
       <c r="F59" s="3">
-        <v>3914800</v>
+        <v>3902900</v>
       </c>
       <c r="G59" s="3">
-        <v>3376800</v>
+        <v>3877200</v>
       </c>
       <c r="H59" s="3">
-        <v>4892900</v>
+        <v>3984700</v>
       </c>
       <c r="I59" s="3">
+        <v>3437100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>4980300</v>
+      </c>
+      <c r="K59" s="3">
         <v>3054100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1255700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>496300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>94900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>148900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>116000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>133300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>120900</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,56 +3862,62 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4187200</v>
+        <v>1670200</v>
       </c>
       <c r="E60" s="3">
-        <v>4151300</v>
+        <v>3177500</v>
       </c>
       <c r="F60" s="3">
-        <v>4078100</v>
+        <v>4262000</v>
       </c>
       <c r="G60" s="3">
-        <v>3683500</v>
+        <v>4225400</v>
       </c>
       <c r="H60" s="3">
-        <v>5187000</v>
+        <v>4150900</v>
       </c>
       <c r="I60" s="3">
+        <v>3749300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5279600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3346800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1387100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>604400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>278700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>227500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>155000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>161300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>166600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,56 +3930,62 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>250700</v>
+        <v>185700</v>
       </c>
       <c r="E61" s="3">
-        <v>218600</v>
+        <v>189700</v>
       </c>
       <c r="F61" s="3">
-        <v>164400</v>
+        <v>255200</v>
       </c>
       <c r="G61" s="3">
-        <v>181600</v>
+        <v>222500</v>
       </c>
       <c r="H61" s="3">
-        <v>283200</v>
+        <v>167400</v>
       </c>
       <c r="I61" s="3">
+        <v>184800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>288300</v>
+      </c>
+      <c r="K61" s="3">
         <v>257000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>250300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>230400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>182300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>76700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>72700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>80400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>75100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,56 +3998,62 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105400</v>
+        <v>97400</v>
       </c>
       <c r="E62" s="3">
-        <v>205700</v>
+        <v>104100</v>
       </c>
       <c r="F62" s="3">
-        <v>401000</v>
+        <v>107300</v>
       </c>
       <c r="G62" s="3">
-        <v>300400</v>
+        <v>209300</v>
       </c>
       <c r="H62" s="3">
-        <v>371100</v>
+        <v>408100</v>
       </c>
       <c r="I62" s="3">
+        <v>305700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>377800</v>
+      </c>
+      <c r="K62" s="3">
         <v>274900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>145400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>109400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>80400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>101100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>82200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>113400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>172200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +4066,14 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4134,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4202,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,56 +4270,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4543400</v>
+        <v>1953200</v>
       </c>
       <c r="E66" s="3">
-        <v>4575500</v>
+        <v>3471400</v>
       </c>
       <c r="F66" s="3">
-        <v>4643500</v>
+        <v>4624500</v>
       </c>
       <c r="G66" s="3">
-        <v>4165500</v>
+        <v>4657300</v>
       </c>
       <c r="H66" s="3">
-        <v>5841300</v>
+        <v>4726400</v>
       </c>
       <c r="I66" s="3">
+        <v>4239900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5945700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3878600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1782800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>944300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>541300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>405300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>309900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>355100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>413900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4338,14 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4368,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4432,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4500,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4568,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,56 +4636,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19179400</v>
+        <v>21564200</v>
       </c>
       <c r="E72" s="3">
-        <v>17550100</v>
+        <v>21335900</v>
       </c>
       <c r="F72" s="3">
-        <v>16576400</v>
+        <v>19522000</v>
       </c>
       <c r="G72" s="3">
-        <v>12327000</v>
+        <v>17863600</v>
       </c>
       <c r="H72" s="3">
-        <v>8960200</v>
+        <v>16872500</v>
       </c>
       <c r="I72" s="3">
+        <v>12547200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9120300</v>
+      </c>
+      <c r="K72" s="3">
         <v>5544200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2410200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1127400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>712900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>402800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>241500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>311400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>210400</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4704,14 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4772,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4840,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,56 +4908,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19431500</v>
+        <v>21823700</v>
       </c>
       <c r="E76" s="3">
-        <v>17806900</v>
+        <v>21597900</v>
       </c>
       <c r="F76" s="3">
-        <v>16833500</v>
+        <v>19778700</v>
       </c>
       <c r="G76" s="3">
-        <v>12583500</v>
+        <v>18125000</v>
       </c>
       <c r="H76" s="3">
-        <v>9216800</v>
+        <v>17134200</v>
       </c>
       <c r="I76" s="3">
+        <v>12808300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>9381400</v>
+      </c>
+      <c r="K76" s="3">
         <v>5800800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2665700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1368300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>962800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>656700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>488900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>576100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>471000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4976,14 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5044,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1888400</v>
+        <v>540800</v>
       </c>
       <c r="E81" s="3">
-        <v>1769000</v>
+        <v>2453900</v>
       </c>
       <c r="F81" s="3">
-        <v>3913300</v>
+        <v>1922200</v>
       </c>
       <c r="G81" s="3">
-        <v>3349800</v>
+        <v>1800600</v>
       </c>
       <c r="H81" s="3">
-        <v>3397200</v>
+        <v>3983200</v>
       </c>
       <c r="I81" s="3">
+        <v>3409700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>3457900</v>
+      </c>
+      <c r="K81" s="3">
         <v>2948900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1193500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>366000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-218000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-96300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-58200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-209000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-56500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-27300</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5215,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>35400</v>
+        <v>33800</v>
       </c>
       <c r="E83" s="3">
-        <v>35100</v>
+        <v>31200</v>
       </c>
       <c r="F83" s="3">
-        <v>29200</v>
+        <v>36100</v>
       </c>
       <c r="G83" s="3">
-        <v>27500</v>
+        <v>35800</v>
       </c>
       <c r="H83" s="3">
-        <v>20900</v>
+        <v>29700</v>
       </c>
       <c r="I83" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K83" s="3">
         <v>17400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>13800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>12500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>9600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>9400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>39600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>25900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>10300</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5347,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5415,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5483,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5551,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5619,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5056100</v>
+        <v>-729500</v>
       </c>
       <c r="E89" s="3">
-        <v>4146400</v>
+        <v>893000</v>
       </c>
       <c r="F89" s="3">
-        <v>4285100</v>
+        <v>5146400</v>
       </c>
       <c r="G89" s="3">
-        <v>-211100</v>
+        <v>4220500</v>
       </c>
       <c r="H89" s="3">
-        <v>1587800</v>
+        <v>4361700</v>
       </c>
       <c r="I89" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1616200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-106100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-329400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>248600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-199800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-16900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-59700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-231800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-105000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-68400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-82000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5717,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82400</v>
+        <v>-54800</v>
       </c>
       <c r="E91" s="3">
-        <v>-74700</v>
+        <v>-144500</v>
       </c>
       <c r="F91" s="3">
-        <v>-46700</v>
+        <v>-82600</v>
       </c>
       <c r="G91" s="3">
-        <v>-41700</v>
+        <v>-75400</v>
       </c>
       <c r="H91" s="3">
-        <v>-42800</v>
+        <v>-60800</v>
       </c>
       <c r="I91" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-27400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-25300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-45100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-35200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-14500</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5849,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5917,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-88100</v>
+        <v>-792000</v>
       </c>
       <c r="E94" s="3">
-        <v>-82900</v>
+        <v>-173400</v>
       </c>
       <c r="F94" s="3">
-        <v>304100</v>
+        <v>-89700</v>
       </c>
       <c r="G94" s="3">
-        <v>-494000</v>
+        <v>-84400</v>
       </c>
       <c r="H94" s="3">
-        <v>-43500</v>
+        <v>309500</v>
       </c>
       <c r="I94" s="3">
+        <v>-502800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-31500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-29900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-99600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-21100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-10600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-16300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-90000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-78200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-46500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6015,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6079,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6147,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6215,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6283,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-691300</v>
+        <v>-313700</v>
       </c>
       <c r="E100" s="3">
-        <v>-826800</v>
+        <v>-69700</v>
       </c>
       <c r="F100" s="3">
-        <v>85000</v>
+        <v>-703600</v>
       </c>
       <c r="G100" s="3">
-        <v>-51700</v>
+        <v>-841600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5600</v>
+        <v>86500</v>
       </c>
       <c r="I100" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="K100" s="3">
         <v>161800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>116000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>654100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>159500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>447500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>6000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>429600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>267900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49400</v>
+        <v>-29200</v>
       </c>
       <c r="E101" s="3">
-        <v>118000</v>
+        <v>-163800</v>
       </c>
       <c r="F101" s="3">
-        <v>56600</v>
+        <v>50300</v>
       </c>
       <c r="G101" s="3">
-        <v>16200</v>
+        <v>120100</v>
       </c>
       <c r="H101" s="3">
-        <v>25600</v>
+        <v>57600</v>
       </c>
       <c r="I101" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>26900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-45900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>500</v>
       </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4326100</v>
+        <v>-1864300</v>
       </c>
       <c r="E102" s="3">
-        <v>3354600</v>
+        <v>486100</v>
       </c>
       <c r="F102" s="3">
-        <v>4730700</v>
+        <v>4403300</v>
       </c>
       <c r="G102" s="3">
-        <v>-740600</v>
+        <v>3414500</v>
       </c>
       <c r="H102" s="3">
-        <v>1564400</v>
+        <v>4815300</v>
       </c>
       <c r="I102" s="3">
+        <v>-753800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1592300</v>
+      </c>
+      <c r="K102" s="3">
         <v>23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-337200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>219200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>433300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>132500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-73700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>125700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-155100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>281600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>142600</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
@@ -760,65 +761,68 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1375200</v>
+        <v>181800</v>
       </c>
       <c r="E8" s="3">
-        <v>4607300</v>
+        <v>1384400</v>
       </c>
       <c r="F8" s="3">
-        <v>3727400</v>
+        <v>4638100</v>
       </c>
       <c r="G8" s="3">
-        <v>3442300</v>
+        <v>3752300</v>
       </c>
       <c r="H8" s="3">
-        <v>6864800</v>
+        <v>3465300</v>
       </c>
       <c r="I8" s="3">
-        <v>5957900</v>
+        <v>6910700</v>
       </c>
       <c r="J8" s="3">
+        <v>5997800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6555400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5616400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2167200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>344500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>70100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>30200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>126800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>63600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>150100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>51100</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
@@ -828,65 +832,68 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>103400</v>
+        <v>176600</v>
       </c>
       <c r="E9" s="3">
-        <v>197600</v>
+        <v>104100</v>
       </c>
       <c r="F9" s="3">
-        <v>810700</v>
+        <v>198900</v>
       </c>
       <c r="G9" s="3">
-        <v>823400</v>
+        <v>816100</v>
       </c>
       <c r="H9" s="3">
-        <v>1393600</v>
+        <v>828900</v>
       </c>
       <c r="I9" s="3">
-        <v>628000</v>
+        <v>1402900</v>
       </c>
       <c r="J9" s="3">
+        <v>632200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1304600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>935100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>246600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>10700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>16100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7600</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,65 +903,68 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1271800</v>
+        <v>5200</v>
       </c>
       <c r="E10" s="3">
-        <v>4409700</v>
+        <v>1280300</v>
       </c>
       <c r="F10" s="3">
-        <v>2916700</v>
+        <v>4439200</v>
       </c>
       <c r="G10" s="3">
-        <v>2618900</v>
+        <v>2936200</v>
       </c>
       <c r="H10" s="3">
-        <v>5471200</v>
+        <v>2636400</v>
       </c>
       <c r="I10" s="3">
-        <v>5329900</v>
+        <v>5507800</v>
       </c>
       <c r="J10" s="3">
+        <v>5365500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5250900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4681300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1920600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>303600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>63000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>39400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>106500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>52900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>134000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>43500</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,65 +1003,66 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>343900</v>
+        <v>389800</v>
       </c>
       <c r="E12" s="3">
-        <v>534700</v>
+        <v>346200</v>
       </c>
       <c r="F12" s="3">
-        <v>353400</v>
+        <v>538300</v>
       </c>
       <c r="G12" s="3">
-        <v>417800</v>
+        <v>355800</v>
       </c>
       <c r="H12" s="3">
-        <v>296100</v>
+        <v>420600</v>
       </c>
       <c r="I12" s="3">
-        <v>281800</v>
+        <v>298100</v>
       </c>
       <c r="J12" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K12" s="3">
         <v>271300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>205300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>220800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>256300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>236300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>103800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>71000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>264400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>135500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>168300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>68800</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,41 +1143,44 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-52000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="K14" s="3">
         <v>-22500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-71800</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,8 +1190,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1194,41 +1214,44 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="E15" s="3">
-        <v>14300</v>
+        <v>15900</v>
       </c>
       <c r="F15" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="G15" s="3">
-        <v>12500</v>
+        <v>14700</v>
       </c>
       <c r="H15" s="3">
-        <v>11600</v>
+        <v>12600</v>
       </c>
       <c r="I15" s="3">
-        <v>13700</v>
+        <v>11700</v>
       </c>
       <c r="J15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1238,8 +1261,8 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,65 +1311,66 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>670500</v>
+        <v>792500</v>
       </c>
       <c r="E17" s="3">
-        <v>1061200</v>
+        <v>675000</v>
       </c>
       <c r="F17" s="3">
-        <v>1156300</v>
+        <v>1068300</v>
       </c>
       <c r="G17" s="3">
-        <v>1062800</v>
+        <v>1164000</v>
       </c>
       <c r="H17" s="3">
-        <v>1746600</v>
+        <v>1069900</v>
       </c>
       <c r="I17" s="3">
-        <v>896800</v>
+        <v>1758300</v>
       </c>
       <c r="J17" s="3">
+        <v>902800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1468700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1174500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>408600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>101000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>263500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>133900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>94800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>338700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>176000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>213400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>86100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,65 +1380,68 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>704700</v>
+        <v>-610700</v>
       </c>
       <c r="E18" s="3">
-        <v>3546100</v>
+        <v>709400</v>
       </c>
       <c r="F18" s="3">
-        <v>2571100</v>
+        <v>3569800</v>
       </c>
       <c r="G18" s="3">
-        <v>2379500</v>
+        <v>2588300</v>
       </c>
       <c r="H18" s="3">
-        <v>5118200</v>
+        <v>2395400</v>
       </c>
       <c r="I18" s="3">
-        <v>5061100</v>
+        <v>5152400</v>
       </c>
       <c r="J18" s="3">
+        <v>5094900</v>
+      </c>
+      <c r="K18" s="3">
         <v>5086700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4441900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1758600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>243500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-193400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-88300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-64600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-211900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-112400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-63300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-35100</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,65 +1480,66 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58800</v>
+        <v>163800</v>
       </c>
       <c r="E20" s="3">
-        <v>-127300</v>
+        <v>59200</v>
       </c>
       <c r="F20" s="3">
-        <v>65500</v>
+        <v>-128100</v>
       </c>
       <c r="G20" s="3">
-        <v>124400</v>
+        <v>65900</v>
       </c>
       <c r="H20" s="3">
-        <v>290200</v>
+        <v>125200</v>
       </c>
       <c r="I20" s="3">
-        <v>19000</v>
+        <v>292200</v>
       </c>
       <c r="J20" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-59600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-185300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-37900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-10000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8700</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1515,65 +1549,68 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>797300</v>
+        <v>-412300</v>
       </c>
       <c r="E21" s="3">
-        <v>3450100</v>
+        <v>802700</v>
       </c>
       <c r="F21" s="3">
-        <v>2672700</v>
+        <v>3473100</v>
       </c>
       <c r="G21" s="3">
-        <v>2539700</v>
+        <v>2690500</v>
       </c>
       <c r="H21" s="3">
-        <v>5438100</v>
+        <v>2556600</v>
       </c>
       <c r="I21" s="3">
-        <v>5108100</v>
+        <v>5474500</v>
       </c>
       <c r="J21" s="3">
+        <v>5142200</v>
+      </c>
+      <c r="K21" s="3">
         <v>5048500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4274000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1752000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>218200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-205700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-88600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-167900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-91100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-28200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16100</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,65 +1620,68 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
-        <v>4500</v>
-      </c>
       <c r="G22" s="3">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="H22" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I22" s="3">
         <v>4400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>600</v>
       </c>
       <c r="N22" s="3">
         <v>600</v>
       </c>
       <c r="O22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P22" s="3">
         <v>500</v>
       </c>
       <c r="Q22" s="3">
+        <v>500</v>
+      </c>
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,65 +1691,68 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>762100</v>
+        <v>-446900</v>
       </c>
       <c r="E23" s="3">
-        <v>3416600</v>
+        <v>767200</v>
       </c>
       <c r="F23" s="3">
-        <v>2632100</v>
+        <v>3439400</v>
       </c>
       <c r="G23" s="3">
-        <v>2497700</v>
+        <v>2649600</v>
       </c>
       <c r="H23" s="3">
-        <v>5404000</v>
+        <v>2514400</v>
       </c>
       <c r="I23" s="3">
-        <v>5076400</v>
+        <v>5440100</v>
       </c>
       <c r="J23" s="3">
+        <v>5110300</v>
+      </c>
+      <c r="K23" s="3">
         <v>5026300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4256100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1737600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>205100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-215400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-98700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-209500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-111300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-56100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-27400</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1719,64 +1762,67 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221300</v>
+        <v>-240500</v>
       </c>
       <c r="E24" s="3">
-        <v>962600</v>
+        <v>222800</v>
       </c>
       <c r="F24" s="3">
-        <v>709900</v>
+        <v>969100</v>
       </c>
       <c r="G24" s="3">
-        <v>697100</v>
+        <v>714600</v>
       </c>
       <c r="H24" s="3">
-        <v>1420800</v>
+        <v>701700</v>
       </c>
       <c r="I24" s="3">
-        <v>1666700</v>
+        <v>1430300</v>
       </c>
       <c r="J24" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="K24" s="3">
         <v>1568400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1307300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>544000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-160900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,65 +1904,68 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>540800</v>
+        <v>-206400</v>
       </c>
       <c r="E26" s="3">
-        <v>2453900</v>
+        <v>544400</v>
       </c>
       <c r="F26" s="3">
-        <v>1922200</v>
+        <v>2470300</v>
       </c>
       <c r="G26" s="3">
-        <v>1800600</v>
+        <v>1935000</v>
       </c>
       <c r="H26" s="3">
-        <v>3983200</v>
+        <v>1812600</v>
       </c>
       <c r="I26" s="3">
-        <v>3409700</v>
+        <v>4009900</v>
       </c>
       <c r="J26" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="K26" s="3">
         <v>3457900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2948900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1193500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>366000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-218000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-96300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-209200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-111300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-56800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-27400</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1923,65 +1975,68 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>540800</v>
+        <v>-206400</v>
       </c>
       <c r="E27" s="3">
-        <v>2453900</v>
+        <v>544400</v>
       </c>
       <c r="F27" s="3">
-        <v>1922200</v>
+        <v>2470300</v>
       </c>
       <c r="G27" s="3">
-        <v>1800600</v>
+        <v>1935000</v>
       </c>
       <c r="H27" s="3">
-        <v>3983200</v>
+        <v>1812600</v>
       </c>
       <c r="I27" s="3">
-        <v>3409700</v>
+        <v>4009900</v>
       </c>
       <c r="J27" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="K27" s="3">
         <v>3457900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2948900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1193500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>366000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-218000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-96300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-209000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-111100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-56500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-27300</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1991,8 +2046,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,65 +2330,68 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58800</v>
+        <v>-163800</v>
       </c>
       <c r="E32" s="3">
-        <v>127300</v>
+        <v>-59200</v>
       </c>
       <c r="F32" s="3">
-        <v>-65500</v>
+        <v>128100</v>
       </c>
       <c r="G32" s="3">
-        <v>-124400</v>
+        <v>-65900</v>
       </c>
       <c r="H32" s="3">
-        <v>-290200</v>
+        <v>-125200</v>
       </c>
       <c r="I32" s="3">
-        <v>-19000</v>
+        <v>-292200</v>
       </c>
       <c r="J32" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K32" s="3">
         <v>59600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>185300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>37900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>10000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8700</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,65 +2401,68 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>540800</v>
+        <v>-206400</v>
       </c>
       <c r="E33" s="3">
-        <v>2453900</v>
+        <v>544400</v>
       </c>
       <c r="F33" s="3">
-        <v>1922200</v>
+        <v>2470300</v>
       </c>
       <c r="G33" s="3">
-        <v>1800600</v>
+        <v>1935000</v>
       </c>
       <c r="H33" s="3">
-        <v>3983200</v>
+        <v>1812600</v>
       </c>
       <c r="I33" s="3">
-        <v>3409700</v>
+        <v>4009900</v>
       </c>
       <c r="J33" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="K33" s="3">
         <v>3457900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2948900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1193500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>366000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-218000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-96300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-209000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-111100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-56500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-27300</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2399,8 +2472,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,65 +2543,68 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>540800</v>
+        <v>-206400</v>
       </c>
       <c r="E35" s="3">
-        <v>2453900</v>
+        <v>544400</v>
       </c>
       <c r="F35" s="3">
-        <v>1922200</v>
+        <v>2470300</v>
       </c>
       <c r="G35" s="3">
-        <v>1800600</v>
+        <v>1935000</v>
       </c>
       <c r="H35" s="3">
-        <v>3983200</v>
+        <v>1812600</v>
       </c>
       <c r="I35" s="3">
-        <v>3409700</v>
+        <v>4009900</v>
       </c>
       <c r="J35" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="K35" s="3">
         <v>3457900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2948900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1193500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>366000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-218000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-96300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-209000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-111100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-56500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-27300</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2535,70 +2614,73 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2690,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13077800</v>
+        <v>15358000</v>
       </c>
       <c r="E41" s="3">
-        <v>14942100</v>
+        <v>13165200</v>
       </c>
       <c r="F41" s="3">
-        <v>14456000</v>
+        <v>15042000</v>
       </c>
       <c r="G41" s="3">
-        <v>10052600</v>
+        <v>14552600</v>
       </c>
       <c r="H41" s="3">
-        <v>6638100</v>
+        <v>10119900</v>
       </c>
       <c r="I41" s="3">
-        <v>1822900</v>
+        <v>6682500</v>
       </c>
       <c r="J41" s="3">
+        <v>1835100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2576700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>967100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>943200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1207100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1028000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>625100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>492700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>606100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>349000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,59 +2815,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>385500</v>
+        <v>1507700</v>
       </c>
       <c r="E42" s="3">
-        <v>204000</v>
+        <v>388100</v>
       </c>
       <c r="F42" s="3">
+        <v>205300</v>
+      </c>
+      <c r="G42" s="3">
         <v>5200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
-        <v>410900</v>
-      </c>
       <c r="J42" s="3">
+        <v>413700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>136900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>18500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>233500</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,59 +2886,62 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7526200</v>
+        <v>3247300</v>
       </c>
       <c r="E43" s="3">
-        <v>7695500</v>
+        <v>7576600</v>
       </c>
       <c r="F43" s="3">
-        <v>7871900</v>
+        <v>7747000</v>
       </c>
       <c r="G43" s="3">
-        <v>11181800</v>
+        <v>7924600</v>
       </c>
       <c r="H43" s="3">
-        <v>13672500</v>
+        <v>11256500</v>
       </c>
       <c r="I43" s="3">
-        <v>13334300</v>
+        <v>13764000</v>
       </c>
       <c r="J43" s="3">
+        <v>13423400</v>
+      </c>
+      <c r="K43" s="3">
         <v>11420300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7461700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2535000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>14800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11400</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,59 +2957,62 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>456700</v>
+        <v>486700</v>
       </c>
       <c r="E44" s="3">
-        <v>473400</v>
+        <v>459800</v>
       </c>
       <c r="F44" s="3">
-        <v>317500</v>
+        <v>476600</v>
       </c>
       <c r="G44" s="3">
-        <v>396000</v>
+        <v>319600</v>
       </c>
       <c r="H44" s="3">
-        <v>494600</v>
+        <v>398600</v>
       </c>
       <c r="I44" s="3">
-        <v>541100</v>
+        <v>497900</v>
       </c>
       <c r="J44" s="3">
+        <v>544800</v>
+      </c>
+      <c r="K44" s="3">
         <v>423700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>323100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>155400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>10500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>13700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8900</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,59 +3028,62 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>184500</v>
+        <v>230200</v>
       </c>
       <c r="E45" s="3">
-        <v>292800</v>
+        <v>185700</v>
       </c>
       <c r="F45" s="3">
-        <v>253800</v>
+        <v>294800</v>
       </c>
       <c r="G45" s="3">
-        <v>131600</v>
+        <v>255500</v>
       </c>
       <c r="H45" s="3">
-        <v>156800</v>
+        <v>132500</v>
       </c>
       <c r="I45" s="3">
-        <v>122100</v>
+        <v>157800</v>
       </c>
       <c r="J45" s="3">
+        <v>122900</v>
+      </c>
+      <c r="K45" s="3">
         <v>170900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>176300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>88700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14900</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21630700</v>
+        <v>20829800</v>
       </c>
       <c r="E46" s="3">
-        <v>23607800</v>
+        <v>21775300</v>
       </c>
       <c r="F46" s="3">
-        <v>22904400</v>
+        <v>23765600</v>
       </c>
       <c r="G46" s="3">
-        <v>21762100</v>
+        <v>23057500</v>
       </c>
       <c r="H46" s="3">
-        <v>20963000</v>
+        <v>21907600</v>
       </c>
       <c r="I46" s="3">
-        <v>16231400</v>
+        <v>21103200</v>
       </c>
       <c r="J46" s="3">
+        <v>16339900</v>
+      </c>
+      <c r="K46" s="3">
         <v>14593500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8929000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3741100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1662600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1133200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>677600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>537700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>653900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>617800</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,31 +3170,34 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>556500</v>
+        <v>1489900</v>
       </c>
       <c r="E47" s="3">
-        <v>86400</v>
+        <v>560300</v>
       </c>
       <c r="F47" s="3">
-        <v>56900</v>
+        <v>86900</v>
       </c>
       <c r="G47" s="3">
-        <v>55500</v>
+        <v>57200</v>
       </c>
       <c r="H47" s="3">
-        <v>52100</v>
+        <v>55800</v>
       </c>
       <c r="I47" s="3">
-        <v>22900</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>52500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>23100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -3106,8 +3211,8 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3118,8 +3223,8 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
@@ -3136,59 +3241,62 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>912800</v>
+        <v>969200</v>
       </c>
       <c r="E48" s="3">
-        <v>884200</v>
+        <v>918900</v>
       </c>
       <c r="F48" s="3">
-        <v>819000</v>
+        <v>890200</v>
       </c>
       <c r="G48" s="3">
-        <v>715200</v>
+        <v>824500</v>
       </c>
       <c r="H48" s="3">
-        <v>599700</v>
+        <v>720000</v>
       </c>
       <c r="I48" s="3">
-        <v>560400</v>
+        <v>603700</v>
       </c>
       <c r="J48" s="3">
+        <v>564200</v>
+      </c>
+      <c r="K48" s="3">
         <v>476100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>403200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>381700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>325100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>190500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>183000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>158600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>172800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>150700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,59 +3312,62 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>407700</v>
+        <v>543600</v>
       </c>
       <c r="E49" s="3">
-        <v>236600</v>
+        <v>410400</v>
       </c>
       <c r="F49" s="3">
-        <v>243600</v>
+        <v>238200</v>
       </c>
       <c r="G49" s="3">
-        <v>238400</v>
+        <v>245200</v>
       </c>
       <c r="H49" s="3">
-        <v>232600</v>
+        <v>240000</v>
       </c>
       <c r="I49" s="3">
-        <v>218000</v>
+        <v>234200</v>
       </c>
       <c r="J49" s="3">
+        <v>219400</v>
+      </c>
+      <c r="K49" s="3">
         <v>175400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>173600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>174800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>163100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>175100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>199900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>102500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>104400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>116400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,50 +3525,53 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269100</v>
+        <v>262400</v>
       </c>
       <c r="E52" s="3">
-        <v>254300</v>
+        <v>270900</v>
       </c>
       <c r="F52" s="3">
-        <v>379400</v>
+        <v>256000</v>
       </c>
       <c r="G52" s="3">
-        <v>11100</v>
+        <v>381900</v>
       </c>
       <c r="H52" s="3">
-        <v>13100</v>
+        <v>11200</v>
       </c>
       <c r="I52" s="3">
-        <v>15500</v>
+        <v>13200</v>
       </c>
       <c r="J52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K52" s="3">
         <v>82100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>173600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>151000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>161900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,8 +3587,8 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23776900</v>
+        <v>24094800</v>
       </c>
       <c r="E54" s="3">
-        <v>25069300</v>
+        <v>23935800</v>
       </c>
       <c r="F54" s="3">
-        <v>24403200</v>
+        <v>25236900</v>
       </c>
       <c r="G54" s="3">
-        <v>22782300</v>
+        <v>24566400</v>
       </c>
       <c r="H54" s="3">
-        <v>21860600</v>
+        <v>22934600</v>
       </c>
       <c r="I54" s="3">
-        <v>17048200</v>
+        <v>22006800</v>
       </c>
       <c r="J54" s="3">
+        <v>17162200</v>
+      </c>
+      <c r="K54" s="3">
         <v>15327100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9679400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4448600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2312600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1504200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1061900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>798800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>931200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>884900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3794,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32200</v>
+        <v>247800</v>
       </c>
       <c r="E57" s="3">
-        <v>219800</v>
+        <v>32400</v>
       </c>
       <c r="F57" s="3">
-        <v>319300</v>
+        <v>221300</v>
       </c>
       <c r="G57" s="3">
-        <v>313500</v>
+        <v>321400</v>
       </c>
       <c r="H57" s="3">
-        <v>133200</v>
+        <v>315600</v>
       </c>
       <c r="I57" s="3">
-        <v>172300</v>
+        <v>134100</v>
       </c>
       <c r="J57" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K57" s="3">
         <v>278800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>277900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>21200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>23900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,59 +3863,62 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>40300</v>
+        <v>41800</v>
       </c>
       <c r="E58" s="3">
-        <v>38800</v>
+        <v>40500</v>
       </c>
       <c r="F58" s="3">
-        <v>39800</v>
+        <v>39000</v>
       </c>
       <c r="G58" s="3">
-        <v>34800</v>
+        <v>40100</v>
       </c>
       <c r="H58" s="3">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="I58" s="3">
-        <v>139900</v>
+        <v>33200</v>
       </c>
       <c r="J58" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K58" s="3">
         <v>20500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>140300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>39700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>17800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>25000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,59 +3934,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1597700</v>
+        <v>1682300</v>
       </c>
       <c r="E59" s="3">
-        <v>2918900</v>
+        <v>1608400</v>
       </c>
       <c r="F59" s="3">
-        <v>3902900</v>
+        <v>2938500</v>
       </c>
       <c r="G59" s="3">
-        <v>3877200</v>
+        <v>3929000</v>
       </c>
       <c r="H59" s="3">
-        <v>3984700</v>
+        <v>3903100</v>
       </c>
       <c r="I59" s="3">
-        <v>3437100</v>
+        <v>4011400</v>
       </c>
       <c r="J59" s="3">
+        <v>3460100</v>
+      </c>
+      <c r="K59" s="3">
         <v>4980300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3054100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1255700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>496300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>148900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>116000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>133300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120900</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1670200</v>
+        <v>1972000</v>
       </c>
       <c r="E60" s="3">
-        <v>3177500</v>
+        <v>1681300</v>
       </c>
       <c r="F60" s="3">
-        <v>4262000</v>
+        <v>3198700</v>
       </c>
       <c r="G60" s="3">
-        <v>4225400</v>
+        <v>4290500</v>
       </c>
       <c r="H60" s="3">
-        <v>4150900</v>
+        <v>4253700</v>
       </c>
       <c r="I60" s="3">
-        <v>3749300</v>
+        <v>4178700</v>
       </c>
       <c r="J60" s="3">
+        <v>3774400</v>
+      </c>
+      <c r="K60" s="3">
         <v>5279600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3346800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1387100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>604400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>278700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>227500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>155000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>161300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>166600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,59 +4076,62 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>185700</v>
+        <v>181200</v>
       </c>
       <c r="E61" s="3">
-        <v>189700</v>
+        <v>186900</v>
       </c>
       <c r="F61" s="3">
-        <v>255200</v>
+        <v>191000</v>
       </c>
       <c r="G61" s="3">
-        <v>222500</v>
+        <v>256900</v>
       </c>
       <c r="H61" s="3">
-        <v>167400</v>
+        <v>224000</v>
       </c>
       <c r="I61" s="3">
-        <v>184800</v>
+        <v>168500</v>
       </c>
       <c r="J61" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K61" s="3">
         <v>288300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>257000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>250300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>230400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>182300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>76700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>72700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>80400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>75100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4004,59 +4147,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97400</v>
+        <v>361000</v>
       </c>
       <c r="E62" s="3">
-        <v>104100</v>
+        <v>98000</v>
       </c>
       <c r="F62" s="3">
-        <v>107300</v>
+        <v>104800</v>
       </c>
       <c r="G62" s="3">
-        <v>209300</v>
+        <v>108000</v>
       </c>
       <c r="H62" s="3">
-        <v>408100</v>
+        <v>210700</v>
       </c>
       <c r="I62" s="3">
-        <v>305700</v>
+        <v>410900</v>
       </c>
       <c r="J62" s="3">
+        <v>307800</v>
+      </c>
+      <c r="K62" s="3">
         <v>377800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>274900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>145400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>109400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>101100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>82200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>113400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>172200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1953200</v>
+        <v>2514100</v>
       </c>
       <c r="E66" s="3">
-        <v>3471400</v>
+        <v>1966200</v>
       </c>
       <c r="F66" s="3">
-        <v>4624500</v>
+        <v>3494600</v>
       </c>
       <c r="G66" s="3">
-        <v>4657300</v>
+        <v>4655500</v>
       </c>
       <c r="H66" s="3">
-        <v>4726400</v>
+        <v>4688400</v>
       </c>
       <c r="I66" s="3">
-        <v>4239900</v>
+        <v>4758000</v>
       </c>
       <c r="J66" s="3">
+        <v>4268200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5945700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3878600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1782800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>944300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>541300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>405300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>309900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>355100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>413900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21564200</v>
+        <v>21320700</v>
       </c>
       <c r="E72" s="3">
-        <v>21335900</v>
+        <v>21708300</v>
       </c>
       <c r="F72" s="3">
-        <v>19522000</v>
+        <v>21478500</v>
       </c>
       <c r="G72" s="3">
-        <v>17863600</v>
+        <v>19652600</v>
       </c>
       <c r="H72" s="3">
-        <v>16872500</v>
+        <v>17983100</v>
       </c>
       <c r="I72" s="3">
-        <v>12547200</v>
+        <v>16985400</v>
       </c>
       <c r="J72" s="3">
+        <v>12631100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9120300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5544200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2410200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1127400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>712900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>402800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>241500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>311400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>210400</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21823700</v>
+        <v>21580600</v>
       </c>
       <c r="E76" s="3">
-        <v>21597900</v>
+        <v>21969600</v>
       </c>
       <c r="F76" s="3">
-        <v>19778700</v>
+        <v>21742300</v>
       </c>
       <c r="G76" s="3">
-        <v>18125000</v>
+        <v>19910900</v>
       </c>
       <c r="H76" s="3">
-        <v>17134200</v>
+        <v>18246200</v>
       </c>
       <c r="I76" s="3">
-        <v>12808300</v>
+        <v>17248800</v>
       </c>
       <c r="J76" s="3">
+        <v>12894000</v>
+      </c>
+      <c r="K76" s="3">
         <v>9381400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5800800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2665700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1368300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>962800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>656700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>488900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>576100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>471000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,70 +5239,73 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5123,65 +5315,68 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>540800</v>
+        <v>-206400</v>
       </c>
       <c r="E81" s="3">
-        <v>2453900</v>
+        <v>544400</v>
       </c>
       <c r="F81" s="3">
-        <v>1922200</v>
+        <v>2470300</v>
       </c>
       <c r="G81" s="3">
-        <v>1800600</v>
+        <v>1935000</v>
       </c>
       <c r="H81" s="3">
-        <v>3983200</v>
+        <v>1812600</v>
       </c>
       <c r="I81" s="3">
-        <v>3409700</v>
+        <v>4009900</v>
       </c>
       <c r="J81" s="3">
+        <v>3432500</v>
+      </c>
+      <c r="K81" s="3">
         <v>3457900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2948900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1193500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>366000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-218000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-96300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-209000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-111100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-56500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-27300</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5191,8 +5386,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,65 +5415,66 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>33800</v>
+        <v>34600</v>
       </c>
       <c r="E83" s="3">
-        <v>31200</v>
+        <v>34000</v>
       </c>
       <c r="F83" s="3">
-        <v>36100</v>
+        <v>31400</v>
       </c>
       <c r="G83" s="3">
-        <v>35800</v>
+        <v>36300</v>
       </c>
       <c r="H83" s="3">
-        <v>29700</v>
+        <v>36000</v>
       </c>
       <c r="I83" s="3">
-        <v>28000</v>
+        <v>29900</v>
       </c>
       <c r="J83" s="3">
+        <v>28200</v>
+      </c>
+      <c r="K83" s="3">
         <v>21300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>17400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>25900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10300</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,65 +5839,68 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-729500</v>
+        <v>4755600</v>
       </c>
       <c r="E89" s="3">
-        <v>893000</v>
+        <v>-734400</v>
       </c>
       <c r="F89" s="3">
-        <v>5146400</v>
+        <v>898900</v>
       </c>
       <c r="G89" s="3">
-        <v>4220500</v>
+        <v>5180800</v>
       </c>
       <c r="H89" s="3">
-        <v>4361700</v>
+        <v>4248700</v>
       </c>
       <c r="I89" s="3">
-        <v>-214800</v>
+        <v>4390800</v>
       </c>
       <c r="J89" s="3">
+        <v>-216300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1616200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-106100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-329400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>248600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-199800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-231800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-105000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-68400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-82000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5693,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,65 +5939,66 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-309300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-144500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-82600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-75400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-53400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14500</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,65 +6150,68 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-792000</v>
+        <v>-2484500</v>
       </c>
       <c r="E94" s="3">
-        <v>-173400</v>
+        <v>-797200</v>
       </c>
       <c r="F94" s="3">
-        <v>-89700</v>
+        <v>-174500</v>
       </c>
       <c r="G94" s="3">
-        <v>-84400</v>
+        <v>-90300</v>
       </c>
       <c r="H94" s="3">
-        <v>309500</v>
+        <v>-85000</v>
       </c>
       <c r="I94" s="3">
-        <v>-502800</v>
+        <v>311600</v>
       </c>
       <c r="J94" s="3">
+        <v>-506200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-99600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-21100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-90000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-78200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-46500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,65 +6532,68 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-313700</v>
+        <v>-177100</v>
       </c>
       <c r="E100" s="3">
-        <v>-69700</v>
+        <v>-315800</v>
       </c>
       <c r="F100" s="3">
-        <v>-703600</v>
+        <v>-70100</v>
       </c>
       <c r="G100" s="3">
-        <v>-841600</v>
+        <v>-708400</v>
       </c>
       <c r="H100" s="3">
-        <v>86500</v>
+        <v>-847200</v>
       </c>
       <c r="I100" s="3">
-        <v>-52700</v>
+        <v>87100</v>
       </c>
       <c r="J100" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>161800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>116000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>654100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>159500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>447500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>429600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>267900</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6357,65 +6603,68 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29200</v>
+        <v>98900</v>
       </c>
       <c r="E101" s="3">
-        <v>-163800</v>
+        <v>-29400</v>
       </c>
       <c r="F101" s="3">
-        <v>50300</v>
+        <v>-164900</v>
       </c>
       <c r="G101" s="3">
-        <v>120100</v>
+        <v>50600</v>
       </c>
       <c r="H101" s="3">
-        <v>57600</v>
+        <v>120900</v>
       </c>
       <c r="I101" s="3">
-        <v>16500</v>
+        <v>58000</v>
       </c>
       <c r="J101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K101" s="3">
         <v>26100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>26900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-45900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6425,65 +6674,68 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1864300</v>
+        <v>2192800</v>
       </c>
       <c r="E102" s="3">
-        <v>486100</v>
+        <v>-1876800</v>
       </c>
       <c r="F102" s="3">
-        <v>4403300</v>
+        <v>489400</v>
       </c>
       <c r="G102" s="3">
-        <v>3414500</v>
+        <v>4432800</v>
       </c>
       <c r="H102" s="3">
-        <v>4815300</v>
+        <v>3437400</v>
       </c>
       <c r="I102" s="3">
-        <v>-753800</v>
+        <v>4847400</v>
       </c>
       <c r="J102" s="3">
+        <v>-758900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1592300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-337200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>219200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>433300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>132500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-73700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>125700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-155100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>281600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>142600</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6491,6 +6743,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BNTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>BNTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,97 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
@@ -764,68 +765,71 @@
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>181800</v>
+        <v>971400</v>
       </c>
       <c r="E8" s="3">
-        <v>1384400</v>
+        <v>182000</v>
       </c>
       <c r="F8" s="3">
-        <v>4638100</v>
+        <v>1385500</v>
       </c>
       <c r="G8" s="3">
-        <v>3752300</v>
+        <v>4642000</v>
       </c>
       <c r="H8" s="3">
-        <v>3465300</v>
+        <v>3755400</v>
       </c>
       <c r="I8" s="3">
-        <v>6910700</v>
+        <v>3468200</v>
       </c>
       <c r="J8" s="3">
+        <v>6916400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5997800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6555400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5616400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2167200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>344500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>70100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>45600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>30200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>126800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>63600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>150100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>51100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,68 +839,71 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>176600</v>
+        <v>175600</v>
       </c>
       <c r="E9" s="3">
-        <v>104100</v>
+        <v>176700</v>
       </c>
       <c r="F9" s="3">
-        <v>198900</v>
+        <v>104200</v>
       </c>
       <c r="G9" s="3">
-        <v>816100</v>
+        <v>199100</v>
       </c>
       <c r="H9" s="3">
-        <v>828900</v>
+        <v>816800</v>
       </c>
       <c r="I9" s="3">
-        <v>1402900</v>
+        <v>829600</v>
       </c>
       <c r="J9" s="3">
+        <v>1404100</v>
+      </c>
+      <c r="K9" s="3">
         <v>632200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1304600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>935100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>246600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>10700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>16100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7600</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
@@ -906,68 +913,71 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>795800</v>
+      </c>
+      <c r="E10" s="3">
         <v>5200</v>
       </c>
-      <c r="E10" s="3">
-        <v>1280300</v>
-      </c>
       <c r="F10" s="3">
-        <v>4439200</v>
+        <v>1281400</v>
       </c>
       <c r="G10" s="3">
-        <v>2936200</v>
+        <v>4442900</v>
       </c>
       <c r="H10" s="3">
-        <v>2636400</v>
+        <v>2938600</v>
       </c>
       <c r="I10" s="3">
-        <v>5507800</v>
+        <v>2638600</v>
       </c>
       <c r="J10" s="3">
+        <v>5512300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5365500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5250900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4681300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1920600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>303600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>63000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>39400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>106500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>52900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>134000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>43500</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,68 +1017,69 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>389800</v>
+        <v>520400</v>
       </c>
       <c r="E12" s="3">
-        <v>346200</v>
+        <v>390200</v>
       </c>
       <c r="F12" s="3">
-        <v>538300</v>
+        <v>346400</v>
       </c>
       <c r="G12" s="3">
-        <v>355800</v>
+        <v>538700</v>
       </c>
       <c r="H12" s="3">
-        <v>420600</v>
+        <v>356100</v>
       </c>
       <c r="I12" s="3">
-        <v>298100</v>
+        <v>421000</v>
       </c>
       <c r="J12" s="3">
+        <v>298400</v>
+      </c>
+      <c r="K12" s="3">
         <v>283700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>271300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>205300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>220800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>256300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>236300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>103800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>264400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>135500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>168300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>68800</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1157,33 +1177,33 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-52400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-22500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-71800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,8 +1213,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1217,44 +1237,47 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E15" s="3">
         <v>15000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>15900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14400</v>
       </c>
-      <c r="G15" s="3">
-        <v>14700</v>
-      </c>
       <c r="H15" s="3">
+        <v>14800</v>
+      </c>
+      <c r="I15" s="3">
         <v>12600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>13800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1287,8 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,68 +1338,69 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>792500</v>
+        <v>892100</v>
       </c>
       <c r="E17" s="3">
-        <v>675000</v>
+        <v>793100</v>
       </c>
       <c r="F17" s="3">
-        <v>1068300</v>
+        <v>675500</v>
       </c>
       <c r="G17" s="3">
-        <v>1164000</v>
+        <v>1069200</v>
       </c>
       <c r="H17" s="3">
-        <v>1069900</v>
+        <v>1165000</v>
       </c>
       <c r="I17" s="3">
-        <v>1758300</v>
+        <v>1070800</v>
       </c>
       <c r="J17" s="3">
+        <v>1759800</v>
+      </c>
+      <c r="K17" s="3">
         <v>902800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1468700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1174500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>408600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>101000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>263500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>133900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>94800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>338700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>176000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>213400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>86100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,68 +1410,71 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-610700</v>
+        <v>79300</v>
       </c>
       <c r="E18" s="3">
-        <v>709400</v>
+        <v>-611200</v>
       </c>
       <c r="F18" s="3">
-        <v>3569800</v>
+        <v>710000</v>
       </c>
       <c r="G18" s="3">
-        <v>2588300</v>
+        <v>3572800</v>
       </c>
       <c r="H18" s="3">
-        <v>2395400</v>
+        <v>2590400</v>
       </c>
       <c r="I18" s="3">
-        <v>5152400</v>
+        <v>2397400</v>
       </c>
       <c r="J18" s="3">
+        <v>5156700</v>
+      </c>
+      <c r="K18" s="3">
         <v>5094900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5086700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4441900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1758600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>243500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-193400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-88300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-64600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-211900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-112400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-63300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-35100</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,68 +1514,69 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>163800</v>
+        <v>167400</v>
       </c>
       <c r="E20" s="3">
+        <v>163900</v>
+      </c>
+      <c r="F20" s="3">
         <v>59200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-128100</v>
-      </c>
       <c r="G20" s="3">
-        <v>65900</v>
+        <v>-128200</v>
       </c>
       <c r="H20" s="3">
-        <v>125200</v>
+        <v>66000</v>
       </c>
       <c r="I20" s="3">
-        <v>292200</v>
+        <v>125300</v>
       </c>
       <c r="J20" s="3">
+        <v>292400</v>
+      </c>
+      <c r="K20" s="3">
         <v>19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-185300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-37900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-21400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8700</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,68 +1586,71 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-412300</v>
+        <v>291500</v>
       </c>
       <c r="E21" s="3">
-        <v>802700</v>
+        <v>-412600</v>
       </c>
       <c r="F21" s="3">
-        <v>3473100</v>
+        <v>803300</v>
       </c>
       <c r="G21" s="3">
-        <v>2690500</v>
+        <v>3476000</v>
       </c>
       <c r="H21" s="3">
-        <v>2556600</v>
+        <v>2692800</v>
       </c>
       <c r="I21" s="3">
-        <v>5474500</v>
+        <v>2558800</v>
       </c>
       <c r="J21" s="3">
+        <v>5479000</v>
+      </c>
+      <c r="K21" s="3">
         <v>5142200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5048500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4274000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1752000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>218200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-205700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-88600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-48400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-167900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-91100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-28200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16100</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,68 +1660,71 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>600</v>
       </c>
       <c r="O22" s="3">
         <v>600</v>
       </c>
       <c r="P22" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q22" s="3">
         <v>500</v>
       </c>
       <c r="R22" s="3">
+        <v>500</v>
+      </c>
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>2000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1694,68 +1734,71 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-446900</v>
+        <v>246700</v>
       </c>
       <c r="E23" s="3">
-        <v>767200</v>
+        <v>-447200</v>
       </c>
       <c r="F23" s="3">
-        <v>3439400</v>
+        <v>767900</v>
       </c>
       <c r="G23" s="3">
-        <v>2649600</v>
+        <v>3442300</v>
       </c>
       <c r="H23" s="3">
-        <v>2514400</v>
+        <v>2651800</v>
       </c>
       <c r="I23" s="3">
-        <v>5440100</v>
+        <v>2516400</v>
       </c>
       <c r="J23" s="3">
+        <v>5444600</v>
+      </c>
+      <c r="K23" s="3">
         <v>5110300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5026300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4256100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1737600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>205100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-215400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-98700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-58200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-209500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-111300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-56100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-27400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,67 +1808,70 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-240500</v>
+        <v>72500</v>
       </c>
       <c r="E24" s="3">
-        <v>222800</v>
+        <v>-240700</v>
       </c>
       <c r="F24" s="3">
-        <v>969100</v>
+        <v>223000</v>
       </c>
       <c r="G24" s="3">
-        <v>714600</v>
+        <v>969900</v>
       </c>
       <c r="H24" s="3">
-        <v>701700</v>
+        <v>715200</v>
       </c>
       <c r="I24" s="3">
-        <v>1430300</v>
+        <v>702300</v>
       </c>
       <c r="J24" s="3">
+        <v>1431400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1677900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1568400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1307300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>544000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-160900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,68 +1956,71 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-206400</v>
+        <v>174300</v>
       </c>
       <c r="E26" s="3">
-        <v>544400</v>
+        <v>-206600</v>
       </c>
       <c r="F26" s="3">
-        <v>2470300</v>
+        <v>544900</v>
       </c>
       <c r="G26" s="3">
-        <v>1935000</v>
+        <v>2472400</v>
       </c>
       <c r="H26" s="3">
-        <v>1812600</v>
+        <v>1936600</v>
       </c>
       <c r="I26" s="3">
-        <v>4009900</v>
+        <v>1814100</v>
       </c>
       <c r="J26" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K26" s="3">
         <v>3432500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3457900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2948900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1193500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>366000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-218000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-58200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-209200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-111300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-56800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-27400</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1978,68 +2030,71 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-206400</v>
+        <v>174300</v>
       </c>
       <c r="E27" s="3">
-        <v>544400</v>
+        <v>-206600</v>
       </c>
       <c r="F27" s="3">
-        <v>2470300</v>
+        <v>544900</v>
       </c>
       <c r="G27" s="3">
-        <v>1935000</v>
+        <v>2472400</v>
       </c>
       <c r="H27" s="3">
-        <v>1812600</v>
+        <v>1936600</v>
       </c>
       <c r="I27" s="3">
-        <v>4009900</v>
+        <v>1814100</v>
       </c>
       <c r="J27" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K27" s="3">
         <v>3432500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3457900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2948900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1193500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>366000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-218000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-58200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-209000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-111100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-56500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-27300</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,68 +2400,71 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-163800</v>
+        <v>-167400</v>
       </c>
       <c r="E32" s="3">
+        <v>-163900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-59200</v>
       </c>
-      <c r="F32" s="3">
-        <v>128100</v>
-      </c>
       <c r="G32" s="3">
-        <v>-65900</v>
+        <v>128200</v>
       </c>
       <c r="H32" s="3">
-        <v>-125200</v>
+        <v>-66000</v>
       </c>
       <c r="I32" s="3">
-        <v>-292200</v>
+        <v>-125300</v>
       </c>
       <c r="J32" s="3">
+        <v>-292400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>185300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>37900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>21400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8700</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,68 +2474,71 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-206400</v>
+        <v>174300</v>
       </c>
       <c r="E33" s="3">
-        <v>544400</v>
+        <v>-206600</v>
       </c>
       <c r="F33" s="3">
-        <v>2470300</v>
+        <v>544900</v>
       </c>
       <c r="G33" s="3">
-        <v>1935000</v>
+        <v>2472400</v>
       </c>
       <c r="H33" s="3">
-        <v>1812600</v>
+        <v>1936600</v>
       </c>
       <c r="I33" s="3">
-        <v>4009900</v>
+        <v>1814100</v>
       </c>
       <c r="J33" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K33" s="3">
         <v>3432500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3457900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2948900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1193500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>366000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-218000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-58200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-209000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-111100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-56500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-27300</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,68 +2622,71 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-206400</v>
+        <v>174300</v>
       </c>
       <c r="E35" s="3">
-        <v>544400</v>
+        <v>-206600</v>
       </c>
       <c r="F35" s="3">
-        <v>2470300</v>
+        <v>544900</v>
       </c>
       <c r="G35" s="3">
-        <v>1935000</v>
+        <v>2472400</v>
       </c>
       <c r="H35" s="3">
-        <v>1812600</v>
+        <v>1936600</v>
       </c>
       <c r="I35" s="3">
-        <v>4009900</v>
+        <v>1814100</v>
       </c>
       <c r="J35" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K35" s="3">
         <v>3432500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3457900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2948900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1193500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>366000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-218000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-58200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-209000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-111100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-56500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-27300</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,73 +2696,76 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2775,11 @@
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15358000</v>
+        <v>14642900</v>
       </c>
       <c r="E41" s="3">
-        <v>13165200</v>
+        <v>15370800</v>
       </c>
       <c r="F41" s="3">
-        <v>15042000</v>
+        <v>13176100</v>
       </c>
       <c r="G41" s="3">
-        <v>14552600</v>
+        <v>15054500</v>
       </c>
       <c r="H41" s="3">
-        <v>10119900</v>
+        <v>14564700</v>
       </c>
       <c r="I41" s="3">
-        <v>6682500</v>
+        <v>10128300</v>
       </c>
       <c r="J41" s="3">
+        <v>6688000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1835100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2576700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>967100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>943200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1207100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1028000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>625100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>492700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>606100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>349000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,62 +2905,65 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1507700</v>
+        <v>2444800</v>
       </c>
       <c r="E42" s="3">
-        <v>388100</v>
+        <v>1508900</v>
       </c>
       <c r="F42" s="3">
-        <v>205300</v>
+        <v>388400</v>
       </c>
       <c r="G42" s="3">
+        <v>205500</v>
+      </c>
+      <c r="H42" s="3">
         <v>5200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>413700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>136900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>18500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>233500</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,62 +2979,65 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3247300</v>
+        <v>2493400</v>
       </c>
       <c r="E43" s="3">
-        <v>7576600</v>
+        <v>3250000</v>
       </c>
       <c r="F43" s="3">
-        <v>7747000</v>
+        <v>7582800</v>
       </c>
       <c r="G43" s="3">
-        <v>7924600</v>
+        <v>7753400</v>
       </c>
       <c r="H43" s="3">
-        <v>11256500</v>
+        <v>7931100</v>
       </c>
       <c r="I43" s="3">
-        <v>13764000</v>
+        <v>11265900</v>
       </c>
       <c r="J43" s="3">
+        <v>13775400</v>
+      </c>
+      <c r="K43" s="3">
         <v>13423400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11420300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7461700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2535000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>14800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11400</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2960,62 +3053,65 @@
       <c r="Y43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>486700</v>
+        <v>451000</v>
       </c>
       <c r="E44" s="3">
-        <v>459800</v>
+        <v>487100</v>
       </c>
       <c r="F44" s="3">
-        <v>476600</v>
+        <v>460100</v>
       </c>
       <c r="G44" s="3">
-        <v>319600</v>
+        <v>477000</v>
       </c>
       <c r="H44" s="3">
-        <v>398600</v>
+        <v>319900</v>
       </c>
       <c r="I44" s="3">
-        <v>497900</v>
+        <v>399000</v>
       </c>
       <c r="J44" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K44" s="3">
         <v>544800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>423700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>323100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>155400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>10500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>13700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8900</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>230200</v>
+        <v>310500</v>
       </c>
       <c r="E45" s="3">
-        <v>185700</v>
+        <v>230300</v>
       </c>
       <c r="F45" s="3">
-        <v>294800</v>
+        <v>185900</v>
       </c>
       <c r="G45" s="3">
-        <v>255500</v>
+        <v>295000</v>
       </c>
       <c r="H45" s="3">
-        <v>132500</v>
+        <v>255700</v>
       </c>
       <c r="I45" s="3">
-        <v>157800</v>
+        <v>132600</v>
       </c>
       <c r="J45" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K45" s="3">
         <v>122900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>170900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>176300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>107000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>88700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20829800</v>
+        <v>20342800</v>
       </c>
       <c r="E46" s="3">
-        <v>21775300</v>
+        <v>20847100</v>
       </c>
       <c r="F46" s="3">
-        <v>23765600</v>
+        <v>21793400</v>
       </c>
       <c r="G46" s="3">
-        <v>23057500</v>
+        <v>23785400</v>
       </c>
       <c r="H46" s="3">
-        <v>21907600</v>
+        <v>23076600</v>
       </c>
       <c r="I46" s="3">
-        <v>21103200</v>
+        <v>21925800</v>
       </c>
       <c r="J46" s="3">
+        <v>21120700</v>
+      </c>
+      <c r="K46" s="3">
         <v>16339900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14593500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8929000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3741100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1662600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1133200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>677600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>537700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>653900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>617800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,35 +3275,38 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1489900</v>
+        <v>1402600</v>
       </c>
       <c r="E47" s="3">
-        <v>560300</v>
+        <v>1491100</v>
       </c>
       <c r="F47" s="3">
-        <v>86900</v>
+        <v>560700</v>
       </c>
       <c r="G47" s="3">
-        <v>57200</v>
+        <v>87000</v>
       </c>
       <c r="H47" s="3">
-        <v>55800</v>
+        <v>57300</v>
       </c>
       <c r="I47" s="3">
+        <v>55900</v>
+      </c>
+      <c r="J47" s="3">
         <v>52500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3319,8 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3226,8 +3331,8 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>969200</v>
+        <v>1004600</v>
       </c>
       <c r="E48" s="3">
-        <v>918900</v>
+        <v>970000</v>
       </c>
       <c r="F48" s="3">
-        <v>890200</v>
+        <v>919600</v>
       </c>
       <c r="G48" s="3">
-        <v>824500</v>
+        <v>890900</v>
       </c>
       <c r="H48" s="3">
-        <v>720000</v>
+        <v>825100</v>
       </c>
       <c r="I48" s="3">
-        <v>603700</v>
+        <v>720500</v>
       </c>
       <c r="J48" s="3">
+        <v>604200</v>
+      </c>
+      <c r="K48" s="3">
         <v>564200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>476100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>403200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>381700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>325100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>190500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>158600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>172800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>150700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,62 +3423,65 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>543600</v>
+        <v>1118700</v>
       </c>
       <c r="E49" s="3">
-        <v>410400</v>
+        <v>544000</v>
       </c>
       <c r="F49" s="3">
-        <v>238200</v>
+        <v>410800</v>
       </c>
       <c r="G49" s="3">
-        <v>245200</v>
+        <v>238400</v>
       </c>
       <c r="H49" s="3">
-        <v>240000</v>
+        <v>245400</v>
       </c>
       <c r="I49" s="3">
-        <v>234200</v>
+        <v>240200</v>
       </c>
       <c r="J49" s="3">
+        <v>234400</v>
+      </c>
+      <c r="K49" s="3">
         <v>219400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>175400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>173600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>174800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>163100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>175100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>199900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>102500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>104400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>116400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,53 +3645,56 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>262400</v>
+        <v>226100</v>
       </c>
       <c r="E52" s="3">
-        <v>270900</v>
+        <v>262600</v>
       </c>
       <c r="F52" s="3">
-        <v>256000</v>
+        <v>271100</v>
       </c>
       <c r="G52" s="3">
-        <v>381900</v>
+        <v>256200</v>
       </c>
       <c r="H52" s="3">
+        <v>382200</v>
+      </c>
+      <c r="I52" s="3">
         <v>11200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>173600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>151000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>161900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3590,8 +3710,8 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,53 +3805,53 @@
         <v>24094800</v>
       </c>
       <c r="E54" s="3">
-        <v>23935800</v>
+        <v>24114800</v>
       </c>
       <c r="F54" s="3">
-        <v>25236900</v>
+        <v>23955700</v>
       </c>
       <c r="G54" s="3">
-        <v>24566400</v>
+        <v>25257800</v>
       </c>
       <c r="H54" s="3">
-        <v>22934600</v>
+        <v>24586800</v>
       </c>
       <c r="I54" s="3">
-        <v>22006800</v>
+        <v>22953600</v>
       </c>
       <c r="J54" s="3">
+        <v>22025100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17162200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15327100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9679400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4448600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2312600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1504200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1061900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>798800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>931200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>884900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>247800</v>
+        <v>241600</v>
       </c>
       <c r="E57" s="3">
+        <v>248000</v>
+      </c>
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
-        <v>221300</v>
-      </c>
       <c r="G57" s="3">
-        <v>321400</v>
+        <v>221400</v>
       </c>
       <c r="H57" s="3">
-        <v>315600</v>
+        <v>321700</v>
       </c>
       <c r="I57" s="3">
-        <v>134100</v>
+        <v>315800</v>
       </c>
       <c r="J57" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K57" s="3">
         <v>173500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>278800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>277900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>43500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>21200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>23900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,62 +3997,65 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>41800</v>
+        <v>43400</v>
       </c>
       <c r="E58" s="3">
-        <v>40500</v>
+        <v>41900</v>
       </c>
       <c r="F58" s="3">
-        <v>39000</v>
+        <v>40600</v>
       </c>
       <c r="G58" s="3">
+        <v>39100</v>
+      </c>
+      <c r="H58" s="3">
         <v>40100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>35000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>140800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>140300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>17800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>25000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1682300</v>
+        <v>1675800</v>
       </c>
       <c r="E59" s="3">
-        <v>1608400</v>
+        <v>1683700</v>
       </c>
       <c r="F59" s="3">
-        <v>2938500</v>
+        <v>1609700</v>
       </c>
       <c r="G59" s="3">
-        <v>3929000</v>
+        <v>2940900</v>
       </c>
       <c r="H59" s="3">
-        <v>3903100</v>
+        <v>3932300</v>
       </c>
       <c r="I59" s="3">
-        <v>4011400</v>
+        <v>3906300</v>
       </c>
       <c r="J59" s="3">
+        <v>4014700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3460100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4980300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3054100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1255700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>496300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>148900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>116000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>133300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>120900</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1972000</v>
+        <v>1960800</v>
       </c>
       <c r="E60" s="3">
-        <v>1681300</v>
+        <v>1973600</v>
       </c>
       <c r="F60" s="3">
-        <v>3198700</v>
+        <v>1682700</v>
       </c>
       <c r="G60" s="3">
-        <v>4290500</v>
+        <v>3201400</v>
       </c>
       <c r="H60" s="3">
-        <v>4253700</v>
+        <v>4294100</v>
       </c>
       <c r="I60" s="3">
-        <v>4178700</v>
+        <v>4257200</v>
       </c>
       <c r="J60" s="3">
+        <v>4182100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3774400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5279600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3346800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1387100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>604400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>278700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>227500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>155000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>161300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>166600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,62 +4219,65 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>181200</v>
+        <v>175700</v>
       </c>
       <c r="E61" s="3">
-        <v>186900</v>
+        <v>181300</v>
       </c>
       <c r="F61" s="3">
-        <v>191000</v>
+        <v>187100</v>
       </c>
       <c r="G61" s="3">
-        <v>256900</v>
+        <v>191200</v>
       </c>
       <c r="H61" s="3">
-        <v>224000</v>
+        <v>257100</v>
       </c>
       <c r="I61" s="3">
-        <v>168500</v>
+        <v>224200</v>
       </c>
       <c r="J61" s="3">
+        <v>168600</v>
+      </c>
+      <c r="K61" s="3">
         <v>186000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>288300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>257000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>250300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>230400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>182300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>76700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>72700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>80400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>75100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>361000</v>
+        <v>402900</v>
       </c>
       <c r="E62" s="3">
-        <v>98000</v>
+        <v>361300</v>
       </c>
       <c r="F62" s="3">
-        <v>104800</v>
+        <v>98100</v>
       </c>
       <c r="G62" s="3">
-        <v>108000</v>
+        <v>104900</v>
       </c>
       <c r="H62" s="3">
-        <v>210700</v>
+        <v>108100</v>
       </c>
       <c r="I62" s="3">
-        <v>410900</v>
+        <v>210900</v>
       </c>
       <c r="J62" s="3">
+        <v>411200</v>
+      </c>
+      <c r="K62" s="3">
         <v>307800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>377800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>274900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>145400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>109400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>82200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>113400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>172200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2514100</v>
+        <v>2539300</v>
       </c>
       <c r="E66" s="3">
-        <v>1966200</v>
+        <v>2516200</v>
       </c>
       <c r="F66" s="3">
-        <v>3494600</v>
+        <v>1967900</v>
       </c>
       <c r="G66" s="3">
-        <v>4655500</v>
+        <v>3497500</v>
       </c>
       <c r="H66" s="3">
-        <v>4688400</v>
+        <v>4659300</v>
       </c>
       <c r="I66" s="3">
-        <v>4758000</v>
+        <v>4692300</v>
       </c>
       <c r="J66" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4268200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5945700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3878600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1782800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>944300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>541300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>405300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>309900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>355100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>413900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>21320700</v>
+        <v>21297500</v>
       </c>
       <c r="E72" s="3">
-        <v>21708300</v>
+        <v>21338400</v>
       </c>
       <c r="F72" s="3">
-        <v>21478500</v>
+        <v>21726400</v>
       </c>
       <c r="G72" s="3">
-        <v>19652600</v>
+        <v>21496300</v>
       </c>
       <c r="H72" s="3">
-        <v>17983100</v>
+        <v>19668900</v>
       </c>
       <c r="I72" s="3">
-        <v>16985400</v>
+        <v>17998000</v>
       </c>
       <c r="J72" s="3">
+        <v>16999500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12631100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9120300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5544200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2410200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1127400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>712900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>402800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>241500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>311400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>210400</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21580600</v>
+        <v>21555500</v>
       </c>
       <c r="E76" s="3">
-        <v>21969600</v>
+        <v>21598600</v>
       </c>
       <c r="F76" s="3">
-        <v>21742300</v>
+        <v>21987900</v>
       </c>
       <c r="G76" s="3">
-        <v>19910900</v>
+        <v>21760300</v>
       </c>
       <c r="H76" s="3">
-        <v>18246200</v>
+        <v>19927400</v>
       </c>
       <c r="I76" s="3">
-        <v>17248800</v>
+        <v>18261300</v>
       </c>
       <c r="J76" s="3">
+        <v>17263100</v>
+      </c>
+      <c r="K76" s="3">
         <v>12894000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9381400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2665700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1368300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>962800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>656700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>488900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>576100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>471000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,73 +5431,76 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
@@ -5318,68 +5510,71 @@
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-206400</v>
+        <v>174300</v>
       </c>
       <c r="E81" s="3">
-        <v>544400</v>
+        <v>-206600</v>
       </c>
       <c r="F81" s="3">
-        <v>2470300</v>
+        <v>544900</v>
       </c>
       <c r="G81" s="3">
-        <v>1935000</v>
+        <v>2472400</v>
       </c>
       <c r="H81" s="3">
-        <v>1812600</v>
+        <v>1936600</v>
       </c>
       <c r="I81" s="3">
-        <v>4009900</v>
+        <v>1814100</v>
       </c>
       <c r="J81" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K81" s="3">
         <v>3432500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3457900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2948900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1193500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>366000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-218000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-96300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-58200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-209000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-111100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-56500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-27300</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,68 +5614,69 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E83" s="3">
         <v>34600</v>
       </c>
-      <c r="E83" s="3">
-        <v>34000</v>
-      </c>
       <c r="F83" s="3">
-        <v>31400</v>
+        <v>34100</v>
       </c>
       <c r="G83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="H83" s="3">
         <v>36300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>21300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>17400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>25900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10300</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,68 +6056,71 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4755600</v>
+        <v>880200</v>
       </c>
       <c r="E89" s="3">
-        <v>-734400</v>
+        <v>4759600</v>
       </c>
       <c r="F89" s="3">
-        <v>898900</v>
+        <v>-735000</v>
       </c>
       <c r="G89" s="3">
-        <v>5180800</v>
+        <v>899700</v>
       </c>
       <c r="H89" s="3">
-        <v>4248700</v>
+        <v>5185100</v>
       </c>
       <c r="I89" s="3">
-        <v>4390800</v>
+        <v>4252200</v>
       </c>
       <c r="J89" s="3">
+        <v>4394500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-216300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1616200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-106100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-329400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>248600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-199800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-59700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-231800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-105000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-68400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-82000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,68 +6160,69 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-151200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-309300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-144500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-82600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-75400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-53400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-41300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14500</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,68 +6380,71 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2484500</v>
+        <v>-1336900</v>
       </c>
       <c r="E94" s="3">
-        <v>-797200</v>
+        <v>-2486600</v>
       </c>
       <c r="F94" s="3">
-        <v>-174500</v>
+        <v>-797900</v>
       </c>
       <c r="G94" s="3">
-        <v>-90300</v>
+        <v>-174700</v>
       </c>
       <c r="H94" s="3">
-        <v>-85000</v>
+        <v>-90400</v>
       </c>
       <c r="I94" s="3">
-        <v>311600</v>
+        <v>-85100</v>
       </c>
       <c r="J94" s="3">
+        <v>311800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-506200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-31500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-99600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-21100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-90000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-56100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-78200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-46500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,68 +6778,71 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-177100</v>
+        <v>-337400</v>
       </c>
       <c r="E100" s="3">
-        <v>-315800</v>
+        <v>-177300</v>
       </c>
       <c r="F100" s="3">
-        <v>-70100</v>
+        <v>-316100</v>
       </c>
       <c r="G100" s="3">
-        <v>-708400</v>
+        <v>-70200</v>
       </c>
       <c r="H100" s="3">
-        <v>-847200</v>
+        <v>-708900</v>
       </c>
       <c r="I100" s="3">
+        <v>-847900</v>
+      </c>
+      <c r="J100" s="3">
         <v>87100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-53000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>161800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>116000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>654100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>159500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>447500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>429600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>267900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6606,68 +6852,71 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>98900</v>
+        <v>66400</v>
       </c>
       <c r="E101" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-29400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-164900</v>
-      </c>
       <c r="G101" s="3">
-        <v>50600</v>
+        <v>-165000</v>
       </c>
       <c r="H101" s="3">
-        <v>120900</v>
+        <v>50700</v>
       </c>
       <c r="I101" s="3">
+        <v>121000</v>
+      </c>
+      <c r="J101" s="3">
         <v>58000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>26100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-45900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6677,68 +6926,71 @@
       <c r="Y101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2192800</v>
+        <v>-727800</v>
       </c>
       <c r="E102" s="3">
-        <v>-1876800</v>
+        <v>2194600</v>
       </c>
       <c r="F102" s="3">
-        <v>489400</v>
+        <v>-1878400</v>
       </c>
       <c r="G102" s="3">
-        <v>4432800</v>
+        <v>489800</v>
       </c>
       <c r="H102" s="3">
-        <v>3437400</v>
+        <v>4436500</v>
       </c>
       <c r="I102" s="3">
-        <v>4847400</v>
+        <v>3440200</v>
       </c>
       <c r="J102" s="3">
+        <v>4851500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-758900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1592300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-337200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>219200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>433300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>132500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-73700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>125700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-155100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>281600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>142600</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
